--- a/doc/设计文档/数据库设计/数据库设计.xlsx
+++ b/doc/设计文档/数据库设计/数据库设计.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="782">
   <si>
     <t>序号</t>
   </si>
@@ -3115,6 +3115,30 @@
   </si>
   <si>
     <t>CHARGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AREA_FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否开启库位管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 'N'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认不开启，开启后物料在当前库区存储时必须指定具体的库位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于支持立体库位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3390,7 +3414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3440,6 +3464,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3468,6 +3495,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3475,15 +3511,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4990,25 +5017,25 @@
       <c r="B3" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -5405,25 +5432,25 @@
       <c r="B31" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="32" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23"/>
     </row>
     <row r="33" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
@@ -5738,25 +5765,25 @@
       <c r="B54" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="20"/>
     </row>
     <row r="55" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B55" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="23"/>
     </row>
     <row r="56" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
@@ -6103,25 +6130,25 @@
       <c r="B79" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="20"/>
     </row>
     <row r="80" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B80" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="23"/>
     </row>
     <row r="81" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B81" s="4" t="s">
@@ -6624,25 +6651,25 @@
       <c r="B114" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C114" s="17" t="s">
+      <c r="C114" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="19"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="20"/>
     </row>
     <row r="115" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B115" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C115" s="20" t="s">
+      <c r="C115" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D115" s="21"/>
-      <c r="E115" s="21"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="22"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="23"/>
     </row>
     <row r="116" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B116" s="4" t="s">
@@ -7127,25 +7154,25 @@
       <c r="B149" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C149" s="17" t="s">
+      <c r="C149" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="D149" s="18"/>
-      <c r="E149" s="18"/>
-      <c r="F149" s="18"/>
-      <c r="G149" s="19"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="20"/>
     </row>
     <row r="150" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B150" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C150" s="20" t="s">
+      <c r="C150" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="D150" s="21"/>
-      <c r="E150" s="21"/>
-      <c r="F150" s="21"/>
-      <c r="G150" s="22"/>
+      <c r="D150" s="22"/>
+      <c r="E150" s="22"/>
+      <c r="F150" s="22"/>
+      <c r="G150" s="23"/>
     </row>
     <row r="151" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B151" s="4" t="s">
@@ -7183,7 +7210,7 @@
       <c r="F152" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G152" s="23" t="s">
+      <c r="G152" s="24" t="s">
         <v>419</v>
       </c>
     </row>
@@ -7203,7 +7230,7 @@
       <c r="F153" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G153" s="24"/>
+      <c r="G153" s="25"/>
     </row>
     <row r="154" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B154" s="6">
@@ -7221,7 +7248,7 @@
       <c r="F154" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G154" s="25"/>
+      <c r="G154" s="26"/>
     </row>
     <row r="155" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B155" s="6">
@@ -7522,25 +7549,25 @@
       <c r="B176" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C176" s="17" t="s">
+      <c r="C176" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="D176" s="18"/>
-      <c r="E176" s="18"/>
-      <c r="F176" s="18"/>
-      <c r="G176" s="19"/>
+      <c r="D176" s="19"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="19"/>
+      <c r="G176" s="20"/>
     </row>
     <row r="177" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B177" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C177" s="20" t="s">
+      <c r="C177" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="D177" s="21"/>
-      <c r="E177" s="21"/>
-      <c r="F177" s="21"/>
-      <c r="G177" s="22"/>
+      <c r="D177" s="22"/>
+      <c r="E177" s="22"/>
+      <c r="F177" s="22"/>
+      <c r="G177" s="23"/>
     </row>
     <row r="178" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B178" s="4" t="s">
@@ -7801,25 +7828,25 @@
       <c r="B196" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C196" s="17" t="s">
+      <c r="C196" s="18" t="s">
         <v>728</v>
       </c>
-      <c r="D196" s="18"/>
-      <c r="E196" s="18"/>
-      <c r="F196" s="18"/>
-      <c r="G196" s="19"/>
+      <c r="D196" s="19"/>
+      <c r="E196" s="19"/>
+      <c r="F196" s="19"/>
+      <c r="G196" s="20"/>
     </row>
     <row r="197" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B197" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C197" s="20" t="s">
+      <c r="C197" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="D197" s="21"/>
-      <c r="E197" s="21"/>
-      <c r="F197" s="21"/>
-      <c r="G197" s="22"/>
+      <c r="D197" s="22"/>
+      <c r="E197" s="22"/>
+      <c r="F197" s="22"/>
+      <c r="G197" s="23"/>
     </row>
     <row r="198" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B198" s="4" t="s">
@@ -8116,25 +8143,25 @@
       <c r="B218" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C218" s="17" t="s">
+      <c r="C218" s="18" t="s">
         <v>739</v>
       </c>
-      <c r="D218" s="18"/>
-      <c r="E218" s="18"/>
-      <c r="F218" s="18"/>
-      <c r="G218" s="19"/>
+      <c r="D218" s="19"/>
+      <c r="E218" s="19"/>
+      <c r="F218" s="19"/>
+      <c r="G218" s="20"/>
     </row>
     <row r="219" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B219" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C219" s="20" t="s">
+      <c r="C219" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="D219" s="21"/>
-      <c r="E219" s="21"/>
-      <c r="F219" s="21"/>
-      <c r="G219" s="22"/>
+      <c r="D219" s="22"/>
+      <c r="E219" s="22"/>
+      <c r="F219" s="22"/>
+      <c r="G219" s="23"/>
     </row>
     <row r="220" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B220" s="4" t="s">
@@ -8409,25 +8436,25 @@
       <c r="B238" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C238" s="17" t="s">
+      <c r="C238" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="D238" s="18"/>
-      <c r="E238" s="18"/>
-      <c r="F238" s="18"/>
-      <c r="G238" s="19"/>
+      <c r="D238" s="19"/>
+      <c r="E238" s="19"/>
+      <c r="F238" s="19"/>
+      <c r="G238" s="20"/>
     </row>
     <row r="239" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B239" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C239" s="20" t="s">
+      <c r="C239" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="D239" s="21"/>
-      <c r="E239" s="21"/>
-      <c r="F239" s="21"/>
-      <c r="G239" s="22"/>
+      <c r="D239" s="22"/>
+      <c r="E239" s="22"/>
+      <c r="F239" s="22"/>
+      <c r="G239" s="23"/>
     </row>
     <row r="240" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B240" s="4" t="s">
@@ -8670,25 +8697,25 @@
       <c r="B256" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C256" s="17" t="s">
+      <c r="C256" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="D256" s="18"/>
-      <c r="E256" s="18"/>
-      <c r="F256" s="18"/>
-      <c r="G256" s="19"/>
+      <c r="D256" s="19"/>
+      <c r="E256" s="19"/>
+      <c r="F256" s="19"/>
+      <c r="G256" s="20"/>
     </row>
     <row r="257" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B257" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C257" s="20" t="s">
+      <c r="C257" s="21" t="s">
         <v>429</v>
       </c>
-      <c r="D257" s="21"/>
-      <c r="E257" s="21"/>
-      <c r="F257" s="21"/>
-      <c r="G257" s="22"/>
+      <c r="D257" s="22"/>
+      <c r="E257" s="22"/>
+      <c r="F257" s="22"/>
+      <c r="G257" s="23"/>
     </row>
     <row r="258" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B258" s="4" t="s">
@@ -8996,6 +9023,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C218:G218"/>
+    <mergeCell ref="C238:G238"/>
+    <mergeCell ref="C239:G239"/>
+    <mergeCell ref="C257:G257"/>
+    <mergeCell ref="C256:G256"/>
+    <mergeCell ref="C219:G219"/>
+    <mergeCell ref="C150:G150"/>
+    <mergeCell ref="C176:G176"/>
+    <mergeCell ref="C177:G177"/>
+    <mergeCell ref="C196:G196"/>
+    <mergeCell ref="C197:G197"/>
+    <mergeCell ref="G152:G154"/>
     <mergeCell ref="C149:G149"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
@@ -9007,18 +9046,6 @@
     <mergeCell ref="C80:G80"/>
     <mergeCell ref="C114:G114"/>
     <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C150:G150"/>
-    <mergeCell ref="C176:G176"/>
-    <mergeCell ref="C177:G177"/>
-    <mergeCell ref="C196:G196"/>
-    <mergeCell ref="C197:G197"/>
-    <mergeCell ref="G152:G154"/>
-    <mergeCell ref="C218:G218"/>
-    <mergeCell ref="C238:G238"/>
-    <mergeCell ref="C239:G239"/>
-    <mergeCell ref="C257:G257"/>
-    <mergeCell ref="C256:G256"/>
-    <mergeCell ref="C219:G219"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9047,25 +9074,25 @@
       <c r="B3" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -9261,7 +9288,7 @@
         <v>173</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="30" t="s">
         <v>389</v>
       </c>
     </row>
@@ -9279,7 +9306,7 @@
         <v>288</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="27"/>
+      <c r="G16" s="31"/>
     </row>
     <row r="17" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B17" s="6">
@@ -9295,7 +9322,7 @@
         <v>174</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="28"/>
+      <c r="G17" s="32"/>
     </row>
     <row r="18" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="6">
@@ -9462,25 +9489,25 @@
       <c r="B30" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B31" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
@@ -9732,7 +9759,7 @@
       <c r="F45" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="G45" s="29" t="s">
+      <c r="G45" s="27" t="s">
         <v>418</v>
       </c>
     </row>
@@ -9750,7 +9777,7 @@
         <v>383</v>
       </c>
       <c r="F46" s="2"/>
-      <c r="G46" s="30"/>
+      <c r="G46" s="28"/>
     </row>
     <row r="47" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B47" s="6">
@@ -9766,7 +9793,7 @@
         <v>383</v>
       </c>
       <c r="F47" s="2"/>
-      <c r="G47" s="31"/>
+      <c r="G47" s="29"/>
     </row>
     <row r="48" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B48" s="6">
@@ -9999,25 +10026,25 @@
       <c r="B64" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="20"/>
     </row>
     <row r="65" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B65" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="23"/>
     </row>
     <row r="66" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B66" s="4" t="s">
@@ -10290,25 +10317,25 @@
       <c r="B85" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="C85" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="20"/>
     </row>
     <row r="86" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B86" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="23"/>
     </row>
     <row r="87" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B87" s="4" t="s">
@@ -10551,25 +10578,25 @@
       <c r="B104" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C104" s="17" t="s">
+      <c r="C104" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="20"/>
     </row>
     <row r="105" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B105" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C105" s="20" t="s">
+      <c r="C105" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="22"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="23"/>
     </row>
     <row r="106" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B106" s="4" t="s">
@@ -10607,7 +10634,7 @@
       <c r="F107" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G107" s="26" t="s">
+      <c r="G107" s="30" t="s">
         <v>490</v>
       </c>
     </row>
@@ -10627,7 +10654,7 @@
       <c r="F108" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G108" s="27"/>
+      <c r="G108" s="31"/>
     </row>
     <row r="109" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B109" s="6">
@@ -10645,7 +10672,7 @@
       <c r="F109" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G109" s="27"/>
+      <c r="G109" s="31"/>
     </row>
     <row r="110" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B110" s="6">
@@ -10663,7 +10690,7 @@
       <c r="F110" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="G110" s="28"/>
+      <c r="G110" s="32"/>
     </row>
     <row r="111" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B111" s="6">
@@ -10814,25 +10841,25 @@
       <c r="B123" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C123" s="17" t="s">
+      <c r="C123" s="18" t="s">
         <v>469</v>
       </c>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
-      <c r="F123" s="18"/>
-      <c r="G123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="20"/>
     </row>
     <row r="124" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B124" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C124" s="20" t="s">
+      <c r="C124" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="D124" s="21"/>
-      <c r="E124" s="21"/>
-      <c r="F124" s="21"/>
-      <c r="G124" s="22"/>
+      <c r="D124" s="22"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="23"/>
     </row>
     <row r="125" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B125" s="4" t="s">
@@ -11123,25 +11150,25 @@
       <c r="B145" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C145" s="17" t="s">
+      <c r="C145" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="D145" s="18"/>
-      <c r="E145" s="18"/>
-      <c r="F145" s="18"/>
-      <c r="G145" s="19"/>
+      <c r="D145" s="19"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="19"/>
+      <c r="G145" s="20"/>
     </row>
     <row r="146" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B146" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C146" s="20" t="s">
+      <c r="C146" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="D146" s="21"/>
-      <c r="E146" s="21"/>
-      <c r="F146" s="21"/>
-      <c r="G146" s="22"/>
+      <c r="D146" s="22"/>
+      <c r="E146" s="22"/>
+      <c r="F146" s="22"/>
+      <c r="G146" s="23"/>
     </row>
     <row r="147" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B147" s="4" t="s">
@@ -11384,25 +11411,25 @@
       <c r="B164" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C164" s="17" t="s">
+      <c r="C164" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D164" s="18"/>
-      <c r="E164" s="18"/>
-      <c r="F164" s="18"/>
-      <c r="G164" s="19"/>
+      <c r="D164" s="19"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="19"/>
+      <c r="G164" s="20"/>
     </row>
     <row r="165" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B165" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C165" s="20" t="s">
+      <c r="C165" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="D165" s="21"/>
-      <c r="E165" s="21"/>
-      <c r="F165" s="21"/>
-      <c r="G165" s="22"/>
+      <c r="D165" s="22"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="23"/>
     </row>
     <row r="166" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B166" s="4" t="s">
@@ -11681,25 +11708,25 @@
       <c r="B185" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C185" s="17" t="s">
+      <c r="C185" s="18" t="s">
         <v>532</v>
       </c>
-      <c r="D185" s="18"/>
-      <c r="E185" s="18"/>
-      <c r="F185" s="18"/>
-      <c r="G185" s="19"/>
+      <c r="D185" s="19"/>
+      <c r="E185" s="19"/>
+      <c r="F185" s="19"/>
+      <c r="G185" s="20"/>
     </row>
     <row r="186" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B186" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C186" s="20" t="s">
+      <c r="C186" s="21" t="s">
         <v>534</v>
       </c>
-      <c r="D186" s="21"/>
-      <c r="E186" s="21"/>
-      <c r="F186" s="21"/>
-      <c r="G186" s="22"/>
+      <c r="D186" s="22"/>
+      <c r="E186" s="22"/>
+      <c r="F186" s="22"/>
+      <c r="G186" s="23"/>
     </row>
     <row r="187" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B187" s="4" t="s">
@@ -12012,25 +12039,25 @@
       <c r="B208" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C208" s="17" t="s">
+      <c r="C208" s="18" t="s">
         <v>513</v>
       </c>
-      <c r="D208" s="18"/>
-      <c r="E208" s="18"/>
-      <c r="F208" s="18"/>
-      <c r="G208" s="19"/>
+      <c r="D208" s="19"/>
+      <c r="E208" s="19"/>
+      <c r="F208" s="19"/>
+      <c r="G208" s="20"/>
     </row>
     <row r="209" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B209" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C209" s="20" t="s">
+      <c r="C209" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="D209" s="21"/>
-      <c r="E209" s="21"/>
-      <c r="F209" s="21"/>
-      <c r="G209" s="22"/>
+      <c r="D209" s="22"/>
+      <c r="E209" s="22"/>
+      <c r="F209" s="22"/>
+      <c r="G209" s="23"/>
     </row>
     <row r="210" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B210" s="4" t="s">
@@ -12323,25 +12350,25 @@
       <c r="B230" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C230" s="17" t="s">
+      <c r="C230" s="18" t="s">
         <v>561</v>
       </c>
-      <c r="D230" s="18"/>
-      <c r="E230" s="18"/>
-      <c r="F230" s="18"/>
-      <c r="G230" s="19"/>
+      <c r="D230" s="19"/>
+      <c r="E230" s="19"/>
+      <c r="F230" s="19"/>
+      <c r="G230" s="20"/>
     </row>
     <row r="231" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B231" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C231" s="20" t="s">
+      <c r="C231" s="21" t="s">
         <v>563</v>
       </c>
-      <c r="D231" s="21"/>
-      <c r="E231" s="21"/>
-      <c r="F231" s="21"/>
-      <c r="G231" s="22"/>
+      <c r="D231" s="22"/>
+      <c r="E231" s="22"/>
+      <c r="F231" s="22"/>
+      <c r="G231" s="23"/>
     </row>
     <row r="232" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B232" s="4" t="s">
@@ -12627,20 +12654,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C230:G230"/>
-    <mergeCell ref="C231:G231"/>
-    <mergeCell ref="C164:G164"/>
-    <mergeCell ref="C165:G165"/>
-    <mergeCell ref="C208:G208"/>
-    <mergeCell ref="C209:G209"/>
-    <mergeCell ref="C185:G185"/>
-    <mergeCell ref="C186:G186"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
     <mergeCell ref="C146:G146"/>
     <mergeCell ref="C64:G64"/>
     <mergeCell ref="C65:G65"/>
@@ -12652,6 +12665,20 @@
     <mergeCell ref="C124:G124"/>
     <mergeCell ref="G107:G110"/>
     <mergeCell ref="C145:G145"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C230:G230"/>
+    <mergeCell ref="C231:G231"/>
+    <mergeCell ref="C164:G164"/>
+    <mergeCell ref="C165:G165"/>
+    <mergeCell ref="C208:G208"/>
+    <mergeCell ref="C209:G209"/>
+    <mergeCell ref="C185:G185"/>
+    <mergeCell ref="C186:G186"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12660,10 +12687,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G100"/>
+  <dimension ref="B1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12680,25 +12707,25 @@
       <c r="B2" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>749</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -12973,25 +13000,25 @@
       <c r="B23" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="18" t="s">
         <v>750</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
     </row>
     <row r="25" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
@@ -13080,7 +13107,9 @@
       <c r="E29" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -13106,45 +13135,49 @@
         <v>6</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>152</v>
+        <v>776</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>153</v>
+        <v>777</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="15"/>
+        <v>778</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>780</v>
+      </c>
     </row>
     <row r="32" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B32" s="6">
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="7"/>
+      <c r="G32" s="17"/>
     </row>
     <row r="33" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B33" s="6">
         <v>8</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="7"/>
@@ -13154,13 +13187,13 @@
         <v>9</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="7"/>
@@ -13170,10 +13203,10 @@
         <v>10</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>177</v>
@@ -13186,13 +13219,13 @@
         <v>11</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="7"/>
@@ -13202,13 +13235,13 @@
         <v>12</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="7"/>
@@ -13218,126 +13251,124 @@
         <v>13</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="8">
+    <row r="39" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B39" s="6">
         <v>14</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="8">
+        <v>15</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D40" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E40" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="42" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B43" s="3" t="s">
+      <c r="F40" s="9"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="43" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B44" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C44" s="18" t="s">
         <v>751</v>
       </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="19"/>
-    </row>
-    <row r="44" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B44" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="20"/>
     </row>
     <row r="45" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="23"/>
+    </row>
+    <row r="46" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B46" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G46" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B46" s="6">
-        <v>1</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G46" s="7"/>
     </row>
     <row r="47" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B47" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G47" s="7"/>
     </row>
     <row r="48" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B48" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>181</v>
@@ -13346,159 +13377,163 @@
     </row>
     <row r="49" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B49" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F49" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="G49" s="7"/>
     </row>
     <row r="50" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B50" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>353</v>
+        <v>587</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>585</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="F50" s="2"/>
       <c r="G50" s="7"/>
     </row>
     <row r="51" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B51" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>740</v>
+        <v>353</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>742</v>
+        <v>598</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="14"/>
+        <v>584</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="G51" s="7"/>
     </row>
     <row r="52" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B52" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="14"/>
     </row>
     <row r="53" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B53" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="14"/>
     </row>
     <row r="54" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B54" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>152</v>
+        <v>745</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>153</v>
+        <v>744</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>168</v>
+        <v>746</v>
       </c>
       <c r="F54" s="2"/>
-      <c r="G54" s="15"/>
+      <c r="G54" s="14" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="55" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B55" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F55" s="2"/>
-      <c r="G55" s="7"/>
+      <c r="G55" s="15"/>
     </row>
     <row r="56" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B56" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="7"/>
     </row>
     <row r="57" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B57" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="7"/>
     </row>
     <row r="58" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B58" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>177</v>
@@ -13508,161 +13543,159 @@
     </row>
     <row r="59" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B59" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="7"/>
     </row>
     <row r="60" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B60" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="7"/>
     </row>
     <row r="61" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B61" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B62" s="6">
+        <v>16</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="6">
         <v>17</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C63" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D63" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E63" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="10"/>
-    </row>
-    <row r="65" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B66" s="3" t="s">
+      <c r="F63" s="9"/>
+      <c r="G63" s="10"/>
+    </row>
+    <row r="66" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B67" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C67" s="18" t="s">
         <v>752</v>
       </c>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="19"/>
-    </row>
-    <row r="67" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B67" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>602</v>
-      </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="22"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="20"/>
     </row>
     <row r="68" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B68" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="23"/>
+    </row>
+    <row r="69" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B69" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G69" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B69" s="6">
-        <v>1</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G69" s="7"/>
     </row>
     <row r="70" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B70" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>126</v>
+        <v>620</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>378</v>
+        <v>431</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>165</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G70" s="7"/>
     </row>
     <row r="71" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B71" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>181</v>
@@ -13671,16 +13704,16 @@
     </row>
     <row r="72" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B72" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>181</v>
@@ -13689,16 +13722,16 @@
     </row>
     <row r="73" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B73" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>131</v>
+        <v>380</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>181</v>
@@ -13707,115 +13740,117 @@
     </row>
     <row r="74" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B74" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>515</v>
+        <v>128</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>517</v>
+        <v>131</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F74" s="2"/>
-      <c r="G74" s="14" t="s">
-        <v>609</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G74" s="7"/>
     </row>
     <row r="75" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B75" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F75" s="2"/>
-      <c r="G75" s="14"/>
+      <c r="G75" s="14" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="76" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B76" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>604</v>
+        <v>516</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>605</v>
+        <v>518</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>606</v>
+        <v>166</v>
       </c>
       <c r="F76" s="2"/>
-      <c r="G76" s="14" t="s">
-        <v>607</v>
-      </c>
+      <c r="G76" s="14"/>
     </row>
     <row r="77" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B77" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>260</v>
+        <v>604</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>266</v>
+        <v>605</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>165</v>
+        <v>606</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="14" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="78" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B78" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F78" s="2"/>
-      <c r="G78" s="14"/>
+      <c r="G78" s="14" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="79" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B79" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="14"/>
     </row>
     <row r="80" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B80" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>167</v>
@@ -13825,261 +13860,261 @@
     </row>
     <row r="81" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B81" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>573</v>
+        <v>263</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>576</v>
+        <v>278</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F81" s="2"/>
-      <c r="G81" s="14" t="s">
-        <v>610</v>
-      </c>
+      <c r="G81" s="14"/>
     </row>
     <row r="82" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B82" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F82" s="2"/>
-      <c r="G82" s="14"/>
+      <c r="G82" s="14" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="83" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B83" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="14"/>
     </row>
     <row r="84" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B84" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F84" s="2"/>
-      <c r="G84" s="14" t="s">
-        <v>611</v>
-      </c>
+      <c r="G84" s="14"/>
     </row>
     <row r="85" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B85" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F85" s="2"/>
-      <c r="G85" s="14"/>
+      <c r="G85" s="14" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="86" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B86" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="14"/>
     </row>
     <row r="87" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B87" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F87" s="2"/>
-      <c r="G87" s="14" t="s">
-        <v>612</v>
-      </c>
+      <c r="G87" s="14"/>
     </row>
     <row r="88" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B88" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F88" s="2"/>
-      <c r="G88" s="14"/>
+      <c r="G88" s="14" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="89" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B89" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="14"/>
     </row>
     <row r="90" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B90" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>618</v>
+        <v>167</v>
       </c>
       <c r="F90" s="2"/>
-      <c r="G90" s="14" t="s">
-        <v>619</v>
-      </c>
+      <c r="G90" s="14"/>
     </row>
     <row r="91" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B91" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="F91" s="2"/>
-      <c r="G91" s="14"/>
+      <c r="G91" s="14" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="92" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B92" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>152</v>
+        <v>616</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>153</v>
+        <v>617</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>168</v>
+        <v>615</v>
       </c>
       <c r="F92" s="2"/>
-      <c r="G92" s="15"/>
+      <c r="G92" s="14"/>
     </row>
     <row r="93" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B93" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F93" s="2"/>
-      <c r="G93" s="7"/>
+      <c r="G93" s="15"/>
     </row>
     <row r="94" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B94" s="6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="7"/>
     </row>
     <row r="95" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B95" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="7"/>
     </row>
     <row r="96" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B96" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>177</v>
@@ -14089,78 +14124,94 @@
     </row>
     <row r="97" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B97" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="7"/>
     </row>
     <row r="98" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B98" s="6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="7"/>
     </row>
     <row r="99" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B99" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="7"/>
     </row>
-    <row r="100" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="8">
+    <row r="100" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B100" s="6">
+        <v>31</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="G100" s="7"/>
+    </row>
+    <row r="101" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="8">
         <v>32</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C101" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D101" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E100" s="9" t="s">
+      <c r="E101" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F100" s="9"/>
-      <c r="G100" s="10"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C45:G45"/>
     <mergeCell ref="C67:G67"/>
+    <mergeCell ref="C68:G68"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14221,25 +14272,25 @@
       <c r="B2" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>652</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>659</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -14558,25 +14609,25 @@
       <c r="B26" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="18" t="s">
         <v>648</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="21" t="s">
         <v>703</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
@@ -14999,25 +15050,25 @@
       <c r="B56" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="18" t="s">
         <v>650</v>
       </c>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="20"/>
     </row>
     <row r="57" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B57" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="21" t="s">
         <v>710</v>
       </c>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="23"/>
     </row>
     <row r="58" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B58" s="4" t="s">

--- a/doc/设计文档/数据库设计/数据库设计.xlsx
+++ b/doc/设计文档/数据库设计/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11760" windowHeight="6795" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11760" windowHeight="6795" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="表清单" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="792">
   <si>
     <t>序号</t>
   </si>
@@ -1195,14 +1195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MACHINE_SPEC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MACHINE_BRAND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>品牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1215,7 +1207,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MACHINE_TYPE_ID</t>
+    <t>设备类型ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORK_SHOP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORK_SHOP_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORK_SHOP_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属车间ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属车间编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属车间名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUNNING：运行中；STANBY：待机；STOP：停机；BROKDOWN：故障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defalt 'STOP',not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1239,70 +1283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WORK_SHOP_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WORK_SHOP_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WORK_SHOP_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属车间ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属车间编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属车间名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RUNNING：运行中；STANBY：待机；STOP：停机；BROKDOWN：故障</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defalt 'STOP',not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备类型表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MACHINE_TYPE_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MACHINE_TYPE_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备类型ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备类型编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备类型名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MD_UNIT_OF_MEASURE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3167,6 +3147,38 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACHINERY_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACHINERY_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACHINERY_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACHINERY_BRAND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACHINERY_SPEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACHINERY_TYPE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACHINERY_TYPE_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACHINERY_TYPE_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3517,13 +3529,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3535,13 +3547,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3931,28 +3943,28 @@
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -3972,7 +3984,7 @@
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -3998,29 +4010,29 @@
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -4053,7 +4065,7 @@
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
@@ -4081,7 +4093,7 @@
     <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>16</v>
@@ -4094,7 +4106,7 @@
     <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>16</v>
@@ -4107,20 +4119,20 @@
     <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>16</v>
@@ -4135,13 +4147,13 @@
     <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>29</v>
@@ -4150,16 +4162,16 @@
     <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -4186,7 +4198,7 @@
         <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>109</v>
@@ -4209,10 +4221,10 @@
     <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -4221,7 +4233,7 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -4230,7 +4242,7 @@
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -4396,7 +4408,7 @@
     <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>55</v>
@@ -4409,7 +4421,7 @@
     <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>55</v>
@@ -4422,7 +4434,7 @@
     <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>55</v>
@@ -4435,22 +4447,22 @@
     <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>55</v>
@@ -4465,7 +4477,7 @@
     <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>55</v>
@@ -4478,7 +4490,7 @@
     <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>55</v>
@@ -4493,7 +4505,7 @@
     <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>55</v>
@@ -4506,7 +4518,7 @@
     <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>55</v>
@@ -4521,7 +4533,7 @@
     <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>55</v>
@@ -4534,7 +4546,7 @@
     <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>55</v>
@@ -4549,7 +4561,7 @@
     <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>55</v>
@@ -4562,7 +4574,7 @@
     <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>55</v>
@@ -4577,7 +4589,7 @@
     <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>55</v>
@@ -4590,7 +4602,7 @@
     <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>55</v>
@@ -4605,7 +4617,7 @@
     <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>55</v>
@@ -4618,7 +4630,7 @@
     <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>55</v>
@@ -4633,7 +4645,7 @@
     <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>55</v>
@@ -4646,7 +4658,7 @@
     <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>55</v>
@@ -4661,7 +4673,7 @@
     <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>55</v>
@@ -4674,7 +4686,7 @@
     <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>55</v>
@@ -4689,7 +4701,7 @@
     <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>55</v>
@@ -4704,7 +4716,7 @@
     <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>55</v>
@@ -4733,10 +4745,10 @@
     <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>12</v>
@@ -4746,10 +4758,10 @@
     <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>13</v>
@@ -4762,7 +4774,7 @@
         <v>85</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>86</v>
@@ -4775,7 +4787,7 @@
         <v>87</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>88</v>
@@ -4790,7 +4802,7 @@
         <v>90</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>91</v>
@@ -4803,7 +4815,7 @@
         <v>92</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>93</v>
@@ -4816,7 +4828,7 @@
         <v>94</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>95</v>
@@ -4830,7 +4842,7 @@
         <v>97</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>98</v>
@@ -4842,7 +4854,7 @@
         <v>99</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>100</v>
@@ -4856,7 +4868,7 @@
         <v>102</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>103</v>
@@ -4868,7 +4880,7 @@
         <v>106</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>104</v>
@@ -4891,73 +4903,73 @@
     </row>
     <row r="85" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B85" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E85" s="2"/>
     </row>
     <row r="86" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B86" s="2" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E86" s="2"/>
     </row>
     <row r="87" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B87" s="2" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E87" s="2"/>
     </row>
     <row r="88" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B88" s="2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="E88" s="2"/>
     </row>
     <row r="89" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B89" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="E89" s="2"/>
     </row>
     <row r="90" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B90" s="2" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="E90" s="2"/>
     </row>
@@ -5031,7 +5043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
@@ -5175,13 +5187,13 @@
         <v>178</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="6"/>
       <c r="C11" s="2" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>194</v>
@@ -5260,7 +5272,7 @@
         <v>172</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G15" s="7"/>
     </row>
@@ -5293,7 +5305,7 @@
         <v>142</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="7"/>
@@ -5309,7 +5321,7 @@
         <v>143</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="7"/>
@@ -5571,7 +5583,7 @@
         <v>170</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G37" s="7"/>
     </row>
@@ -5580,19 +5592,19 @@
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -5600,7 +5612,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>194</v>
@@ -5620,16 +5632,16 @@
         <v>7</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="G40" s="7"/>
     </row>
@@ -5647,7 +5659,7 @@
         <v>172</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G41" s="7"/>
     </row>
@@ -5845,13 +5857,13 @@
         <v>1</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>177</v>
@@ -5863,13 +5875,13 @@
         <v>2</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>617</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>622</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>178</v>
@@ -5917,13 +5929,13 @@
         <v>5</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="7"/>
@@ -5985,17 +5997,17 @@
         <v>9</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="7" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="66" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -6006,10 +6018,10 @@
         <v>211</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>193</v>
@@ -7190,7 +7202,7 @@
         <v>115</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D150" s="20"/>
       <c r="E150" s="20"/>
@@ -7202,7 +7214,7 @@
         <v>116</v>
       </c>
       <c r="C151" s="22" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D151" s="23"/>
       <c r="E151" s="23"/>
@@ -7234,13 +7246,13 @@
         <v>1</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>177</v>
@@ -7252,10 +7264,10 @@
         <v>2</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>175</v>
@@ -7270,10 +7282,10 @@
         <v>3</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>164</v>
@@ -7288,19 +7300,19 @@
         <v>4</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>195</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="157" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -7308,10 +7320,10 @@
         <v>5</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>170</v>
@@ -7324,17 +7336,17 @@
         <v>6</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F158" s="2"/>
       <c r="G158" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="159" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -7505,7 +7517,7 @@
         <v>115</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="D172" s="20"/>
       <c r="E172" s="20"/>
@@ -7517,7 +7529,7 @@
         <v>116</v>
       </c>
       <c r="C173" s="22" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D173" s="23"/>
       <c r="E173" s="23"/>
@@ -7549,10 +7561,10 @@
         <v>1</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>162</v>
@@ -7567,10 +7579,10 @@
         <v>2</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>285</v>
@@ -7585,13 +7597,13 @@
         <v>3</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>179</v>
@@ -7603,13 +7615,13 @@
         <v>5</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F178" s="2"/>
       <c r="G178" s="7"/>
@@ -7619,10 +7631,10 @@
         <v>6</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>163</v>
@@ -7635,7 +7647,7 @@
         <v>13</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>136</v>
@@ -7644,7 +7656,7 @@
         <v>172</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G180" s="7"/>
     </row>
@@ -7659,7 +7671,7 @@
         <v>150</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F181" s="2"/>
       <c r="G181" s="7"/>
@@ -7798,7 +7810,7 @@
         <v>115</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D192" s="20"/>
       <c r="E192" s="20"/>
@@ -7810,7 +7822,7 @@
         <v>116</v>
       </c>
       <c r="C193" s="22" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D193" s="23"/>
       <c r="E193" s="23"/>
@@ -7842,10 +7854,10 @@
         <v>1</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>162</v>
@@ -7860,10 +7872,10 @@
         <v>2</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>285</v>
@@ -7878,13 +7890,13 @@
         <v>3</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>179</v>
@@ -7896,7 +7908,7 @@
         <v>13</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>136</v>
@@ -7905,7 +7917,7 @@
         <v>172</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G198" s="7"/>
     </row>
@@ -7920,7 +7932,7 @@
         <v>150</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="7"/>
@@ -8059,7 +8071,7 @@
         <v>115</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D210" s="20"/>
       <c r="E210" s="20"/>
@@ -8071,7 +8083,7 @@
         <v>116</v>
       </c>
       <c r="C211" s="22" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D211" s="23"/>
       <c r="E211" s="23"/>
@@ -8103,10 +8115,10 @@
         <v>1</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>162</v>
@@ -8121,10 +8133,10 @@
         <v>2</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>170</v>
@@ -8139,10 +8151,10 @@
         <v>3</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>285</v>
@@ -8157,13 +8169,13 @@
         <v>4</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F216" s="2"/>
       <c r="G216" s="7"/>
@@ -8212,10 +8224,10 @@
         <v>294</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" s="7"/>
@@ -8225,7 +8237,7 @@
         <v>13</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>136</v>
@@ -8234,7 +8246,7 @@
         <v>172</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G220" s="7"/>
     </row>
@@ -8249,7 +8261,7 @@
         <v>150</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F221" s="2"/>
       <c r="G221" s="7"/>
@@ -8384,24 +8396,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C211:G211"/>
+    <mergeCell ref="C210:G210"/>
+    <mergeCell ref="C173:G173"/>
+    <mergeCell ref="C150:G150"/>
+    <mergeCell ref="C151:G151"/>
+    <mergeCell ref="C172:G172"/>
+    <mergeCell ref="C192:G192"/>
+    <mergeCell ref="C193:G193"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C115:G115"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C150:G150"/>
-    <mergeCell ref="C151:G151"/>
-    <mergeCell ref="C172:G172"/>
-    <mergeCell ref="C192:G192"/>
-    <mergeCell ref="C193:G193"/>
-    <mergeCell ref="C211:G211"/>
-    <mergeCell ref="C210:G210"/>
-    <mergeCell ref="C173:G173"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8431,7 +8443,7 @@
         <v>115</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
@@ -8443,7 +8455,7 @@
         <v>116</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -8475,10 +8487,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>170</v>
@@ -8493,10 +8505,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>285</v>
@@ -8511,10 +8523,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>171</v>
@@ -8527,19 +8539,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>163</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -8547,10 +8559,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>171</v>
@@ -8563,10 +8575,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>170</v>
@@ -8581,10 +8593,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>285</v>
@@ -8599,10 +8611,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>171</v>
@@ -8617,16 +8629,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G14" s="7"/>
     </row>
@@ -8635,17 +8647,17 @@
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>170</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="28" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -8653,7 +8665,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>264</v>
@@ -8669,7 +8681,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>265</v>
@@ -8685,10 +8697,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>192</v>
@@ -8846,7 +8858,7 @@
         <v>115</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
@@ -8858,7 +8870,7 @@
         <v>116</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
@@ -8890,10 +8902,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>170</v>
@@ -8908,13 +8920,13 @@
         <v>2</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>178</v>
@@ -8926,13 +8938,13 @@
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="7"/>
@@ -8942,10 +8954,10 @@
         <v>4</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>170</v>
@@ -8954,7 +8966,7 @@
         <v>178</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -8962,10 +8974,10 @@
         <v>5</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>175</v>
@@ -8980,10 +8992,10 @@
         <v>6</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>171</v>
@@ -8996,19 +9008,19 @@
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -9016,10 +9028,10 @@
         <v>8</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>285</v>
@@ -9032,13 +9044,13 @@
         <v>9</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="7"/>
@@ -9048,10 +9060,10 @@
         <v>10</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>170</v>
@@ -9060,7 +9072,7 @@
         <v>178</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -9068,10 +9080,10 @@
         <v>11</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>285</v>
@@ -9086,10 +9098,10 @@
         <v>12</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>171</v>
@@ -9104,19 +9116,19 @@
         <v>13</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="G45" s="25" t="s">
         <v>407</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G45" s="31" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -9124,49 +9136,49 @@
         <v>14</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F46" s="2"/>
-      <c r="G46" s="32"/>
+      <c r="G46" s="26"/>
     </row>
     <row r="47" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B47" s="6">
         <v>15</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F47" s="2"/>
-      <c r="G47" s="33"/>
+      <c r="G47" s="27"/>
     </row>
     <row r="48" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B48" s="6">
         <v>16</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>170</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="13" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -9174,7 +9186,7 @@
         <v>17</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>264</v>
@@ -9190,7 +9202,7 @@
         <v>18</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>265</v>
@@ -9206,10 +9218,10 @@
         <v>19</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>192</v>
@@ -9222,10 +9234,10 @@
         <v>20</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>192</v>
@@ -9383,7 +9395,7 @@
         <v>115</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
@@ -9395,7 +9407,7 @@
         <v>116</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D65" s="23"/>
       <c r="E65" s="23"/>
@@ -9427,10 +9439,10 @@
         <v>1</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>170</v>
@@ -9445,10 +9457,10 @@
         <v>2</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>170</v>
@@ -9463,13 +9475,13 @@
         <v>3</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>178</v>
@@ -9481,13 +9493,13 @@
         <v>4</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="7"/>
@@ -9497,13 +9509,13 @@
         <v>5</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="7"/>
@@ -9513,10 +9525,10 @@
         <v>6</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>192</v>
@@ -9529,10 +9541,10 @@
         <v>7</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>165</v>
@@ -9674,7 +9686,7 @@
         <v>115</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D85" s="20"/>
       <c r="E85" s="20"/>
@@ -9686,7 +9698,7 @@
         <v>116</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D86" s="23"/>
       <c r="E86" s="23"/>
@@ -9718,10 +9730,10 @@
         <v>1</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>170</v>
@@ -9736,13 +9748,13 @@
         <v>2</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>178</v>
@@ -9754,13 +9766,13 @@
         <v>3</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>178</v>
@@ -9772,7 +9784,7 @@
         <v>4</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>136</v>
@@ -9781,7 +9793,7 @@
         <v>172</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G91" s="11"/>
     </row>
@@ -9935,7 +9947,7 @@
         <v>115</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
@@ -9947,7 +9959,7 @@
         <v>116</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D105" s="23"/>
       <c r="E105" s="23"/>
@@ -9979,10 +9991,10 @@
         <v>1</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>170</v>
@@ -9991,7 +10003,7 @@
         <v>177</v>
       </c>
       <c r="G107" s="28" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="108" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -9999,13 +10011,13 @@
         <v>2</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>178</v>
@@ -10017,13 +10029,13 @@
         <v>3</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>178</v>
@@ -10035,7 +10047,7 @@
         <v>4</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>136</v>
@@ -10044,7 +10056,7 @@
         <v>172</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G110" s="30"/>
     </row>
@@ -10198,7 +10210,7 @@
         <v>115</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D123" s="20"/>
       <c r="E123" s="20"/>
@@ -10210,7 +10222,7 @@
         <v>116</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D124" s="23"/>
       <c r="E124" s="23"/>
@@ -10242,10 +10254,10 @@
         <v>1</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>170</v>
@@ -10260,10 +10272,10 @@
         <v>2</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>170</v>
@@ -10278,16 +10290,16 @@
         <v>3</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G128" s="7"/>
     </row>
@@ -10296,10 +10308,10 @@
         <v>4</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>165</v>
@@ -10312,10 +10324,10 @@
         <v>5</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>171</v>
@@ -10328,10 +10340,10 @@
         <v>6</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>171</v>
@@ -10344,17 +10356,17 @@
         <v>7</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="14" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="133" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -10507,7 +10519,7 @@
         <v>115</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D145" s="20"/>
       <c r="E145" s="20"/>
@@ -10519,7 +10531,7 @@
         <v>116</v>
       </c>
       <c r="C146" s="22" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D146" s="23"/>
       <c r="E146" s="23"/>
@@ -10551,10 +10563,10 @@
         <v>1</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>170</v>
@@ -10569,13 +10581,13 @@
         <v>2</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>178</v>
@@ -10590,10 +10602,10 @@
         <v>123</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>178</v>
@@ -10605,16 +10617,16 @@
         <v>4</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G151" s="7"/>
     </row>
@@ -10780,7 +10792,7 @@
         <v>116</v>
       </c>
       <c r="C165" s="22" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D165" s="23"/>
       <c r="E165" s="23"/>
@@ -10812,10 +10824,10 @@
         <v>1</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>162</v>
@@ -10830,13 +10842,13 @@
         <v>2</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>178</v>
@@ -10848,13 +10860,13 @@
         <v>3</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>178</v>
@@ -10869,10 +10881,10 @@
         <v>123</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>178</v>
@@ -10884,16 +10896,16 @@
         <v>5</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G171" s="7"/>
     </row>
@@ -10902,16 +10914,16 @@
         <v>6</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G172" s="7"/>
     </row>
@@ -11065,7 +11077,7 @@
         <v>115</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D185" s="20"/>
       <c r="E185" s="20"/>
@@ -11077,7 +11089,7 @@
         <v>116</v>
       </c>
       <c r="C186" s="22" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D186" s="23"/>
       <c r="E186" s="23"/>
@@ -11109,13 +11121,13 @@
         <v>1</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>177</v>
@@ -11127,13 +11139,13 @@
         <v>2</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>178</v>
@@ -11145,10 +11157,10 @@
         <v>3</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>192</v>
@@ -11163,10 +11175,10 @@
         <v>4</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>164</v>
@@ -11181,17 +11193,17 @@
         <v>5</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="193" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -11199,13 +11211,13 @@
         <v>6</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F193" s="2"/>
       <c r="G193" s="7"/>
@@ -11215,13 +11227,13 @@
         <v>7</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="14"/>
@@ -11231,19 +11243,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="G195" s="14" t="s">
         <v>547</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="G195" s="14" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="196" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -11273,7 +11285,7 @@
         <v>155</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F197" s="2"/>
       <c r="G197" s="7"/>
@@ -11289,7 +11301,7 @@
         <v>156</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F198" s="2"/>
       <c r="G198" s="7"/>
@@ -11353,7 +11365,7 @@
         <v>159</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="7"/>
@@ -11396,7 +11408,7 @@
         <v>115</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D208" s="20"/>
       <c r="E208" s="20"/>
@@ -11408,7 +11420,7 @@
         <v>116</v>
       </c>
       <c r="C209" s="22" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D209" s="23"/>
       <c r="E209" s="23"/>
@@ -11440,10 +11452,10 @@
         <v>1</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>162</v>
@@ -11458,10 +11470,10 @@
         <v>2</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>163</v>
@@ -11476,13 +11488,13 @@
         <v>3</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>178</v>
@@ -11494,16 +11506,16 @@
         <v>4</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G214" s="7"/>
     </row>
@@ -11512,16 +11524,16 @@
         <v>5</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G215" s="7"/>
     </row>
@@ -11530,13 +11542,13 @@
         <v>6</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F216" s="2"/>
       <c r="G216" s="14"/>
@@ -11546,13 +11558,13 @@
         <v>7</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F217" s="2"/>
       <c r="G217" s="14"/>
@@ -11707,7 +11719,7 @@
         <v>115</v>
       </c>
       <c r="C230" s="19" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D230" s="20"/>
       <c r="E230" s="20"/>
@@ -11719,7 +11731,7 @@
         <v>116</v>
       </c>
       <c r="C231" s="22" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D231" s="23"/>
       <c r="E231" s="23"/>
@@ -11751,10 +11763,10 @@
         <v>1</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>162</v>
@@ -11769,19 +11781,19 @@
         <v>2</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>178</v>
       </c>
       <c r="G234" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="235" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -11789,10 +11801,10 @@
         <v>3</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>162</v>
@@ -11807,10 +11819,10 @@
         <v>4</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>175</v>
@@ -11825,10 +11837,10 @@
         <v>5</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>164</v>
@@ -12010,20 +12022,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C230:G230"/>
-    <mergeCell ref="C231:G231"/>
-    <mergeCell ref="C164:G164"/>
-    <mergeCell ref="C165:G165"/>
-    <mergeCell ref="C208:G208"/>
-    <mergeCell ref="C209:G209"/>
-    <mergeCell ref="C185:G185"/>
-    <mergeCell ref="C186:G186"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
     <mergeCell ref="C146:G146"/>
     <mergeCell ref="C64:G64"/>
     <mergeCell ref="C65:G65"/>
@@ -12035,6 +12033,20 @@
     <mergeCell ref="C124:G124"/>
     <mergeCell ref="G107:G110"/>
     <mergeCell ref="C145:G145"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C230:G230"/>
+    <mergeCell ref="C231:G231"/>
+    <mergeCell ref="C164:G164"/>
+    <mergeCell ref="C165:G165"/>
+    <mergeCell ref="C208:G208"/>
+    <mergeCell ref="C209:G209"/>
+    <mergeCell ref="C185:G185"/>
+    <mergeCell ref="C186:G186"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12064,7 +12076,7 @@
         <v>115</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
@@ -12108,13 +12120,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>177</v>
@@ -12126,13 +12138,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>573</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>178</v>
@@ -12144,10 +12156,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>164</v>
@@ -12162,10 +12174,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>165</v>
@@ -12178,16 +12190,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="G9" s="7"/>
     </row>
@@ -12196,10 +12208,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>163</v>
@@ -12218,7 +12230,7 @@
         <v>150</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="11"/>
@@ -12234,7 +12246,7 @@
         <v>155</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="7"/>
@@ -12357,7 +12369,7 @@
         <v>115</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
@@ -12401,10 +12413,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>162</v>
@@ -12419,10 +12431,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>163</v>
@@ -12437,10 +12449,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>164</v>
@@ -12455,10 +12467,10 @@
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>165</v>
@@ -12473,16 +12485,16 @@
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="G30" s="7"/>
     </row>
@@ -12491,19 +12503,19 @@
         <v>6</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -12656,7 +12668,7 @@
         <v>115</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
@@ -12700,10 +12712,10 @@
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>162</v>
@@ -12718,10 +12730,10 @@
         <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>163</v>
@@ -12736,10 +12748,10 @@
         <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>164</v>
@@ -12754,10 +12766,10 @@
         <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>165</v>
@@ -12772,13 +12784,13 @@
         <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="7"/>
@@ -12788,13 +12800,13 @@
         <v>6</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="14"/>
@@ -12804,13 +12816,13 @@
         <v>7</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>736</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>741</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="14"/>
@@ -12820,13 +12832,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>737</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>742</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="14"/>
@@ -12836,17 +12848,17 @@
         <v>9</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="14" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -12854,16 +12866,16 @@
         <v>10</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="G56" s="14"/>
     </row>
@@ -13017,7 +13029,7 @@
         <v>115</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
@@ -13029,7 +13041,7 @@
         <v>116</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D70" s="23"/>
       <c r="E70" s="23"/>
@@ -13061,10 +13073,10 @@
         <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>162</v>
@@ -13082,7 +13094,7 @@
         <v>123</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>162</v>
@@ -13100,7 +13112,7 @@
         <v>124</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>175</v>
@@ -13118,7 +13130,7 @@
         <v>167</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>164</v>
@@ -13151,17 +13163,17 @@
         <v>6</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="14" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="78" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -13169,10 +13181,10 @@
         <v>7</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>163</v>
@@ -13185,17 +13197,17 @@
         <v>8</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="14" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="80" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -13213,7 +13225,7 @@
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="14" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="81" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -13269,17 +13281,17 @@
         <v>13</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="14" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="85" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -13287,10 +13299,10 @@
         <v>14</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>163</v>
@@ -13303,10 +13315,10 @@
         <v>15</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>164</v>
@@ -13319,17 +13331,17 @@
         <v>16</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="14" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="88" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -13337,10 +13349,10 @@
         <v>17</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>163</v>
@@ -13353,10 +13365,10 @@
         <v>18</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>164</v>
@@ -13369,17 +13381,17 @@
         <v>19</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="14" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="91" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -13387,10 +13399,10 @@
         <v>20</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>163</v>
@@ -13403,10 +13415,10 @@
         <v>21</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>164</v>
@@ -13419,17 +13431,17 @@
         <v>22</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>612</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="14" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="94" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -13437,13 +13449,13 @@
         <v>23</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="14"/>
@@ -13613,8 +13625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13632,7 +13644,7 @@
         <v>115</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
@@ -13676,7 +13688,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>289</v>
+        <v>784</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>291</v>
@@ -13687,8 +13699,8 @@
       <c r="F6" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G6" s="25" t="s">
-        <v>413</v>
+      <c r="G6" s="31" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -13696,7 +13708,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>290</v>
+        <v>785</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>292</v>
@@ -13707,35 +13719,35 @@
       <c r="F7" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G7" s="26"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="6">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>294</v>
+        <v>786</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G8" s="27"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="6">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>296</v>
+        <v>787</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>171</v>
@@ -13748,7 +13760,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>295</v>
+        <v>788</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>137</v>
@@ -13764,10 +13776,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>299</v>
+        <v>789</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>170</v>
@@ -13782,10 +13794,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>301</v>
+        <v>790</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>163</v>
@@ -13798,10 +13810,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>302</v>
+        <v>791</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>171</v>
@@ -13814,10 +13826,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>170</v>
@@ -13830,10 +13842,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>163</v>
@@ -13846,10 +13858,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>171</v>
@@ -13862,19 +13874,19 @@
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>163</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -14027,7 +14039,7 @@
         <v>115</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
@@ -14039,7 +14051,7 @@
         <v>116</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
@@ -14071,10 +14083,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>162</v>
@@ -14089,10 +14101,10 @@
         <v>2</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>175</v>
@@ -14107,10 +14119,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>164</v>
@@ -14139,12 +14151,14 @@
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B37" s="6"/>
+      <c r="B37" s="6">
+        <v>5</v>
+      </c>
       <c r="C37" s="2" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>164</v>
@@ -14153,12 +14167,12 @@
         <v>178</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B38" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>135</v>
@@ -14176,13 +14190,13 @@
     </row>
     <row r="39" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B39" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>165</v>
@@ -14192,7 +14206,7 @@
     </row>
     <row r="40" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B40" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>151</v>
@@ -14208,7 +14222,7 @@
     </row>
     <row r="41" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B41" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>152</v>
@@ -14224,7 +14238,7 @@
     </row>
     <row r="42" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B42" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>153</v>
@@ -14240,7 +14254,7 @@
     </row>
     <row r="43" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B43" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>154</v>
@@ -14256,7 +14270,7 @@
     </row>
     <row r="44" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B44" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>145</v>
@@ -14272,7 +14286,7 @@
     </row>
     <row r="45" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B45" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>146</v>
@@ -14288,7 +14302,7 @@
     </row>
     <row r="46" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B46" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>147</v>
@@ -14304,7 +14318,7 @@
     </row>
     <row r="47" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B47" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>148</v>
@@ -14370,7 +14384,7 @@
         <v>115</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
@@ -14382,7 +14396,7 @@
         <v>116</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -14414,13 +14428,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="7"/>
@@ -14430,10 +14444,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>163</v>
@@ -14446,10 +14460,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>164</v>
@@ -14462,10 +14476,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>165</v>
@@ -14478,13 +14492,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="7"/>
@@ -14494,13 +14508,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="7"/>
@@ -14510,13 +14524,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="7"/>
@@ -14526,17 +14540,17 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="7" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -14553,7 +14567,7 @@
         <v>172</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G13" s="7"/>
     </row>
@@ -14707,7 +14721,7 @@
         <v>115</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
@@ -14719,7 +14733,7 @@
         <v>116</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -14751,13 +14765,13 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="7"/>
@@ -14767,10 +14781,10 @@
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>162</v>
@@ -14783,13 +14797,13 @@
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="7"/>
@@ -14799,17 +14813,17 @@
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="7" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -14817,10 +14831,10 @@
         <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>163</v>
@@ -14833,10 +14847,10 @@
         <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>164</v>
@@ -14849,13 +14863,13 @@
         <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="7"/>
@@ -14865,17 +14879,17 @@
         <v>8</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="7" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -14883,17 +14897,17 @@
         <v>9</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>163</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="7" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -14901,17 +14915,17 @@
         <v>10</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>163</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="7" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -14919,13 +14933,13 @@
         <v>11</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="7"/>
@@ -14935,13 +14949,13 @@
         <v>12</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="7"/>
@@ -14951,13 +14965,13 @@
         <v>13</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="7"/>
@@ -14967,17 +14981,17 @@
         <v>14</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>172</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="16" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -14985,17 +14999,17 @@
         <v>15</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="7" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -15148,7 +15162,7 @@
         <v>115</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
@@ -15160,7 +15174,7 @@
         <v>116</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D57" s="23"/>
       <c r="E57" s="23"/>
@@ -15192,10 +15206,10 @@
         <v>1</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>162</v>
@@ -15208,10 +15222,10 @@
         <v>2</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>162</v>
@@ -15224,17 +15238,17 @@
         <v>3</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="7" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -15242,13 +15256,13 @@
         <v>4</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="7"/>
@@ -15256,10 +15270,10 @@
     <row r="63" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B63" s="6"/>
       <c r="C63" s="2" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>163</v>
@@ -15272,13 +15286,13 @@
         <v>5</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="7"/>
@@ -15288,10 +15302,10 @@
         <v>6</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>163</v>

--- a/doc/设计文档/数据库设计/数据库设计.xlsx
+++ b/doc/设计文档/数据库设计/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11760" windowHeight="6795" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11760" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="表清单" sheetId="1" r:id="rId1"/>
@@ -12,15 +12,16 @@
     <sheet name="PRO生产管理" sheetId="3" r:id="rId3"/>
     <sheet name="WM仓储管理" sheetId="4" r:id="rId4"/>
     <sheet name="DV设备管理" sheetId="5" r:id="rId5"/>
-    <sheet name="QC质量管理" sheetId="6" r:id="rId6"/>
-    <sheet name="SYS系统管理" sheetId="7" r:id="rId7"/>
+    <sheet name="TM工装夹具管理" sheetId="8" r:id="rId6"/>
+    <sheet name="QC质量管理" sheetId="6" r:id="rId7"/>
+    <sheet name="SYS系统管理" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2739" uniqueCount="932">
   <si>
     <t>序号</t>
   </si>
@@ -1579,22 +1580,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SOURCE_ORDER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOURCE_ORDER_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">varchar(64) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SOURCE_ORDER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(255)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1675,26 +1664,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工位ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工位编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工位设备对应表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WM_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>流水ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1703,10 +1676,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WORKSTATION_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设备名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2515,18 +2484,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>APS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级排产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级排产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使用单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3343,6 +3300,446 @@
   </si>
   <si>
     <t>生产工单BOM组成表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORKORDER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作站ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作站编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作站名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作站表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作站地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORKSTATION_ADDRESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORKSHOP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORKSHOP_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORKSHOP_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属车间ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属车间编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属车间名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作站设备对应表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD_WORKSTATION_WORKER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECORD_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECORD_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROCESS_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROCESS_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROCESS_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个工作站都属于某个工序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作站人员对应表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NICK_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHONENUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0男；1女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 0,not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM_TOOL_ISSUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具类型表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具清单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具维护记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不做分级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM_TOOL_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM_TOOL_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOOL_TYPE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOOL_TYPE_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOOL_TYPE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具类型ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE_FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否编码管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default'Y',not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认单独编码的需要定期维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAINTEN_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保养维护方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGULAR：定期维护；USAGE：按使用次数维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAINTEN_PERIOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保养周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定期维护时默认为按天；按次数维护时默认为次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM_MAINTEN_CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM_MAINTEN_RECORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具领用记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具维护内容表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM_TOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM_TOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具类型表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具清单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOOL_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOOL_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUANTITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 1,not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非单独编码的需要填写数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非单独编码的，领出、归还、报废都需要更新可用数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEXT_MAINTEN_PERIOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一次保养周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEXT_MAINTEN_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一次保养日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定期维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按次数维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRAND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOOL_TYPE_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOOL_TYPE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具类型ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具类型编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 'STORE'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STORE：在库；ISSUE：被领用；SCRAP：报废；REPARE：维修中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOOL_TYPE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOOL_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUANTITY_AVAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3618,7 +4015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3679,6 +4076,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4028,8 +4428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4113,28 +4513,28 @@
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -4180,29 +4580,29 @@
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -4235,43 +4635,43 @@
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -4306,7 +4706,7 @@
     <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>16</v>
@@ -4319,7 +4719,7 @@
     <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>16</v>
@@ -4332,20 +4732,20 @@
     <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>16</v>
@@ -4360,13 +4760,13 @@
     <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>29</v>
@@ -4375,16 +4775,16 @@
     <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -4411,7 +4811,7 @@
         <v>16</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>109</v>
@@ -4434,771 +4834,788 @@
     <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>625</v>
+        <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C34" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="D34" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C35" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
-      <c r="B42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>36</v>
+        <v>731</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>732</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>733</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>734</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>47</v>
+        <v>583</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>584</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>735</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E51" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>591</v>
+        <v>63</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>592</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E57" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E59" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E61" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E63" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E65" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
-      <c r="B66" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
-      <c r="B67" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>55</v>
+        <v>769</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>55</v>
+        <v>769</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>761</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>55</v>
+        <v>769</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
-        <v>762</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>55</v>
+        <v>769</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>763</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>55</v>
+        <v>769</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>113</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
+      <c r="B73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="B74" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
-        <v>778</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>779</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="77" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="2"/>
+    <row r="81" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B81" s="2" t="s">
-        <v>94</v>
+        <v>871</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>780</v>
+        <v>865</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>867</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B82" s="2" t="s">
-        <v>97</v>
+        <v>895</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>780</v>
+        <v>865</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>98</v>
+        <v>868</v>
       </c>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B83" s="2" t="s">
-        <v>99</v>
+        <v>866</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>780</v>
+        <v>865</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+        <v>893</v>
+      </c>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B84" s="2" t="s">
-        <v>102</v>
+        <v>892</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>780</v>
+        <v>865</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>103</v>
+        <v>869</v>
       </c>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B85" s="2" t="s">
-        <v>106</v>
+        <v>891</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>780</v>
+        <v>865</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+        <v>894</v>
+      </c>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B88" s="2" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B89" s="2" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B90" s="2" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B91" s="2" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B92" s="2" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B93" s="2" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -5254,10 +5671,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G230"/>
+  <dimension ref="B2:G257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D241" sqref="D241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5273,25 +5690,25 @@
       <c r="B3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -5394,13 +5811,13 @@
         <v>128</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>178</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -5408,7 +5825,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>194</v>
@@ -5487,7 +5904,7 @@
         <v>172</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G15" s="7"/>
     </row>
@@ -5520,7 +5937,7 @@
         <v>142</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="7"/>
@@ -5536,7 +5953,7 @@
         <v>143</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="7"/>
@@ -5690,25 +6107,25 @@
       <c r="B31" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="27"/>
     </row>
     <row r="33" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
@@ -5807,19 +6224,19 @@
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -5827,7 +6244,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>194</v>
@@ -5847,16 +6264,16 @@
         <v>7</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="G40" s="7"/>
     </row>
@@ -5874,7 +6291,7 @@
         <v>172</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G41" s="7"/>
     </row>
@@ -6027,25 +6444,25 @@
       <c r="B54" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="24"/>
     </row>
     <row r="55" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B55" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="27"/>
     </row>
     <row r="56" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
@@ -6072,13 +6489,13 @@
         <v>1</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>177</v>
@@ -6090,13 +6507,13 @@
         <v>2</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>178</v>
@@ -6144,13 +6561,13 @@
         <v>5</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="7"/>
@@ -6194,7 +6611,7 @@
         <v>8</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>194</v>
@@ -6232,17 +6649,17 @@
         <v>10</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="7" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
     </row>
     <row r="67" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -6253,7 +6670,7 @@
         <v>211</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>330</v>
@@ -6412,25 +6829,25 @@
       <c r="B80" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="24"/>
     </row>
     <row r="81" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B81" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C81" s="24" t="s">
+      <c r="C81" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="27"/>
     </row>
     <row r="82" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B82" s="4" t="s">
@@ -6933,25 +7350,25 @@
       <c r="B115" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C115" s="21" t="s">
+      <c r="C115" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="23"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="24"/>
     </row>
     <row r="116" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B116" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C116" s="24" t="s">
+      <c r="C116" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="D116" s="25"/>
-      <c r="E116" s="25"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="26"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="26"/>
+      <c r="G116" s="27"/>
     </row>
     <row r="117" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B117" s="4" t="s">
@@ -7436,25 +7853,25 @@
       <c r="B151" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C151" s="21" t="s">
-        <v>717</v>
-      </c>
-      <c r="D151" s="22"/>
-      <c r="E151" s="22"/>
-      <c r="F151" s="22"/>
-      <c r="G151" s="23"/>
+      <c r="C151" s="22" t="s">
+        <v>706</v>
+      </c>
+      <c r="D151" s="23"/>
+      <c r="E151" s="23"/>
+      <c r="F151" s="23"/>
+      <c r="G151" s="24"/>
     </row>
     <row r="152" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B152" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C152" s="24" t="s">
+      <c r="C152" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="D152" s="25"/>
-      <c r="E152" s="25"/>
-      <c r="F152" s="25"/>
-      <c r="G152" s="26"/>
+      <c r="D152" s="26"/>
+      <c r="E152" s="26"/>
+      <c r="F152" s="26"/>
+      <c r="G152" s="27"/>
     </row>
     <row r="153" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B153" s="4" t="s">
@@ -7751,25 +8168,25 @@
       <c r="B173" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C173" s="21" t="s">
-        <v>728</v>
-      </c>
-      <c r="D173" s="22"/>
-      <c r="E173" s="22"/>
-      <c r="F173" s="22"/>
-      <c r="G173" s="23"/>
+      <c r="C173" s="22" t="s">
+        <v>717</v>
+      </c>
+      <c r="D173" s="23"/>
+      <c r="E173" s="23"/>
+      <c r="F173" s="23"/>
+      <c r="G173" s="24"/>
     </row>
     <row r="174" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B174" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C174" s="24" t="s">
+      <c r="C174" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="D174" s="25"/>
-      <c r="E174" s="25"/>
-      <c r="F174" s="25"/>
-      <c r="G174" s="26"/>
+      <c r="D174" s="26"/>
+      <c r="E174" s="26"/>
+      <c r="F174" s="26"/>
+      <c r="G174" s="27"/>
     </row>
     <row r="175" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B175" s="4" t="s">
@@ -8044,25 +8461,25 @@
       <c r="B193" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C193" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="D193" s="22"/>
-      <c r="E193" s="22"/>
-      <c r="F193" s="22"/>
-      <c r="G193" s="23"/>
+      <c r="C193" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D193" s="23"/>
+      <c r="E193" s="23"/>
+      <c r="F193" s="23"/>
+      <c r="G193" s="24"/>
     </row>
     <row r="194" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B194" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C194" s="24" t="s">
-        <v>410</v>
-      </c>
-      <c r="D194" s="25"/>
-      <c r="E194" s="25"/>
-      <c r="F194" s="25"/>
-      <c r="G194" s="26"/>
+      <c r="C194" s="25" t="s">
+        <v>826</v>
+      </c>
+      <c r="D194" s="26"/>
+      <c r="E194" s="26"/>
+      <c r="F194" s="26"/>
+      <c r="G194" s="27"/>
     </row>
     <row r="195" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B195" s="4" t="s">
@@ -8089,10 +8506,10 @@
         <v>1</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>415</v>
+        <v>823</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>162</v>
@@ -8107,10 +8524,10 @@
         <v>2</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>416</v>
+        <v>824</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>285</v>
@@ -8125,10 +8542,10 @@
         <v>3</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>417</v>
+        <v>825</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>296</v>
@@ -8140,440 +8557,438 @@
     </row>
     <row r="199" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B199" s="6">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>349</v>
+        <v>828</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>136</v>
+        <v>827</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>350</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="F199" s="2"/>
       <c r="G199" s="7"/>
     </row>
     <row r="200" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B200" s="6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>149</v>
+        <v>829</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>150</v>
+        <v>832</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>381</v>
+        <v>162</v>
       </c>
       <c r="F200" s="2"/>
       <c r="G200" s="7"/>
     </row>
     <row r="201" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B201" s="6">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>151</v>
+        <v>830</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>155</v>
+        <v>833</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F201" s="2"/>
       <c r="G201" s="7"/>
     </row>
     <row r="202" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B202" s="6">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>152</v>
+        <v>831</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>156</v>
+        <v>834</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="7"/>
     </row>
     <row r="203" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B203" s="6">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>153</v>
+        <v>839</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>157</v>
+        <v>840</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="F203" s="2"/>
-      <c r="G203" s="7"/>
+      <c r="G203" s="7" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="204" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B204" s="6">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>154</v>
+        <v>841</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>158</v>
+        <v>842</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>191</v>
+        <v>845</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" s="7"/>
     </row>
     <row r="205" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B205" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>145</v>
+        <v>843</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>144</v>
+        <v>844</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>163</v>
+        <v>846</v>
       </c>
       <c r="F205" s="2"/>
       <c r="G205" s="7"/>
     </row>
     <row r="206" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B206" s="6">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>146</v>
+        <v>349</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F206" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>350</v>
+      </c>
       <c r="G206" s="7"/>
     </row>
     <row r="207" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B207" s="6">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>163</v>
+        <v>381</v>
       </c>
       <c r="F207" s="2"/>
       <c r="G207" s="7"/>
     </row>
-    <row r="208" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B208" s="8">
-        <v>28</v>
-      </c>
-      <c r="C208" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D208" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E208" s="9" t="s">
+    <row r="208" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B208" s="6">
+        <v>13</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F208" s="2"/>
+      <c r="G208" s="7"/>
+    </row>
+    <row r="209" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B209" s="6">
+        <v>14</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F209" s="2"/>
+      <c r="G209" s="7"/>
+    </row>
+    <row r="210" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B210" s="6">
+        <v>15</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F210" s="2"/>
+      <c r="G210" s="7"/>
+    </row>
+    <row r="211" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B211" s="6">
+        <v>16</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F211" s="2"/>
+      <c r="G211" s="7"/>
+    </row>
+    <row r="212" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B212" s="6">
+        <v>17</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F212" s="2"/>
+      <c r="G212" s="7"/>
+    </row>
+    <row r="213" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B213" s="6">
+        <v>18</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F208" s="9"/>
-      <c r="G208" s="10"/>
-    </row>
-    <row r="210" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="211" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B211" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C211" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="D211" s="22"/>
-      <c r="E211" s="22"/>
-      <c r="F211" s="22"/>
-      <c r="G211" s="23"/>
-    </row>
-    <row r="212" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B212" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C212" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="D212" s="25"/>
-      <c r="E212" s="25"/>
-      <c r="F212" s="25"/>
-      <c r="G212" s="26"/>
-    </row>
-    <row r="213" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B213" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F213" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G213" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="F213" s="2"/>
+      <c r="G213" s="7"/>
     </row>
     <row r="214" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B214" s="6">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C214" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F214" s="2"/>
+      <c r="G214" s="7"/>
+    </row>
+    <row r="215" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B215" s="8">
+        <v>20</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E215" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F215" s="9"/>
+      <c r="G215" s="10"/>
+    </row>
+    <row r="217" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="218" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B218" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C218" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="D214" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G214" s="7"/>
-    </row>
-    <row r="215" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B215" s="6">
-        <v>2</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G215" s="7"/>
-    </row>
-    <row r="216" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B216" s="6">
+      <c r="D218" s="23"/>
+      <c r="E218" s="23"/>
+      <c r="F218" s="23"/>
+      <c r="G218" s="24"/>
+    </row>
+    <row r="219" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B219" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C219" s="25" t="s">
+        <v>835</v>
+      </c>
+      <c r="D219" s="26"/>
+      <c r="E219" s="26"/>
+      <c r="F219" s="26"/>
+      <c r="G219" s="27"/>
+    </row>
+    <row r="220" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B220" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G220" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G216" s="7"/>
-    </row>
-    <row r="217" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B217" s="6">
-        <v>4</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F217" s="2"/>
-      <c r="G217" s="7"/>
-    </row>
-    <row r="218" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B218" s="6">
-        <v>5</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G218" s="7"/>
-    </row>
-    <row r="219" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B219" s="6">
-        <v>6</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G219" s="7"/>
-    </row>
-    <row r="220" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B220" s="6">
-        <v>7</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F220" s="2"/>
-      <c r="G220" s="7"/>
     </row>
     <row r="221" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B221" s="6">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>349</v>
+        <v>837</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>136</v>
+        <v>413</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="G221" s="7"/>
     </row>
     <row r="222" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B222" s="6">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>149</v>
+        <v>414</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>150</v>
+        <v>823</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="F222" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="G222" s="7"/>
     </row>
     <row r="223" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B223" s="6">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>151</v>
+        <v>289</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>155</v>
+        <v>291</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F223" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="G223" s="7"/>
     </row>
     <row r="224" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B224" s="6">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>152</v>
+        <v>290</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>156</v>
+        <v>292</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F224" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="G224" s="7"/>
     </row>
     <row r="225" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B225" s="6">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>153</v>
+        <v>294</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>157</v>
+        <v>415</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>191</v>
+        <v>296</v>
       </c>
       <c r="F225" s="2"/>
       <c r="G225" s="7"/>
     </row>
     <row r="226" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B226" s="6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>191</v>
+        <v>381</v>
       </c>
       <c r="F226" s="2"/>
       <c r="G226" s="7"/>
     </row>
     <row r="227" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B227" s="6">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>163</v>
@@ -8583,72 +8998,469 @@
     </row>
     <row r="228" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B228" s="6">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="F228" s="2"/>
       <c r="G228" s="7"/>
     </row>
     <row r="229" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B229" s="6">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="F229" s="2"/>
       <c r="G229" s="7"/>
     </row>
-    <row r="230" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B230" s="8">
+    <row r="230" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B230" s="6">
+        <v>24</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F230" s="2"/>
+      <c r="G230" s="7"/>
+    </row>
+    <row r="231" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B231" s="6">
+        <v>25</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F231" s="2"/>
+      <c r="G231" s="7"/>
+    </row>
+    <row r="232" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B232" s="6">
+        <v>26</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F232" s="2"/>
+      <c r="G232" s="7"/>
+    </row>
+    <row r="233" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B233" s="6">
+        <v>27</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F233" s="2"/>
+      <c r="G233" s="7"/>
+    </row>
+    <row r="234" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B234" s="8">
         <v>28</v>
       </c>
-      <c r="C230" s="9" t="s">
+      <c r="C234" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D230" s="9" t="s">
+      <c r="D234" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E230" s="9" t="s">
+      <c r="E234" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="F230" s="9"/>
-      <c r="G230" s="10"/>
+      <c r="F234" s="9"/>
+      <c r="G234" s="10"/>
+    </row>
+    <row r="237" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="238" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B238" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C238" s="22" t="s">
+        <v>836</v>
+      </c>
+      <c r="D238" s="23"/>
+      <c r="E238" s="23"/>
+      <c r="F238" s="23"/>
+      <c r="G238" s="24"/>
+    </row>
+    <row r="239" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B239" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C239" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="D239" s="26"/>
+      <c r="E239" s="26"/>
+      <c r="F239" s="26"/>
+      <c r="G239" s="27"/>
+    </row>
+    <row r="240" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B240" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G240" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B241" s="6">
+        <v>1</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G241" s="7"/>
+    </row>
+    <row r="242" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B242" s="6">
+        <v>2</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G242" s="7"/>
+    </row>
+    <row r="243" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B243" s="6">
+        <v>3</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G243" s="7"/>
+    </row>
+    <row r="244" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B244" s="6">
+        <v>4</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G244" s="7"/>
+    </row>
+    <row r="245" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B245" s="6">
+        <v>5</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G245" s="7"/>
+    </row>
+    <row r="246" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B246" s="6">
+        <v>6</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F246" s="2"/>
+      <c r="G246" s="7"/>
+    </row>
+    <row r="247" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B247" s="6">
+        <v>7</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="F247" s="2"/>
+      <c r="G247" s="7"/>
+    </row>
+    <row r="248" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B248" s="6">
+        <v>8</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="G248" s="7" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="249" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B249" s="6">
+        <v>9</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F249" s="2"/>
+      <c r="G249" s="7"/>
+    </row>
+    <row r="250" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B250" s="6">
+        <v>10</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F250" s="2"/>
+      <c r="G250" s="7"/>
+    </row>
+    <row r="251" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B251" s="6">
+        <v>11</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F251" s="2"/>
+      <c r="G251" s="7"/>
+    </row>
+    <row r="252" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B252" s="6">
+        <v>12</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F252" s="2"/>
+      <c r="G252" s="7"/>
+    </row>
+    <row r="253" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B253" s="6">
+        <v>13</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F253" s="2"/>
+      <c r="G253" s="7"/>
+    </row>
+    <row r="254" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B254" s="6">
+        <v>14</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F254" s="2"/>
+      <c r="G254" s="7"/>
+    </row>
+    <row r="255" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B255" s="6">
+        <v>15</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F255" s="2"/>
+      <c r="G255" s="7"/>
+    </row>
+    <row r="256" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B256" s="6">
+        <v>16</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F256" s="2"/>
+      <c r="G256" s="7"/>
+    </row>
+    <row r="257" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B257" s="8">
+        <v>17</v>
+      </c>
+      <c r="C257" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D257" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E257" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F257" s="9"/>
+      <c r="G257" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C212:G212"/>
-    <mergeCell ref="C211:G211"/>
-    <mergeCell ref="C174:G174"/>
-    <mergeCell ref="C151:G151"/>
+  <mergeCells count="20">
     <mergeCell ref="C152:G152"/>
     <mergeCell ref="C173:G173"/>
     <mergeCell ref="C193:G193"/>
     <mergeCell ref="C194:G194"/>
+    <mergeCell ref="C238:G238"/>
+    <mergeCell ref="C239:G239"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C54:G54"/>
     <mergeCell ref="C55:G55"/>
     <mergeCell ref="C80:G80"/>
     <mergeCell ref="C81:G81"/>
     <mergeCell ref="C115:G115"/>
     <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C219:G219"/>
+    <mergeCell ref="C218:G218"/>
+    <mergeCell ref="C174:G174"/>
+    <mergeCell ref="C151:G151"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8659,8 +9471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G303"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:G35"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8677,25 +9489,25 @@
       <c r="B3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
+      <c r="C3" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -8864,13 +9676,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="7"/>
@@ -8907,7 +9719,7 @@
         <v>170</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="31" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8925,7 +9737,7 @@
         <v>285</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="31"/>
+      <c r="G17" s="32"/>
     </row>
     <row r="18" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="6">
@@ -8941,7 +9753,7 @@
         <v>171</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="32"/>
+      <c r="G18" s="33"/>
     </row>
     <row r="19" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="6">
@@ -8964,10 +9776,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>162</v>
@@ -8976,7 +9788,7 @@
         <v>373</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -8984,10 +9796,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>164</v>
@@ -8996,7 +9808,7 @@
         <v>178</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -9004,13 +9816,13 @@
         <v>17</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="19"/>
@@ -9164,25 +9976,25 @@
       <c r="B35" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="21" t="s">
-        <v>817</v>
-      </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23"/>
+      <c r="C35" s="22" t="s">
+        <v>806</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="24"/>
     </row>
     <row r="36" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B36" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="24" t="s">
-        <v>832</v>
-      </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="26"/>
+      <c r="C36" s="25" t="s">
+        <v>821</v>
+      </c>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="27"/>
     </row>
     <row r="37" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B37" s="4" t="s">
@@ -9209,10 +10021,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>162</v>
@@ -9233,7 +10045,7 @@
         <v>355</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>178</v>
@@ -9245,10 +10057,10 @@
         <v>3</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>162</v>
@@ -9263,13 +10075,13 @@
         <v>4</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="7"/>
@@ -9279,13 +10091,13 @@
         <v>5</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="7"/>
@@ -9295,13 +10107,13 @@
         <v>6</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>796</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>807</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="7"/>
@@ -9311,13 +10123,13 @@
         <v>7</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="7"/>
@@ -9327,7 +10139,7 @@
         <v>8</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>194</v>
@@ -9347,13 +10159,13 @@
         <v>9</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>178</v>
@@ -9509,25 +10321,25 @@
       <c r="B59" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="21" t="s">
-        <v>822</v>
-      </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="23"/>
+      <c r="C59" s="22" t="s">
+        <v>811</v>
+      </c>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="24"/>
     </row>
     <row r="60" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B60" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C60" s="24" t="s">
-        <v>824</v>
-      </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="26"/>
+      <c r="C60" s="25" t="s">
+        <v>813</v>
+      </c>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="27"/>
     </row>
     <row r="61" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B61" s="4" t="s">
@@ -9554,10 +10366,10 @@
         <v>1</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>162</v>
@@ -9572,7 +10384,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>352</v>
+        <v>822</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>355</v>
@@ -9590,10 +10402,10 @@
         <v>3</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>162</v>
@@ -9608,13 +10420,13 @@
         <v>4</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="7"/>
@@ -9624,13 +10436,13 @@
         <v>5</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="7"/>
@@ -9640,13 +10452,13 @@
         <v>6</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>796</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>807</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="7"/>
@@ -9656,13 +10468,13 @@
         <v>7</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="7"/>
@@ -9672,7 +10484,7 @@
         <v>8</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>194</v>
@@ -9695,10 +10507,10 @@
         <v>370</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>178</v>
@@ -9854,25 +10666,25 @@
       <c r="B85" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="24"/>
     </row>
     <row r="86" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B86" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C86" s="24" t="s">
+      <c r="C86" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="27"/>
     </row>
     <row r="87" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B87" s="4" t="s">
@@ -9923,7 +10735,7 @@
         <v>389</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>178</v>
@@ -9941,7 +10753,7 @@
         <v>390</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="7"/>
@@ -9951,7 +10763,7 @@
         <v>4</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>355</v>
@@ -9963,7 +10775,7 @@
         <v>178</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="92" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -9971,7 +10783,7 @@
         <v>5</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>356</v>
@@ -9989,7 +10801,7 @@
         <v>6</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>357</v>
@@ -10005,19 +10817,19 @@
         <v>7</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>415</v>
+        <v>823</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="95" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -10025,10 +10837,10 @@
         <v>8</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>416</v>
+        <v>824</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>285</v>
@@ -10041,10 +10853,10 @@
         <v>9</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>417</v>
+        <v>825</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>296</v>
@@ -10069,7 +10881,7 @@
         <v>178</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -10116,7 +10928,7 @@
         <v>370</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>372</v>
@@ -10124,8 +10936,8 @@
       <c r="F100" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="G100" s="27" t="s">
-        <v>407</v>
+      <c r="G100" s="28" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="101" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -10133,32 +10945,32 @@
         <v>14</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>372</v>
       </c>
       <c r="F101" s="2"/>
-      <c r="G101" s="28"/>
+      <c r="G101" s="29"/>
     </row>
     <row r="102" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B102" s="6">
         <v>15</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>372</v>
       </c>
       <c r="F102" s="2"/>
-      <c r="G102" s="29"/>
+      <c r="G102" s="30"/>
     </row>
     <row r="103" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B103" s="6">
@@ -10175,7 +10987,7 @@
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="13" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="104" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -10215,10 +11027,10 @@
         <v>19</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>192</v>
@@ -10391,25 +11203,25 @@
       <c r="B119" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C119" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="D119" s="22"/>
-      <c r="E119" s="22"/>
-      <c r="F119" s="22"/>
-      <c r="G119" s="23"/>
+      <c r="C119" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="23"/>
+      <c r="G119" s="24"/>
     </row>
     <row r="120" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B120" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C120" s="24" t="s">
-        <v>430</v>
-      </c>
-      <c r="D120" s="25"/>
-      <c r="E120" s="25"/>
-      <c r="F120" s="25"/>
-      <c r="G120" s="26"/>
+      <c r="C120" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="D120" s="26"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="26"/>
+      <c r="G120" s="27"/>
     </row>
     <row r="121" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B121" s="4" t="s">
@@ -10436,10 +11248,10 @@
         <v>1</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>170</v>
@@ -10478,7 +11290,7 @@
         <v>389</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>178</v>
@@ -10496,7 +11308,7 @@
         <v>390</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="7"/>
@@ -10506,10 +11318,10 @@
         <v>5</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>372</v>
@@ -10522,10 +11334,10 @@
         <v>6</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>192</v>
@@ -10538,10 +11350,10 @@
         <v>7</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>165</v>
@@ -10682,25 +11494,25 @@
       <c r="B140" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C140" s="21" t="s">
-        <v>437</v>
-      </c>
-      <c r="D140" s="22"/>
-      <c r="E140" s="22"/>
-      <c r="F140" s="22"/>
-      <c r="G140" s="23"/>
+      <c r="C140" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="D140" s="23"/>
+      <c r="E140" s="23"/>
+      <c r="F140" s="23"/>
+      <c r="G140" s="24"/>
     </row>
     <row r="141" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B141" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C141" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="D141" s="25"/>
-      <c r="E141" s="25"/>
-      <c r="F141" s="25"/>
-      <c r="G141" s="26"/>
+      <c r="C141" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="D141" s="26"/>
+      <c r="E141" s="26"/>
+      <c r="F141" s="26"/>
+      <c r="G141" s="27"/>
     </row>
     <row r="142" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B142" s="4" t="s">
@@ -10727,10 +11539,10 @@
         <v>1</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>170</v>
@@ -10745,13 +11557,13 @@
         <v>2</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>178</v>
@@ -10763,13 +11575,13 @@
         <v>3</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>178</v>
@@ -10781,7 +11593,7 @@
         <v>4</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>136</v>
@@ -10790,7 +11602,7 @@
         <v>172</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G146" s="11"/>
     </row>
@@ -10943,25 +11755,25 @@
       <c r="B159" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C159" s="21" t="s">
-        <v>449</v>
-      </c>
-      <c r="D159" s="22"/>
-      <c r="E159" s="22"/>
-      <c r="F159" s="22"/>
-      <c r="G159" s="23"/>
+      <c r="C159" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="D159" s="23"/>
+      <c r="E159" s="23"/>
+      <c r="F159" s="23"/>
+      <c r="G159" s="24"/>
     </row>
     <row r="160" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B160" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C160" s="24" t="s">
-        <v>448</v>
-      </c>
-      <c r="D160" s="25"/>
-      <c r="E160" s="25"/>
-      <c r="F160" s="25"/>
-      <c r="G160" s="26"/>
+      <c r="C160" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="D160" s="26"/>
+      <c r="E160" s="26"/>
+      <c r="F160" s="26"/>
+      <c r="G160" s="27"/>
     </row>
     <row r="161" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B161" s="4" t="s">
@@ -10988,10 +11800,10 @@
         <v>1</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>170</v>
@@ -10999,8 +11811,8 @@
       <c r="F162" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G162" s="30" t="s">
-        <v>479</v>
+      <c r="G162" s="31" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="163" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -11008,43 +11820,43 @@
         <v>2</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G163" s="31"/>
+      <c r="G163" s="32"/>
     </row>
     <row r="164" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B164" s="6">
         <v>3</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G164" s="31"/>
+      <c r="G164" s="32"/>
     </row>
     <row r="165" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B165" s="6">
         <v>4</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>136</v>
@@ -11053,9 +11865,9 @@
         <v>172</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="G165" s="32"/>
+        <v>434</v>
+      </c>
+      <c r="G165" s="33"/>
     </row>
     <row r="166" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B166" s="6">
@@ -11206,25 +12018,25 @@
       <c r="B178" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C178" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="D178" s="22"/>
-      <c r="E178" s="22"/>
-      <c r="F178" s="22"/>
-      <c r="G178" s="23"/>
+      <c r="C178" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="D178" s="23"/>
+      <c r="E178" s="23"/>
+      <c r="F178" s="23"/>
+      <c r="G178" s="24"/>
     </row>
     <row r="179" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B179" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C179" s="24" t="s">
-        <v>459</v>
-      </c>
-      <c r="D179" s="25"/>
-      <c r="E179" s="25"/>
-      <c r="F179" s="25"/>
-      <c r="G179" s="26"/>
+      <c r="C179" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="D179" s="26"/>
+      <c r="E179" s="26"/>
+      <c r="F179" s="26"/>
+      <c r="G179" s="27"/>
     </row>
     <row r="180" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B180" s="4" t="s">
@@ -11251,10 +12063,10 @@
         <v>1</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>170</v>
@@ -11269,10 +12081,10 @@
         <v>2</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>170</v>
@@ -11287,16 +12099,16 @@
         <v>3</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G183" s="7"/>
     </row>
@@ -11305,10 +12117,10 @@
         <v>4</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>165</v>
@@ -11321,10 +12133,10 @@
         <v>5</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>171</v>
@@ -11337,10 +12149,10 @@
         <v>6</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>171</v>
@@ -11353,17 +12165,17 @@
         <v>7</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F187" s="2"/>
       <c r="G187" s="14" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="188" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -11515,25 +12327,25 @@
       <c r="B200" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C200" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="D200" s="22"/>
-      <c r="E200" s="22"/>
-      <c r="F200" s="22"/>
-      <c r="G200" s="23"/>
+      <c r="C200" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="D200" s="23"/>
+      <c r="E200" s="23"/>
+      <c r="F200" s="23"/>
+      <c r="G200" s="24"/>
     </row>
     <row r="201" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B201" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C201" s="24" t="s">
-        <v>482</v>
-      </c>
-      <c r="D201" s="25"/>
-      <c r="E201" s="25"/>
-      <c r="F201" s="25"/>
-      <c r="G201" s="26"/>
+      <c r="C201" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="D201" s="26"/>
+      <c r="E201" s="26"/>
+      <c r="F201" s="26"/>
+      <c r="G201" s="27"/>
     </row>
     <row r="202" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B202" s="4" t="s">
@@ -11560,10 +12372,10 @@
         <v>1</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>170</v>
@@ -11578,13 +12390,13 @@
         <v>2</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>178</v>
@@ -11599,10 +12411,10 @@
         <v>123</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>178</v>
@@ -11614,16 +12426,16 @@
         <v>4</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="G206" s="7"/>
     </row>
@@ -11776,25 +12588,25 @@
       <c r="B219" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C219" s="21" t="s">
+      <c r="C219" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D219" s="22"/>
-      <c r="E219" s="22"/>
-      <c r="F219" s="22"/>
-      <c r="G219" s="23"/>
+      <c r="D219" s="23"/>
+      <c r="E219" s="23"/>
+      <c r="F219" s="23"/>
+      <c r="G219" s="24"/>
     </row>
     <row r="220" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B220" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C220" s="24" t="s">
-        <v>494</v>
-      </c>
-      <c r="D220" s="25"/>
-      <c r="E220" s="25"/>
-      <c r="F220" s="25"/>
-      <c r="G220" s="26"/>
+      <c r="C220" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="D220" s="26"/>
+      <c r="E220" s="26"/>
+      <c r="F220" s="26"/>
+      <c r="G220" s="27"/>
     </row>
     <row r="221" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B221" s="4" t="s">
@@ -11821,10 +12633,10 @@
         <v>1</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>162</v>
@@ -11839,13 +12651,13 @@
         <v>2</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>178</v>
@@ -11857,13 +12669,13 @@
         <v>3</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>178</v>
@@ -11878,10 +12690,10 @@
         <v>123</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>178</v>
@@ -11896,7 +12708,7 @@
         <v>370</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>372</v>
@@ -11911,16 +12723,16 @@
         <v>6</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="G227" s="7"/>
     </row>
@@ -12073,25 +12885,25 @@
       <c r="B240" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C240" s="21" t="s">
-        <v>521</v>
-      </c>
-      <c r="D240" s="22"/>
-      <c r="E240" s="22"/>
-      <c r="F240" s="22"/>
-      <c r="G240" s="23"/>
+      <c r="C240" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="D240" s="23"/>
+      <c r="E240" s="23"/>
+      <c r="F240" s="23"/>
+      <c r="G240" s="24"/>
     </row>
     <row r="241" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B241" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C241" s="24" t="s">
-        <v>523</v>
-      </c>
-      <c r="D241" s="25"/>
-      <c r="E241" s="25"/>
-      <c r="F241" s="25"/>
-      <c r="G241" s="26"/>
+      <c r="C241" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="D241" s="26"/>
+      <c r="E241" s="26"/>
+      <c r="F241" s="26"/>
+      <c r="G241" s="27"/>
     </row>
     <row r="242" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B242" s="4" t="s">
@@ -12118,13 +12930,13 @@
         <v>1</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>177</v>
@@ -12136,13 +12948,13 @@
         <v>2</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>178</v>
@@ -12154,10 +12966,10 @@
         <v>3</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>192</v>
@@ -12172,10 +12984,10 @@
         <v>4</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>164</v>
@@ -12190,17 +13002,17 @@
         <v>5</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="F247" s="2"/>
       <c r="G247" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="248" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -12208,13 +13020,13 @@
         <v>6</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F248" s="2"/>
       <c r="G248" s="7"/>
@@ -12224,13 +13036,13 @@
         <v>7</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F249" s="2"/>
       <c r="G249" s="14"/>
@@ -12240,19 +13052,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G250" s="14" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="251" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -12282,7 +13094,7 @@
         <v>155</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="F252" s="2"/>
       <c r="G252" s="7"/>
@@ -12298,7 +13110,7 @@
         <v>156</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="F253" s="2"/>
       <c r="G253" s="7"/>
@@ -12362,7 +13174,7 @@
         <v>159</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F257" s="2"/>
       <c r="G257" s="7"/>
@@ -12404,25 +13216,25 @@
       <c r="B263" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C263" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="D263" s="22"/>
-      <c r="E263" s="22"/>
-      <c r="F263" s="22"/>
-      <c r="G263" s="23"/>
+      <c r="C263" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="D263" s="23"/>
+      <c r="E263" s="23"/>
+      <c r="F263" s="23"/>
+      <c r="G263" s="24"/>
     </row>
     <row r="264" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B264" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C264" s="24" t="s">
-        <v>503</v>
-      </c>
-      <c r="D264" s="25"/>
-      <c r="E264" s="25"/>
-      <c r="F264" s="25"/>
-      <c r="G264" s="26"/>
+      <c r="C264" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="D264" s="26"/>
+      <c r="E264" s="26"/>
+      <c r="F264" s="26"/>
+      <c r="G264" s="27"/>
     </row>
     <row r="265" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B265" s="4" t="s">
@@ -12449,10 +13261,10 @@
         <v>1</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>162</v>
@@ -12467,10 +13279,10 @@
         <v>2</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>163</v>
@@ -12485,13 +13297,13 @@
         <v>3</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>178</v>
@@ -12503,16 +13315,16 @@
         <v>4</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="G269" s="7"/>
     </row>
@@ -12521,16 +13333,16 @@
         <v>5</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="G270" s="7"/>
     </row>
@@ -12539,13 +13351,13 @@
         <v>6</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="F271" s="2"/>
       <c r="G271" s="14"/>
@@ -12555,13 +13367,13 @@
         <v>7</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="F272" s="2"/>
       <c r="G272" s="14"/>
@@ -12715,25 +13527,25 @@
       <c r="B285" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C285" s="21" t="s">
-        <v>550</v>
-      </c>
-      <c r="D285" s="22"/>
-      <c r="E285" s="22"/>
-      <c r="F285" s="22"/>
-      <c r="G285" s="23"/>
+      <c r="C285" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="D285" s="23"/>
+      <c r="E285" s="23"/>
+      <c r="F285" s="23"/>
+      <c r="G285" s="24"/>
     </row>
     <row r="286" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B286" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C286" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="D286" s="25"/>
-      <c r="E286" s="25"/>
-      <c r="F286" s="25"/>
-      <c r="G286" s="26"/>
+      <c r="C286" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="D286" s="26"/>
+      <c r="E286" s="26"/>
+      <c r="F286" s="26"/>
+      <c r="G286" s="27"/>
     </row>
     <row r="287" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B287" s="4" t="s">
@@ -12760,10 +13572,10 @@
         <v>1</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>162</v>
@@ -12778,19 +13590,19 @@
         <v>2</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>178</v>
       </c>
       <c r="G289" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="290" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -12798,10 +13610,10 @@
         <v>3</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>162</v>
@@ -12816,10 +13628,10 @@
         <v>4</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>175</v>
@@ -12834,10 +13646,10 @@
         <v>5</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>164</v>
@@ -13076,25 +13888,25 @@
       <c r="B2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>738</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
+      <c r="C2" s="22" t="s">
+        <v>727</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -13121,13 +13933,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>177</v>
@@ -13139,13 +13951,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>178</v>
@@ -13157,10 +13969,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>164</v>
@@ -13175,10 +13987,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>165</v>
@@ -13194,13 +14006,13 @@
         <v>342</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G9" s="7"/>
     </row>
@@ -13209,7 +14021,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>347</v>
@@ -13231,7 +14043,7 @@
         <v>150</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="11"/>
@@ -13247,7 +14059,7 @@
         <v>155</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="7"/>
@@ -13369,25 +14181,25 @@
       <c r="B23" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>739</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
+      <c r="C23" s="22" t="s">
+        <v>728</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
@@ -13414,10 +14226,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>162</v>
@@ -13432,10 +14244,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>163</v>
@@ -13450,10 +14262,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>164</v>
@@ -13468,10 +14280,10 @@
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>165</v>
@@ -13489,13 +14301,13 @@
         <v>342</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G30" s="7"/>
     </row>
@@ -13504,19 +14316,19 @@
         <v>6</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -13668,25 +14480,25 @@
       <c r="B44" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="21" t="s">
-        <v>740</v>
-      </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="23"/>
+      <c r="C44" s="22" t="s">
+        <v>729</v>
+      </c>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="45" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="27"/>
     </row>
     <row r="46" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
@@ -13713,10 +14525,10 @@
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>162</v>
@@ -13731,10 +14543,10 @@
         <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>163</v>
@@ -13749,10 +14561,10 @@
         <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>164</v>
@@ -13767,10 +14579,10 @@
         <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>165</v>
@@ -13788,10 +14600,10 @@
         <v>342</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="7"/>
@@ -13801,13 +14613,13 @@
         <v>6</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="14"/>
@@ -13817,13 +14629,13 @@
         <v>7</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="14"/>
@@ -13833,13 +14645,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="14"/>
@@ -13849,17 +14661,17 @@
         <v>9</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="14" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -13867,16 +14679,16 @@
         <v>10</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="G56" s="14"/>
     </row>
@@ -14029,25 +14841,25 @@
       <c r="B69" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="21" t="s">
-        <v>741</v>
-      </c>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="23"/>
+      <c r="C69" s="22" t="s">
+        <v>730</v>
+      </c>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="24"/>
     </row>
     <row r="70" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B70" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="24" t="s">
-        <v>591</v>
-      </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="26"/>
+      <c r="C70" s="25" t="s">
+        <v>583</v>
+      </c>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="27"/>
     </row>
     <row r="71" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B71" s="4" t="s">
@@ -14074,10 +14886,10 @@
         <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>162</v>
@@ -14164,17 +14976,17 @@
         <v>6</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="14" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
     </row>
     <row r="78" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -14182,10 +14994,10 @@
         <v>7</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>163</v>
@@ -14198,17 +15010,17 @@
         <v>8</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="14" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
     </row>
     <row r="80" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -14226,7 +15038,7 @@
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="14" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="81" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -14282,17 +15094,17 @@
         <v>13</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="14" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="85" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -14300,10 +15112,10 @@
         <v>14</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>163</v>
@@ -14316,10 +15128,10 @@
         <v>15</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>164</v>
@@ -14332,17 +15144,17 @@
         <v>16</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="14" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="88" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -14350,10 +15162,10 @@
         <v>17</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>163</v>
@@ -14366,10 +15178,10 @@
         <v>18</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>164</v>
@@ -14382,17 +15194,17 @@
         <v>19</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="14" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="91" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -14400,10 +15212,10 @@
         <v>20</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>163</v>
@@ -14416,10 +15228,10 @@
         <v>21</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>164</v>
@@ -14432,17 +15244,17 @@
         <v>22</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="14" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="94" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -14450,13 +15262,13 @@
         <v>23</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="14"/>
@@ -14627,7 +15439,7 @@
   <dimension ref="B2:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="B3" sqref="B3:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14644,25 +15456,25 @@
       <c r="B3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>781</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
+      <c r="C3" s="22" t="s">
+        <v>770</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -14689,7 +15501,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>291</v>
@@ -14700,8 +15512,8 @@
       <c r="F6" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G6" s="33" t="s">
-        <v>408</v>
+      <c r="G6" s="34" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -14709,7 +15521,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>292</v>
@@ -14720,17 +15532,17 @@
       <c r="F7" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G7" s="34"/>
+      <c r="G7" s="35"/>
     </row>
     <row r="8" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="6">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>296</v>
@@ -14738,14 +15550,14 @@
       <c r="F8" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G8" s="35"/>
+      <c r="G8" s="36"/>
     </row>
     <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="6">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>295</v>
@@ -14761,7 +15573,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>137</v>
@@ -14777,7 +15589,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>298</v>
@@ -14795,7 +15607,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>299</v>
@@ -14811,7 +15623,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>300</v>
@@ -15039,25 +15851,25 @@
       <c r="B30" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>782</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
+      <c r="C30" s="22" t="s">
+        <v>771</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B31" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="27"/>
     </row>
     <row r="32" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
@@ -15156,10 +15968,10 @@
         <v>5</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>164</v>
@@ -15168,7 +15980,7 @@
         <v>178</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -15197,7 +16009,7 @@
         <v>149</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>165</v>
@@ -15349,6 +16161,772 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="24.625" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="56.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>872</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>897</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="6">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="6">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="7" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="6">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="7" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B11" s="6">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="6">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="6">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="6">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B15" s="6">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="6">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="6">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="6">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="8">
+        <v>15</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="22" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>896</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>898</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B25" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B27" s="6">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B28" s="6">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B29" s="6">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B30" s="6">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B31" s="6">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B32" s="6">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B33" s="6">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B34" s="6">
+        <v>9</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B35" s="6">
+        <v>10</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B36" s="6">
+        <v>11</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="7" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B37" s="6">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="7" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B38" s="6">
+        <v>13</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="7" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B39" s="6">
+        <v>14</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B40" s="6">
+        <v>15</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B41" s="6">
+        <v>16</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B42" s="6">
+        <v>17</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B43" s="6">
+        <v>18</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B44" s="6">
+        <v>19</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B45" s="6">
+        <v>20</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B46" s="6">
+        <v>21</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B47" s="6">
+        <v>22</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="8">
+        <v>23</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15362,7 +16940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G74"/>
   <sheetViews>
@@ -15384,25 +16962,25 @@
       <c r="B2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>641</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
+      <c r="C2" s="22" t="s">
+        <v>630</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>648</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="25" t="s">
+        <v>637</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -15429,13 +17007,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="7"/>
@@ -15445,10 +17023,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>163</v>
@@ -15461,10 +17039,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>164</v>
@@ -15477,10 +17055,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>165</v>
@@ -15493,13 +17071,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="7"/>
@@ -15509,13 +17087,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>645</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>656</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="7"/>
@@ -15525,13 +17103,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>646</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>657</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="7"/>
@@ -15541,17 +17119,17 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="7" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -15568,7 +17146,7 @@
         <v>172</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G13" s="7"/>
     </row>
@@ -15721,25 +17299,25 @@
       <c r="B26" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="21" t="s">
-        <v>637</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
+      <c r="C26" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>692</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
+      <c r="C27" s="25" t="s">
+        <v>681</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
     </row>
     <row r="28" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
@@ -15766,13 +17344,13 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="7"/>
@@ -15782,10 +17360,10 @@
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>162</v>
@@ -15798,13 +17376,13 @@
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="7"/>
@@ -15814,17 +17392,17 @@
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="7" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -15832,10 +17410,10 @@
         <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>163</v>
@@ -15848,10 +17426,10 @@
         <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>164</v>
@@ -15864,13 +17442,13 @@
         <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="7"/>
@@ -15880,17 +17458,17 @@
         <v>8</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="7" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -15898,17 +17476,17 @@
         <v>9</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>163</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="7" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -15916,17 +17494,17 @@
         <v>10</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>163</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="7" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -15934,13 +17512,13 @@
         <v>11</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="7"/>
@@ -15950,13 +17528,13 @@
         <v>12</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="7"/>
@@ -15966,13 +17544,13 @@
         <v>13</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="7"/>
@@ -15982,17 +17560,17 @@
         <v>14</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>172</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="16" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -16000,17 +17578,17 @@
         <v>15</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="7" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -16162,25 +17740,25 @@
       <c r="B56" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="21" t="s">
-        <v>639</v>
-      </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="23"/>
+      <c r="C56" s="22" t="s">
+        <v>628</v>
+      </c>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="24"/>
     </row>
     <row r="57" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B57" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="24" t="s">
-        <v>699</v>
-      </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="26"/>
+      <c r="C57" s="25" t="s">
+        <v>688</v>
+      </c>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="27"/>
     </row>
     <row r="58" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B58" s="4" t="s">
@@ -16207,10 +17785,10 @@
         <v>1</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>162</v>
@@ -16223,10 +17801,10 @@
         <v>2</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>162</v>
@@ -16239,17 +17817,17 @@
         <v>3</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="7" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -16257,13 +17835,13 @@
         <v>4</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="7"/>
@@ -16271,10 +17849,10 @@
     <row r="63" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B63" s="6"/>
       <c r="C63" s="2" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>163</v>
@@ -16287,13 +17865,13 @@
         <v>5</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="7"/>
@@ -16303,10 +17881,10 @@
         <v>6</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>163</v>

--- a/doc/设计文档/数据库设计/数据库设计.xlsx
+++ b/doc/设计文档/数据库设计/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11760" windowHeight="6795"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11760" windowHeight="6795" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表清单" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2739" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="933">
   <si>
     <t>序号</t>
   </si>
@@ -1808,26 +1808,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PRO_PROCESS_L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工序内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PRO_PROCESS_L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生产工序内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PROCESS_L_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PROCESS_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1840,30 +1828,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L_CONTENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L_DEVICE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工具设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L_MATERIAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>辅助材料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L_ORDER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>顺序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1876,10 +1848,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L_URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>指导材料URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3531,215 +3499,251 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>default'Y',not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认单独编码的需要定期维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAINTEN_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保养维护方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGULAR：定期维护；USAGE：按使用次数维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAINTEN_PERIOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保养周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定期维护时默认为按天；按次数维护时默认为次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM_MAINTEN_CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM_MAINTEN_RECORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具领用记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具维护内容表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM_TOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM_TOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具类型表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具清单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOOL_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOOL_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUANTITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 1,not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非单独编码的需要填写数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非单独编码的，领出、归还、报废都需要更新可用数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEXT_MAINTEN_PERIOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一次保养周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEXT_MAINTEN_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一次保养日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定期维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按次数维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRAND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOOL_TYPE_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOOL_TYPE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具类型ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具类型编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 'STORE'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STORE：在库；ISSUE：被领用；SCRAP：报废；REPARE：维修中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOOL_TYPE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOOL_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUANTITY_AVAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CODE_FLAG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否编码管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default'Y',not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认单独编码的需要定期维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAINTEN_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保养维护方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REGULAR：定期维护；USAGE：按使用次数维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAINTEN_PERIOD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保养周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定期维护时默认为按天；按次数维护时默认为次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TM_MAINTEN_CONTENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TM_MAINTEN_RECORD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工装夹具领用记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工装夹具维护内容表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TM_TOOL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TM_TOOL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工装夹具类型表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工装夹具清单表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOOL_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOOL_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QUANTITY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 1,not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非单独编码的需要填写数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可用数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非单独编码的，领出、归还、报废都需要更新可用数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEXT_MAINTEN_PERIOD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一次保养周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEXT_MAINTEN_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一次保养日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定期维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按次数维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRAND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPEC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工装夹具ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOOL_TYPE_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOOL_TYPE_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工装夹具类型ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工装夹具类型编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工装夹具类型名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 'STORE'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STORE：在库；ISSUE：被领用；SCRAP：报废；REPARE：维修中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOOL_TYPE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOOL_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QUANTITY_AVAIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 1</t>
+    <t>是否单独编码管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否单独编码管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO_PROCESS_CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO_PROCESS_CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTENT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTENT_TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATERIAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOC_URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4015,7 +4019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4080,13 +4084,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4098,14 +4096,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4115,6 +4113,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4428,8 +4435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4513,28 +4520,28 @@
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -4635,43 +4642,43 @@
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>809</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -4732,20 +4739,20 @@
     <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>448</v>
+        <v>925</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>16</v>
@@ -4760,13 +4767,13 @@
     <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>29</v>
@@ -4775,16 +4782,16 @@
     <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -4811,7 +4818,7 @@
         <v>16</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>109</v>
@@ -4964,7 +4971,7 @@
     <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>55</v>
@@ -4977,7 +4984,7 @@
     <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>55</v>
@@ -4990,7 +4997,7 @@
     <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>55</v>
@@ -5003,22 +5010,22 @@
     <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>55</v>
@@ -5033,7 +5040,7 @@
     <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>55</v>
@@ -5046,7 +5053,7 @@
     <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>55</v>
@@ -5061,7 +5068,7 @@
     <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>55</v>
@@ -5074,7 +5081,7 @@
     <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>55</v>
@@ -5089,7 +5096,7 @@
     <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>55</v>
@@ -5102,7 +5109,7 @@
     <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>55</v>
@@ -5117,7 +5124,7 @@
     <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>55</v>
@@ -5130,7 +5137,7 @@
     <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>55</v>
@@ -5145,7 +5152,7 @@
     <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>55</v>
@@ -5158,7 +5165,7 @@
     <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>55</v>
@@ -5173,7 +5180,7 @@
     <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>55</v>
@@ -5186,7 +5193,7 @@
     <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>55</v>
@@ -5201,7 +5208,7 @@
     <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>55</v>
@@ -5214,7 +5221,7 @@
     <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>55</v>
@@ -5229,7 +5236,7 @@
     <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>55</v>
@@ -5242,7 +5249,7 @@
     <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>55</v>
@@ -5257,7 +5264,7 @@
     <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>55</v>
@@ -5272,7 +5279,7 @@
     <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>55</v>
@@ -5301,10 +5308,10 @@
     <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>12</v>
@@ -5314,10 +5321,10 @@
     <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>13</v>
@@ -5330,7 +5337,7 @@
         <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>86</v>
@@ -5343,7 +5350,7 @@
         <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>88</v>
@@ -5358,7 +5365,7 @@
         <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>91</v>
@@ -5371,7 +5378,7 @@
         <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>93</v>
@@ -5384,7 +5391,7 @@
         <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>95</v>
@@ -5398,7 +5405,7 @@
         <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>98</v>
@@ -5410,7 +5417,7 @@
         <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>100</v>
@@ -5424,7 +5431,7 @@
         <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>103</v>
@@ -5436,7 +5443,7 @@
         <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>104</v>
@@ -5459,63 +5466,63 @@
     </row>
     <row r="81" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B81" s="2" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B82" s="2" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B83" s="2" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B84" s="2" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="E84" s="2"/>
     </row>
     <row r="85" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B85" s="2" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="E85" s="2"/>
     </row>
@@ -5533,73 +5540,73 @@
     </row>
     <row r="88" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B88" s="2" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E88" s="2"/>
     </row>
     <row r="89" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B89" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="E89" s="2"/>
     </row>
     <row r="90" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B90" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="E90" s="2"/>
     </row>
     <row r="91" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B91" s="2" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="E91" s="2"/>
     </row>
     <row r="92" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B92" s="2" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E92" s="2"/>
     </row>
     <row r="93" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B93" s="2" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="E93" s="2"/>
     </row>
@@ -5673,8 +5680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G257"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D241" sqref="D241"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5690,25 +5697,25 @@
       <c r="B3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -5811,13 +5818,13 @@
         <v>128</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>178</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -5825,7 +5832,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>194</v>
@@ -5937,7 +5944,7 @@
         <v>142</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="7"/>
@@ -5953,7 +5960,7 @@
         <v>143</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="7"/>
@@ -6107,25 +6114,25 @@
       <c r="B31" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="28"/>
     </row>
     <row r="32" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="27"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
     </row>
     <row r="33" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
@@ -6224,19 +6231,19 @@
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -6244,7 +6251,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>194</v>
@@ -6264,16 +6271,16 @@
         <v>7</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="G40" s="7"/>
     </row>
@@ -6444,25 +6451,25 @@
       <c r="B54" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="24"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="28"/>
     </row>
     <row r="55" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B55" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="27"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="25"/>
     </row>
     <row r="56" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
@@ -6489,13 +6496,13 @@
         <v>1</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>177</v>
@@ -6507,13 +6514,13 @@
         <v>2</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>178</v>
@@ -6561,13 +6568,13 @@
         <v>5</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="7"/>
@@ -6611,7 +6618,7 @@
         <v>8</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>194</v>
@@ -6649,17 +6656,17 @@
         <v>10</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="7" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
     </row>
     <row r="67" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -6670,7 +6677,7 @@
         <v>211</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>330</v>
@@ -6829,25 +6836,25 @@
       <c r="B80" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="24"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="28"/>
     </row>
     <row r="81" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B81" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C81" s="25" t="s">
+      <c r="C81" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="27"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="25"/>
     </row>
     <row r="82" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B82" s="4" t="s">
@@ -7350,25 +7357,25 @@
       <c r="B115" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C115" s="22" t="s">
+      <c r="C115" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="D115" s="23"/>
-      <c r="E115" s="23"/>
-      <c r="F115" s="23"/>
-      <c r="G115" s="24"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="28"/>
     </row>
     <row r="116" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B116" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C116" s="25" t="s">
+      <c r="C116" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="D116" s="26"/>
-      <c r="E116" s="26"/>
-      <c r="F116" s="26"/>
-      <c r="G116" s="27"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="25"/>
     </row>
     <row r="117" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B117" s="4" t="s">
@@ -7853,25 +7860,25 @@
       <c r="B151" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C151" s="22" t="s">
-        <v>706</v>
-      </c>
-      <c r="D151" s="23"/>
-      <c r="E151" s="23"/>
-      <c r="F151" s="23"/>
-      <c r="G151" s="24"/>
+      <c r="C151" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="D151" s="27"/>
+      <c r="E151" s="27"/>
+      <c r="F151" s="27"/>
+      <c r="G151" s="28"/>
     </row>
     <row r="152" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B152" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C152" s="25" t="s">
+      <c r="C152" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="D152" s="26"/>
-      <c r="E152" s="26"/>
-      <c r="F152" s="26"/>
-      <c r="G152" s="27"/>
+      <c r="D152" s="24"/>
+      <c r="E152" s="24"/>
+      <c r="F152" s="24"/>
+      <c r="G152" s="25"/>
     </row>
     <row r="153" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B153" s="4" t="s">
@@ -8168,25 +8175,25 @@
       <c r="B173" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C173" s="22" t="s">
-        <v>717</v>
-      </c>
-      <c r="D173" s="23"/>
-      <c r="E173" s="23"/>
-      <c r="F173" s="23"/>
-      <c r="G173" s="24"/>
+      <c r="C173" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="D173" s="27"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="27"/>
+      <c r="G173" s="28"/>
     </row>
     <row r="174" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B174" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C174" s="25" t="s">
+      <c r="C174" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="D174" s="26"/>
-      <c r="E174" s="26"/>
-      <c r="F174" s="26"/>
-      <c r="G174" s="27"/>
+      <c r="D174" s="24"/>
+      <c r="E174" s="24"/>
+      <c r="F174" s="24"/>
+      <c r="G174" s="25"/>
     </row>
     <row r="175" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B175" s="4" t="s">
@@ -8461,25 +8468,25 @@
       <c r="B193" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C193" s="22" t="s">
+      <c r="C193" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="D193" s="23"/>
-      <c r="E193" s="23"/>
-      <c r="F193" s="23"/>
-      <c r="G193" s="24"/>
+      <c r="D193" s="27"/>
+      <c r="E193" s="27"/>
+      <c r="F193" s="27"/>
+      <c r="G193" s="28"/>
     </row>
     <row r="194" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B194" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C194" s="25" t="s">
-        <v>826</v>
-      </c>
-      <c r="D194" s="26"/>
-      <c r="E194" s="26"/>
-      <c r="F194" s="26"/>
-      <c r="G194" s="27"/>
+      <c r="C194" s="23" t="s">
+        <v>818</v>
+      </c>
+      <c r="D194" s="24"/>
+      <c r="E194" s="24"/>
+      <c r="F194" s="24"/>
+      <c r="G194" s="25"/>
     </row>
     <row r="195" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B195" s="4" t="s">
@@ -8509,7 +8516,7 @@
         <v>409</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>162</v>
@@ -8527,7 +8534,7 @@
         <v>410</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>285</v>
@@ -8545,7 +8552,7 @@
         <v>411</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>296</v>
@@ -8560,10 +8567,10 @@
         <v>4</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>164</v>
@@ -8576,10 +8583,10 @@
         <v>5</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>162</v>
@@ -8592,10 +8599,10 @@
         <v>6</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>175</v>
@@ -8608,10 +8615,10 @@
         <v>7</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>164</v>
@@ -8624,17 +8631,17 @@
         <v>8</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" s="7" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
     </row>
     <row r="204" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -8642,13 +8649,13 @@
         <v>9</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" s="7"/>
@@ -8658,13 +8665,13 @@
         <v>10</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="F205" s="2"/>
       <c r="G205" s="7"/>
@@ -8836,25 +8843,25 @@
       <c r="B218" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C218" s="22" t="s">
+      <c r="C218" s="26" t="s">
         <v>419</v>
       </c>
-      <c r="D218" s="23"/>
-      <c r="E218" s="23"/>
-      <c r="F218" s="23"/>
-      <c r="G218" s="24"/>
+      <c r="D218" s="27"/>
+      <c r="E218" s="27"/>
+      <c r="F218" s="27"/>
+      <c r="G218" s="28"/>
     </row>
     <row r="219" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B219" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C219" s="25" t="s">
-        <v>835</v>
-      </c>
-      <c r="D219" s="26"/>
-      <c r="E219" s="26"/>
-      <c r="F219" s="26"/>
-      <c r="G219" s="27"/>
+      <c r="C219" s="23" t="s">
+        <v>827</v>
+      </c>
+      <c r="D219" s="24"/>
+      <c r="E219" s="24"/>
+      <c r="F219" s="24"/>
+      <c r="G219" s="25"/>
     </row>
     <row r="220" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B220" s="4" t="s">
@@ -8881,7 +8888,7 @@
         <v>1</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>413</v>
@@ -8902,7 +8909,7 @@
         <v>414</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>170</v>
@@ -9113,25 +9120,25 @@
       <c r="B238" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C238" s="22" t="s">
-        <v>836</v>
-      </c>
-      <c r="D238" s="23"/>
-      <c r="E238" s="23"/>
-      <c r="F238" s="23"/>
-      <c r="G238" s="24"/>
+      <c r="C238" s="26" t="s">
+        <v>828</v>
+      </c>
+      <c r="D238" s="27"/>
+      <c r="E238" s="27"/>
+      <c r="F238" s="27"/>
+      <c r="G238" s="28"/>
     </row>
     <row r="239" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B239" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C239" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="D239" s="26"/>
-      <c r="E239" s="26"/>
-      <c r="F239" s="26"/>
-      <c r="G239" s="27"/>
+      <c r="C239" s="23" t="s">
+        <v>840</v>
+      </c>
+      <c r="D239" s="24"/>
+      <c r="E239" s="24"/>
+      <c r="F239" s="24"/>
+      <c r="G239" s="25"/>
     </row>
     <row r="240" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B240" s="4" t="s">
@@ -9158,7 +9165,7 @@
         <v>1</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>413</v>
@@ -9179,7 +9186,7 @@
         <v>409</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>162</v>
@@ -9194,10 +9201,10 @@
         <v>3</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>162</v>
@@ -9212,13 +9219,13 @@
         <v>4</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>178</v>
@@ -9230,10 +9237,10 @@
         <v>5</v>
       </c>
       <c r="C245" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D245" s="2" t="s">
         <v>850</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>858</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>175</v>
@@ -9248,10 +9255,10 @@
         <v>6</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>164</v>
@@ -9264,13 +9271,13 @@
         <v>7</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="F247" s="2"/>
       <c r="G247" s="7"/>
@@ -9280,19 +9287,19 @@
         <v>8</v>
       </c>
       <c r="C248" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="E248" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="D248" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>861</v>
-      </c>
       <c r="F248" s="2" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="G248" s="7" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
     </row>
     <row r="249" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -9441,11 +9448,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C152:G152"/>
-    <mergeCell ref="C173:G173"/>
-    <mergeCell ref="C193:G193"/>
-    <mergeCell ref="C194:G194"/>
-    <mergeCell ref="C238:G238"/>
     <mergeCell ref="C239:G239"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
@@ -9461,6 +9463,11 @@
     <mergeCell ref="C218:G218"/>
     <mergeCell ref="C174:G174"/>
     <mergeCell ref="C151:G151"/>
+    <mergeCell ref="C152:G152"/>
+    <mergeCell ref="C173:G173"/>
+    <mergeCell ref="C193:G193"/>
+    <mergeCell ref="C194:G194"/>
+    <mergeCell ref="C238:G238"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9471,8 +9478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G303"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9489,25 +9496,25 @@
       <c r="B3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -9676,13 +9683,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="7"/>
@@ -9719,7 +9726,7 @@
         <v>170</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="29" t="s">
         <v>378</v>
       </c>
     </row>
@@ -9737,7 +9744,7 @@
         <v>285</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="32"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="6">
@@ -9753,7 +9760,7 @@
         <v>171</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="33"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="6">
@@ -9776,10 +9783,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>162</v>
@@ -9788,7 +9795,7 @@
         <v>373</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -9796,10 +9803,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>164</v>
@@ -9808,7 +9815,7 @@
         <v>178</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -9816,13 +9823,13 @@
         <v>17</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="19"/>
@@ -9976,25 +9983,25 @@
       <c r="B35" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="22" t="s">
-        <v>806</v>
-      </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24"/>
+      <c r="C35" s="26" t="s">
+        <v>798</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="28"/>
     </row>
     <row r="36" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B36" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="25" t="s">
-        <v>821</v>
-      </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="27"/>
+      <c r="C36" s="23" t="s">
+        <v>813</v>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="25"/>
     </row>
     <row r="37" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B37" s="4" t="s">
@@ -10021,10 +10028,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>162</v>
@@ -10045,7 +10052,7 @@
         <v>355</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>178</v>
@@ -10057,10 +10064,10 @@
         <v>3</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>162</v>
@@ -10075,13 +10082,13 @@
         <v>4</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="7"/>
@@ -10091,13 +10098,13 @@
         <v>5</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="7"/>
@@ -10107,13 +10114,13 @@
         <v>6</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="7"/>
@@ -10123,13 +10130,13 @@
         <v>7</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="7"/>
@@ -10139,7 +10146,7 @@
         <v>8</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>194</v>
@@ -10159,13 +10166,13 @@
         <v>9</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>178</v>
@@ -10321,25 +10328,25 @@
       <c r="B59" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="22" t="s">
-        <v>811</v>
-      </c>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="24"/>
+      <c r="C59" s="26" t="s">
+        <v>803</v>
+      </c>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="28"/>
     </row>
     <row r="60" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B60" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C60" s="25" t="s">
-        <v>813</v>
-      </c>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="27"/>
+      <c r="C60" s="23" t="s">
+        <v>805</v>
+      </c>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="25"/>
     </row>
     <row r="61" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B61" s="4" t="s">
@@ -10366,10 +10373,10 @@
         <v>1</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>162</v>
@@ -10384,7 +10391,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>355</v>
@@ -10402,10 +10409,10 @@
         <v>3</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>162</v>
@@ -10420,13 +10427,13 @@
         <v>4</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="7"/>
@@ -10436,13 +10443,13 @@
         <v>5</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="7"/>
@@ -10452,13 +10459,13 @@
         <v>6</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="7"/>
@@ -10468,13 +10475,13 @@
         <v>7</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="7"/>
@@ -10484,7 +10491,7 @@
         <v>8</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>194</v>
@@ -10507,10 +10514,10 @@
         <v>370</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>178</v>
@@ -10666,25 +10673,25 @@
       <c r="B85" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="24"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="28"/>
     </row>
     <row r="86" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B86" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C86" s="25" t="s">
+      <c r="C86" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="27"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="25"/>
     </row>
     <row r="87" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B87" s="4" t="s">
@@ -10820,7 +10827,7 @@
         <v>416</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>162</v>
@@ -10840,7 +10847,7 @@
         <v>410</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>285</v>
@@ -10856,7 +10863,7 @@
         <v>411</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>296</v>
@@ -10936,7 +10943,7 @@
       <c r="F100" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="G100" s="28" t="s">
+      <c r="G100" s="32" t="s">
         <v>404</v>
       </c>
     </row>
@@ -10954,7 +10961,7 @@
         <v>372</v>
       </c>
       <c r="F101" s="2"/>
-      <c r="G101" s="29"/>
+      <c r="G101" s="33"/>
     </row>
     <row r="102" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B102" s="6">
@@ -10970,7 +10977,7 @@
         <v>372</v>
       </c>
       <c r="F102" s="2"/>
-      <c r="G102" s="30"/>
+      <c r="G102" s="34"/>
     </row>
     <row r="103" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B103" s="6">
@@ -11203,25 +11210,25 @@
       <c r="B119" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C119" s="22" t="s">
+      <c r="C119" s="26" t="s">
         <v>421</v>
       </c>
-      <c r="D119" s="23"/>
-      <c r="E119" s="23"/>
-      <c r="F119" s="23"/>
-      <c r="G119" s="24"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="28"/>
     </row>
     <row r="120" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B120" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C120" s="25" t="s">
+      <c r="C120" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="D120" s="26"/>
-      <c r="E120" s="26"/>
-      <c r="F120" s="26"/>
-      <c r="G120" s="27"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="25"/>
     </row>
     <row r="121" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B121" s="4" t="s">
@@ -11494,25 +11501,25 @@
       <c r="B140" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C140" s="22" t="s">
+      <c r="C140" s="26" t="s">
         <v>429</v>
       </c>
-      <c r="D140" s="23"/>
-      <c r="E140" s="23"/>
-      <c r="F140" s="23"/>
-      <c r="G140" s="24"/>
+      <c r="D140" s="27"/>
+      <c r="E140" s="27"/>
+      <c r="F140" s="27"/>
+      <c r="G140" s="28"/>
     </row>
     <row r="141" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B141" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C141" s="25" t="s">
+      <c r="C141" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="D141" s="26"/>
-      <c r="E141" s="26"/>
-      <c r="F141" s="26"/>
-      <c r="G141" s="27"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="24"/>
+      <c r="F141" s="24"/>
+      <c r="G141" s="25"/>
     </row>
     <row r="142" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B142" s="4" t="s">
@@ -11755,25 +11762,25 @@
       <c r="B159" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C159" s="22" t="s">
+      <c r="C159" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="D159" s="23"/>
-      <c r="E159" s="23"/>
-      <c r="F159" s="23"/>
-      <c r="G159" s="24"/>
+      <c r="D159" s="27"/>
+      <c r="E159" s="27"/>
+      <c r="F159" s="27"/>
+      <c r="G159" s="28"/>
     </row>
     <row r="160" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B160" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C160" s="25" t="s">
+      <c r="C160" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="D160" s="26"/>
-      <c r="E160" s="26"/>
-      <c r="F160" s="26"/>
-      <c r="G160" s="27"/>
+      <c r="D160" s="24"/>
+      <c r="E160" s="24"/>
+      <c r="F160" s="24"/>
+      <c r="G160" s="25"/>
     </row>
     <row r="161" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B161" s="4" t="s">
@@ -11811,8 +11818,8 @@
       <c r="F162" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G162" s="31" t="s">
-        <v>471</v>
+      <c r="G162" s="29" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="163" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -11831,7 +11838,7 @@
       <c r="F163" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G163" s="32"/>
+      <c r="G163" s="30"/>
     </row>
     <row r="164" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B164" s="6">
@@ -11849,7 +11856,7 @@
       <c r="F164" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G164" s="32"/>
+      <c r="G164" s="30"/>
     </row>
     <row r="165" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B165" s="6">
@@ -11867,7 +11874,7 @@
       <c r="F165" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="G165" s="33"/>
+      <c r="G165" s="31"/>
     </row>
     <row r="166" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B166" s="6">
@@ -12018,25 +12025,25 @@
       <c r="B178" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C178" s="22" t="s">
-        <v>450</v>
-      </c>
-      <c r="D178" s="23"/>
-      <c r="E178" s="23"/>
-      <c r="F178" s="23"/>
-      <c r="G178" s="24"/>
+      <c r="C178" s="26" t="s">
+        <v>926</v>
+      </c>
+      <c r="D178" s="27"/>
+      <c r="E178" s="27"/>
+      <c r="F178" s="27"/>
+      <c r="G178" s="28"/>
     </row>
     <row r="179" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B179" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C179" s="25" t="s">
-        <v>451</v>
-      </c>
-      <c r="D179" s="26"/>
-      <c r="E179" s="26"/>
-      <c r="F179" s="26"/>
-      <c r="G179" s="27"/>
+      <c r="C179" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="D179" s="24"/>
+      <c r="E179" s="24"/>
+      <c r="F179" s="24"/>
+      <c r="G179" s="25"/>
     </row>
     <row r="180" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B180" s="4" t="s">
@@ -12063,10 +12070,10 @@
         <v>1</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>452</v>
+        <v>927</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>170</v>
@@ -12081,10 +12088,10 @@
         <v>2</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>170</v>
@@ -12099,16 +12106,16 @@
         <v>3</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>461</v>
+        <v>928</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G183" s="7"/>
     </row>
@@ -12117,10 +12124,10 @@
         <v>4</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>456</v>
+        <v>929</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>165</v>
@@ -12133,10 +12140,10 @@
         <v>5</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>457</v>
+        <v>930</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>171</v>
@@ -12149,10 +12156,10 @@
         <v>6</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>459</v>
+        <v>931</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>171</v>
@@ -12165,17 +12172,17 @@
         <v>7</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>465</v>
+        <v>932</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F187" s="2"/>
       <c r="G187" s="14" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="188" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -12327,25 +12334,25 @@
       <c r="B200" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C200" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="D200" s="23"/>
-      <c r="E200" s="23"/>
-      <c r="F200" s="23"/>
-      <c r="G200" s="24"/>
+      <c r="C200" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="D200" s="27"/>
+      <c r="E200" s="27"/>
+      <c r="F200" s="27"/>
+      <c r="G200" s="28"/>
     </row>
     <row r="201" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B201" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C201" s="25" t="s">
-        <v>474</v>
-      </c>
-      <c r="D201" s="26"/>
-      <c r="E201" s="26"/>
-      <c r="F201" s="26"/>
-      <c r="G201" s="27"/>
+      <c r="C201" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="D201" s="24"/>
+      <c r="E201" s="24"/>
+      <c r="F201" s="24"/>
+      <c r="G201" s="25"/>
     </row>
     <row r="202" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B202" s="4" t="s">
@@ -12372,7 +12379,7 @@
         <v>1</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>413</v>
@@ -12390,13 +12397,13 @@
         <v>2</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>178</v>
@@ -12411,10 +12418,10 @@
         <v>123</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>178</v>
@@ -12426,16 +12433,16 @@
         <v>4</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G206" s="7"/>
     </row>
@@ -12588,25 +12595,25 @@
       <c r="B219" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C219" s="22" t="s">
+      <c r="C219" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D219" s="23"/>
-      <c r="E219" s="23"/>
-      <c r="F219" s="23"/>
-      <c r="G219" s="24"/>
+      <c r="D219" s="27"/>
+      <c r="E219" s="27"/>
+      <c r="F219" s="27"/>
+      <c r="G219" s="28"/>
     </row>
     <row r="220" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B220" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C220" s="25" t="s">
-        <v>486</v>
-      </c>
-      <c r="D220" s="26"/>
-      <c r="E220" s="26"/>
-      <c r="F220" s="26"/>
-      <c r="G220" s="27"/>
+      <c r="C220" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="D220" s="24"/>
+      <c r="E220" s="24"/>
+      <c r="F220" s="24"/>
+      <c r="G220" s="25"/>
     </row>
     <row r="221" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B221" s="4" t="s">
@@ -12633,7 +12640,7 @@
         <v>1</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>413</v>
@@ -12651,13 +12658,13 @@
         <v>2</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>178</v>
@@ -12669,13 +12676,13 @@
         <v>3</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>178</v>
@@ -12690,10 +12697,10 @@
         <v>123</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>178</v>
@@ -12708,7 +12715,7 @@
         <v>370</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>372</v>
@@ -12723,16 +12730,16 @@
         <v>6</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G227" s="7"/>
     </row>
@@ -12885,25 +12892,25 @@
       <c r="B240" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C240" s="22" t="s">
-        <v>513</v>
-      </c>
-      <c r="D240" s="23"/>
-      <c r="E240" s="23"/>
-      <c r="F240" s="23"/>
-      <c r="G240" s="24"/>
+      <c r="C240" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="D240" s="27"/>
+      <c r="E240" s="27"/>
+      <c r="F240" s="27"/>
+      <c r="G240" s="28"/>
     </row>
     <row r="241" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B241" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C241" s="25" t="s">
-        <v>515</v>
-      </c>
-      <c r="D241" s="26"/>
-      <c r="E241" s="26"/>
-      <c r="F241" s="26"/>
-      <c r="G241" s="27"/>
+      <c r="C241" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="D241" s="24"/>
+      <c r="E241" s="24"/>
+      <c r="F241" s="24"/>
+      <c r="G241" s="25"/>
     </row>
     <row r="242" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B242" s="4" t="s">
@@ -12930,13 +12937,13 @@
         <v>1</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>413</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>177</v>
@@ -12948,13 +12955,13 @@
         <v>2</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>178</v>
@@ -12966,10 +12973,10 @@
         <v>3</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>192</v>
@@ -12984,10 +12991,10 @@
         <v>4</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>164</v>
@@ -13002,17 +13009,17 @@
         <v>5</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F247" s="2"/>
       <c r="G247" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="248" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -13020,13 +13027,13 @@
         <v>6</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F248" s="2"/>
       <c r="G248" s="7"/>
@@ -13036,13 +13043,13 @@
         <v>7</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F249" s="2"/>
       <c r="G249" s="14"/>
@@ -13052,19 +13059,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G250" s="14" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="251" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -13094,7 +13101,7 @@
         <v>155</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="F252" s="2"/>
       <c r="G252" s="7"/>
@@ -13110,7 +13117,7 @@
         <v>156</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="F253" s="2"/>
       <c r="G253" s="7"/>
@@ -13174,7 +13181,7 @@
         <v>159</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F257" s="2"/>
       <c r="G257" s="7"/>
@@ -13216,25 +13223,25 @@
       <c r="B263" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C263" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="D263" s="23"/>
-      <c r="E263" s="23"/>
-      <c r="F263" s="23"/>
-      <c r="G263" s="24"/>
+      <c r="C263" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="D263" s="27"/>
+      <c r="E263" s="27"/>
+      <c r="F263" s="27"/>
+      <c r="G263" s="28"/>
     </row>
     <row r="264" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B264" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C264" s="25" t="s">
-        <v>495</v>
-      </c>
-      <c r="D264" s="26"/>
-      <c r="E264" s="26"/>
-      <c r="F264" s="26"/>
-      <c r="G264" s="27"/>
+      <c r="C264" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="D264" s="24"/>
+      <c r="E264" s="24"/>
+      <c r="F264" s="24"/>
+      <c r="G264" s="25"/>
     </row>
     <row r="265" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B265" s="4" t="s">
@@ -13261,10 +13268,10 @@
         <v>1</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>162</v>
@@ -13279,10 +13286,10 @@
         <v>2</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>163</v>
@@ -13297,13 +13304,13 @@
         <v>3</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>178</v>
@@ -13315,16 +13322,16 @@
         <v>4</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="G269" s="7"/>
     </row>
@@ -13333,16 +13340,16 @@
         <v>5</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="G270" s="7"/>
     </row>
@@ -13351,13 +13358,13 @@
         <v>6</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="F271" s="2"/>
       <c r="G271" s="14"/>
@@ -13367,13 +13374,13 @@
         <v>7</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="F272" s="2"/>
       <c r="G272" s="14"/>
@@ -13527,25 +13534,25 @@
       <c r="B285" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C285" s="22" t="s">
-        <v>542</v>
-      </c>
-      <c r="D285" s="23"/>
-      <c r="E285" s="23"/>
-      <c r="F285" s="23"/>
-      <c r="G285" s="24"/>
+      <c r="C285" s="26" t="s">
+        <v>534</v>
+      </c>
+      <c r="D285" s="27"/>
+      <c r="E285" s="27"/>
+      <c r="F285" s="27"/>
+      <c r="G285" s="28"/>
     </row>
     <row r="286" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B286" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C286" s="25" t="s">
-        <v>544</v>
-      </c>
-      <c r="D286" s="26"/>
-      <c r="E286" s="26"/>
-      <c r="F286" s="26"/>
-      <c r="G286" s="27"/>
+      <c r="C286" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="D286" s="24"/>
+      <c r="E286" s="24"/>
+      <c r="F286" s="24"/>
+      <c r="G286" s="25"/>
     </row>
     <row r="287" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B287" s="4" t="s">
@@ -13572,10 +13579,10 @@
         <v>1</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>162</v>
@@ -13590,19 +13597,19 @@
         <v>2</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>178</v>
       </c>
       <c r="G289" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="290" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -13610,10 +13617,10 @@
         <v>3</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>162</v>
@@ -13628,10 +13635,10 @@
         <v>4</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>175</v>
@@ -13646,10 +13653,10 @@
         <v>5</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>164</v>
@@ -13831,6 +13838,24 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C285:G285"/>
+    <mergeCell ref="C286:G286"/>
+    <mergeCell ref="C219:G219"/>
+    <mergeCell ref="C220:G220"/>
+    <mergeCell ref="C263:G263"/>
+    <mergeCell ref="C264:G264"/>
+    <mergeCell ref="C240:G240"/>
+    <mergeCell ref="C241:G241"/>
+    <mergeCell ref="G100:G102"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
     <mergeCell ref="C201:G201"/>
     <mergeCell ref="C119:G119"/>
     <mergeCell ref="C120:G120"/>
@@ -13842,24 +13867,6 @@
     <mergeCell ref="C179:G179"/>
     <mergeCell ref="G162:G165"/>
     <mergeCell ref="C200:G200"/>
-    <mergeCell ref="G100:G102"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C285:G285"/>
-    <mergeCell ref="C286:G286"/>
-    <mergeCell ref="C219:G219"/>
-    <mergeCell ref="C220:G220"/>
-    <mergeCell ref="C263:G263"/>
-    <mergeCell ref="C264:G264"/>
-    <mergeCell ref="C240:G240"/>
-    <mergeCell ref="C241:G241"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13888,25 +13895,25 @@
       <c r="B2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>727</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
+      <c r="C2" s="26" t="s">
+        <v>719</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -13933,13 +13940,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>177</v>
@@ -13951,13 +13958,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>178</v>
@@ -13969,10 +13976,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>164</v>
@@ -13987,10 +13994,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>165</v>
@@ -14006,13 +14013,13 @@
         <v>342</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G9" s="7"/>
     </row>
@@ -14021,7 +14028,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>347</v>
@@ -14043,7 +14050,7 @@
         <v>150</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="11"/>
@@ -14059,7 +14066,7 @@
         <v>155</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="7"/>
@@ -14181,25 +14188,25 @@
       <c r="B23" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>728</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
+      <c r="C23" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
@@ -14226,10 +14233,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>162</v>
@@ -14244,10 +14251,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>163</v>
@@ -14262,10 +14269,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>164</v>
@@ -14280,10 +14287,10 @@
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>165</v>
@@ -14301,13 +14308,13 @@
         <v>342</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G30" s="7"/>
     </row>
@@ -14316,19 +14323,19 @@
         <v>6</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -14480,25 +14487,25 @@
       <c r="B44" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="22" t="s">
-        <v>729</v>
-      </c>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="24"/>
+      <c r="C44" s="26" t="s">
+        <v>721</v>
+      </c>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="28"/>
     </row>
     <row r="45" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="27"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
     </row>
     <row r="46" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
@@ -14525,10 +14532,10 @@
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>162</v>
@@ -14543,10 +14550,10 @@
         <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>163</v>
@@ -14561,10 +14568,10 @@
         <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>164</v>
@@ -14579,10 +14586,10 @@
         <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>165</v>
@@ -14600,10 +14607,10 @@
         <v>342</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="7"/>
@@ -14613,13 +14620,13 @@
         <v>6</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="14"/>
@@ -14629,13 +14636,13 @@
         <v>7</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="14"/>
@@ -14645,13 +14652,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="14"/>
@@ -14661,17 +14668,17 @@
         <v>9</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="14" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -14679,16 +14686,16 @@
         <v>10</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="G56" s="14"/>
     </row>
@@ -14841,25 +14848,25 @@
       <c r="B69" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="22" t="s">
-        <v>730</v>
-      </c>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="24"/>
+      <c r="C69" s="26" t="s">
+        <v>722</v>
+      </c>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="28"/>
     </row>
     <row r="70" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B70" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="25" t="s">
-        <v>583</v>
-      </c>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="27"/>
+      <c r="C70" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="25"/>
     </row>
     <row r="71" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B71" s="4" t="s">
@@ -14886,7 +14893,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>413</v>
@@ -14976,17 +14983,17 @@
         <v>6</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="14" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="78" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -14994,10 +15001,10 @@
         <v>7</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>163</v>
@@ -15010,17 +15017,17 @@
         <v>8</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="14" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="80" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -15038,7 +15045,7 @@
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="14" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="81" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -15094,17 +15101,17 @@
         <v>13</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="14" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="85" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -15112,10 +15119,10 @@
         <v>14</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>163</v>
@@ -15128,10 +15135,10 @@
         <v>15</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>164</v>
@@ -15144,17 +15151,17 @@
         <v>16</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="14" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="88" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -15162,10 +15169,10 @@
         <v>17</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>163</v>
@@ -15178,10 +15185,10 @@
         <v>18</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>164</v>
@@ -15194,17 +15201,17 @@
         <v>19</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="14" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
     </row>
     <row r="91" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -15212,10 +15219,10 @@
         <v>20</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>163</v>
@@ -15228,10 +15235,10 @@
         <v>21</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>164</v>
@@ -15244,17 +15251,17 @@
         <v>22</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="14" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="94" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -15262,13 +15269,13 @@
         <v>23</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="14"/>
@@ -15456,25 +15463,25 @@
       <c r="B3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>770</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="26" t="s">
+        <v>762</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -15501,7 +15508,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>291</v>
@@ -15512,7 +15519,7 @@
       <c r="F6" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="35" t="s">
         <v>405</v>
       </c>
     </row>
@@ -15521,7 +15528,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>292</v>
@@ -15532,14 +15539,14 @@
       <c r="F7" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G7" s="35"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="6">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>415</v>
@@ -15550,14 +15557,14 @@
       <c r="F8" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G8" s="36"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="6">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>295</v>
@@ -15573,7 +15580,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>137</v>
@@ -15589,7 +15596,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>298</v>
@@ -15607,7 +15614,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>299</v>
@@ -15623,7 +15630,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>300</v>
@@ -15851,25 +15858,25 @@
       <c r="B30" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="22" t="s">
-        <v>771</v>
-      </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
+      <c r="C30" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
     </row>
     <row r="31" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B31" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="27"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
     </row>
     <row r="32" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
@@ -15968,10 +15975,10 @@
         <v>5</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>164</v>
@@ -15980,7 +15987,7 @@
         <v>178</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -16009,7 +16016,7 @@
         <v>149</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>165</v>
@@ -16161,10 +16168,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G48"/>
+  <dimension ref="B1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16181,25 +16188,25 @@
       <c r="B2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>872</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
+      <c r="C2" s="26" t="s">
+        <v>864</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>897</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
+      <c r="C3" s="23" t="s">
+        <v>887</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -16226,10 +16233,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>162</v>
@@ -16244,10 +16251,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>175</v>
@@ -16262,10 +16269,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>164</v>
@@ -16280,19 +16287,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>879</v>
+        <v>922</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>880</v>
+        <v>924</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>172</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -16300,17 +16307,17 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="7" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -16318,17 +16325,17 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="7" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -16480,25 +16487,25 @@
       <c r="B23" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>896</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
+      <c r="C23" s="26" t="s">
+        <v>886</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="25" t="s">
-        <v>898</v>
-      </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
+      <c r="C24" s="23" t="s">
+        <v>888</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
@@ -16525,10 +16532,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>162</v>
@@ -16543,10 +16550,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>175</v>
@@ -16559,13 +16566,13 @@
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>178</v>
@@ -16577,13 +16584,13 @@
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>295</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="14"/>
@@ -16593,10 +16600,10 @@
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>164</v>
@@ -16609,10 +16616,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>162</v>
@@ -16627,10 +16634,10 @@
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>163</v>
@@ -16643,10 +16650,10 @@
         <v>8</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>164</v>
@@ -16656,191 +16663,195 @@
     </row>
     <row r="34" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B34" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>901</v>
+        <v>922</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>902</v>
+        <v>923</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>889</v>
+        <v>172</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>904</v>
+        <v>871</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B35" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>930</v>
+        <v>891</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>931</v>
+        <v>893</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B36" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>883</v>
+        <v>920</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>884</v>
+        <v>895</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="7" t="s">
-        <v>886</v>
+        <v>879</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B37" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>907</v>
+        <v>873</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>908</v>
+        <v>874</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="7" t="s">
-        <v>912</v>
+        <v>876</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B38" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>192</v>
+        <v>879</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="7" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B39" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>924</v>
+        <v>899</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>925</v>
+        <v>900</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>926</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F39" s="2"/>
       <c r="G39" s="7" t="s">
-        <v>927</v>
+        <v>901</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B40" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>149</v>
+        <v>914</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>150</v>
+        <v>915</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="7"/>
+        <v>163</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>917</v>
+      </c>
     </row>
     <row r="41" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B41" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="7"/>
     </row>
     <row r="42" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B42" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="7"/>
     </row>
     <row r="43" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B43" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="7"/>
     </row>
     <row r="44" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B44" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>174</v>
@@ -16850,67 +16861,83 @@
     </row>
     <row r="45" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B45" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="7"/>
     </row>
     <row r="46" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B46" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="7"/>
     </row>
     <row r="47" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B47" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="8">
+    <row r="48" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B48" s="6">
+        <v>22</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="8">
         <v>23</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C49" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D49" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E49" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="10"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -16962,25 +16989,25 @@
       <c r="B2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>630</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
+      <c r="C2" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>637</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
+      <c r="C3" s="23" t="s">
+        <v>629</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -17007,13 +17034,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="7"/>
@@ -17023,10 +17050,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>163</v>
@@ -17039,10 +17066,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>164</v>
@@ -17055,10 +17082,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>165</v>
@@ -17071,13 +17098,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="7"/>
@@ -17087,13 +17114,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="7"/>
@@ -17103,13 +17130,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="7"/>
@@ -17119,17 +17146,17 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="7" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -17299,25 +17326,25 @@
       <c r="B26" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>626</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
+      <c r="C26" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
     </row>
     <row r="27" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>681</v>
-      </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
+      <c r="C27" s="23" t="s">
+        <v>673</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
     </row>
     <row r="28" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
@@ -17344,13 +17371,13 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="7"/>
@@ -17360,10 +17387,10 @@
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>162</v>
@@ -17376,13 +17403,13 @@
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="7"/>
@@ -17392,17 +17419,17 @@
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="7" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -17410,10 +17437,10 @@
         <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>163</v>
@@ -17426,10 +17453,10 @@
         <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>164</v>
@@ -17442,13 +17469,13 @@
         <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="7"/>
@@ -17458,17 +17485,17 @@
         <v>8</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -17476,17 +17503,17 @@
         <v>9</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>163</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="7" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -17494,17 +17521,17 @@
         <v>10</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>163</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="7" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -17512,13 +17539,13 @@
         <v>11</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="7"/>
@@ -17528,13 +17555,13 @@
         <v>12</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="7"/>
@@ -17544,13 +17571,13 @@
         <v>13</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="7"/>
@@ -17560,17 +17587,17 @@
         <v>14</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>172</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="16" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -17578,17 +17605,17 @@
         <v>15</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="7" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -17740,25 +17767,25 @@
       <c r="B56" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="22" t="s">
-        <v>628</v>
-      </c>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="24"/>
+      <c r="C56" s="26" t="s">
+        <v>620</v>
+      </c>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="28"/>
     </row>
     <row r="57" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B57" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="25" t="s">
-        <v>688</v>
-      </c>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="27"/>
+      <c r="C57" s="23" t="s">
+        <v>680</v>
+      </c>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="25"/>
     </row>
     <row r="58" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B58" s="4" t="s">
@@ -17785,10 +17812,10 @@
         <v>1</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>162</v>
@@ -17801,10 +17828,10 @@
         <v>2</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>162</v>
@@ -17817,17 +17844,17 @@
         <v>3</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>691</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="7" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -17835,13 +17862,13 @@
         <v>4</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>692</v>
-      </c>
       <c r="E62" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="7"/>
@@ -17849,10 +17876,10 @@
     <row r="63" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B63" s="6"/>
       <c r="C63" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>693</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>163</v>
@@ -17865,13 +17892,13 @@
         <v>5</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>694</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="7"/>
@@ -17881,10 +17908,10 @@
         <v>6</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>695</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>163</v>

--- a/doc/设计文档/数据库设计/数据库设计.xlsx
+++ b/doc/设计文档/数据库设计/数据库设计.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2964" uniqueCount="1017">
   <si>
     <t>序号</t>
   </si>
@@ -4076,6 +4076,10 @@
   </si>
   <si>
     <t>对应的工序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产时长应该根据生产数量*工艺路线中配置的各道工序标准生产用时*工作站效率（默认为1）计算而来。标准生产用时与模具、设备、人员、等等因素都有很大关系。目前可先让用户自己估算，手工填写。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6039,8 +6043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G276"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="C196" sqref="C196:G199"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="E175" sqref="E175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10122,8 +10126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B71" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="B97" workbookViewId="0">
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11783,7 +11787,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="112" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="B112" s="6">
         <v>25</v>
       </c>
@@ -11799,7 +11803,9 @@
       <c r="F112" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="G112" s="12"/>
+      <c r="G112" s="12" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="113" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B113" s="6">

--- a/doc/设计文档/数据库设计/数据库设计.xlsx
+++ b/doc/设计文档/数据库设计/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11760" windowHeight="6795" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11760" windowHeight="6795" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表清单" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3810" uniqueCount="1194">
   <si>
     <t>序号</t>
   </si>
@@ -4624,6 +4624,170 @@
   </si>
   <si>
     <t>这里的缺陷描述可以是选择的，也可以是手输的。可提示用户是否添加到常见缺陷中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECPT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECPT_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECPT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IQC_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IQC_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来料检验单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来料检验单编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以有来料检验单，也可以没有。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double(12,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECPT_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 'PREPARE',not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料入库单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECPT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认的入库仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认的库区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认的库位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放的仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放的库区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放的库位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATCH_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以根据配置的规则，由系统自动生成；也可以手工填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPIRE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WM_ITEM_RECPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WM_ITEM_RECPT_LINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERP中对应的采购订单编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4899,7 +5063,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4980,6 +5144,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4991,14 +5167,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5008,15 +5184,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6560,8 +6727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G276"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83:E86"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6577,25 +6744,25 @@
       <c r="B3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -6994,25 +7161,25 @@
       <c r="B31" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="31"/>
     </row>
     <row r="32" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="34"/>
     </row>
     <row r="33" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
@@ -7331,25 +7498,25 @@
       <c r="B54" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="33"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="31"/>
     </row>
     <row r="55" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B55" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="30"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="34"/>
     </row>
     <row r="56" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
@@ -7716,25 +7883,25 @@
       <c r="B80" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C80" s="31" t="s">
+      <c r="C80" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="D80" s="32"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="33"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="31"/>
     </row>
     <row r="81" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B81" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C81" s="28" t="s">
+      <c r="C81" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="30"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="34"/>
     </row>
     <row r="82" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B82" s="4" t="s">
@@ -8237,25 +8404,25 @@
       <c r="B115" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C115" s="31" t="s">
+      <c r="C115" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="D115" s="32"/>
-      <c r="E115" s="32"/>
-      <c r="F115" s="32"/>
-      <c r="G115" s="33"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="30"/>
+      <c r="G115" s="31"/>
     </row>
     <row r="116" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B116" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C116" s="28" t="s">
+      <c r="C116" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="D116" s="29"/>
-      <c r="E116" s="29"/>
-      <c r="F116" s="29"/>
-      <c r="G116" s="30"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="33"/>
+      <c r="F116" s="33"/>
+      <c r="G116" s="34"/>
     </row>
     <row r="117" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B117" s="4" t="s">
@@ -8740,25 +8907,25 @@
       <c r="B151" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C151" s="31" t="s">
+      <c r="C151" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="D151" s="32"/>
-      <c r="E151" s="32"/>
-      <c r="F151" s="32"/>
-      <c r="G151" s="33"/>
+      <c r="D151" s="30"/>
+      <c r="E151" s="30"/>
+      <c r="F151" s="30"/>
+      <c r="G151" s="31"/>
     </row>
     <row r="152" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B152" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C152" s="28" t="s">
+      <c r="C152" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="D152" s="29"/>
-      <c r="E152" s="29"/>
-      <c r="F152" s="29"/>
-      <c r="G152" s="30"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="33"/>
+      <c r="F152" s="33"/>
+      <c r="G152" s="34"/>
     </row>
     <row r="153" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B153" s="4" t="s">
@@ -9055,25 +9222,25 @@
       <c r="B173" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C173" s="31" t="s">
+      <c r="C173" s="29" t="s">
         <v>666</v>
       </c>
-      <c r="D173" s="32"/>
-      <c r="E173" s="32"/>
-      <c r="F173" s="32"/>
-      <c r="G173" s="33"/>
+      <c r="D173" s="30"/>
+      <c r="E173" s="30"/>
+      <c r="F173" s="30"/>
+      <c r="G173" s="31"/>
     </row>
     <row r="174" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B174" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C174" s="28" t="s">
+      <c r="C174" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="D174" s="29"/>
-      <c r="E174" s="29"/>
-      <c r="F174" s="29"/>
-      <c r="G174" s="30"/>
+      <c r="D174" s="33"/>
+      <c r="E174" s="33"/>
+      <c r="F174" s="33"/>
+      <c r="G174" s="34"/>
     </row>
     <row r="175" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B175" s="4" t="s">
@@ -9348,25 +9515,25 @@
       <c r="B193" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C193" s="31" t="s">
+      <c r="C193" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="D193" s="32"/>
-      <c r="E193" s="32"/>
-      <c r="F193" s="32"/>
-      <c r="G193" s="33"/>
+      <c r="D193" s="30"/>
+      <c r="E193" s="30"/>
+      <c r="F193" s="30"/>
+      <c r="G193" s="31"/>
     </row>
     <row r="194" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B194" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C194" s="28" t="s">
+      <c r="C194" s="32" t="s">
         <v>775</v>
       </c>
-      <c r="D194" s="29"/>
-      <c r="E194" s="29"/>
-      <c r="F194" s="29"/>
-      <c r="G194" s="30"/>
+      <c r="D194" s="33"/>
+      <c r="E194" s="33"/>
+      <c r="F194" s="33"/>
+      <c r="G194" s="34"/>
     </row>
     <row r="195" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B195" s="4" t="s">
@@ -9723,25 +9890,25 @@
       <c r="B218" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C218" s="31" t="s">
+      <c r="C218" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="D218" s="32"/>
-      <c r="E218" s="32"/>
-      <c r="F218" s="32"/>
-      <c r="G218" s="33"/>
+      <c r="D218" s="30"/>
+      <c r="E218" s="30"/>
+      <c r="F218" s="30"/>
+      <c r="G218" s="31"/>
     </row>
     <row r="219" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B219" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C219" s="28" t="s">
+      <c r="C219" s="32" t="s">
         <v>876</v>
       </c>
-      <c r="D219" s="29"/>
-      <c r="E219" s="29"/>
-      <c r="F219" s="29"/>
-      <c r="G219" s="30"/>
+      <c r="D219" s="33"/>
+      <c r="E219" s="33"/>
+      <c r="F219" s="33"/>
+      <c r="G219" s="34"/>
     </row>
     <row r="220" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B220" s="4" t="s">
@@ -10020,25 +10187,25 @@
       <c r="B239" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C239" s="31" t="s">
+      <c r="C239" s="29" t="s">
         <v>784</v>
       </c>
-      <c r="D239" s="32"/>
-      <c r="E239" s="32"/>
-      <c r="F239" s="32"/>
-      <c r="G239" s="33"/>
+      <c r="D239" s="30"/>
+      <c r="E239" s="30"/>
+      <c r="F239" s="30"/>
+      <c r="G239" s="31"/>
     </row>
     <row r="240" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B240" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C240" s="28" t="s">
+      <c r="C240" s="32" t="s">
         <v>877</v>
       </c>
-      <c r="D240" s="29"/>
-      <c r="E240" s="29"/>
-      <c r="F240" s="29"/>
-      <c r="G240" s="30"/>
+      <c r="D240" s="33"/>
+      <c r="E240" s="33"/>
+      <c r="F240" s="33"/>
+      <c r="G240" s="34"/>
     </row>
     <row r="241" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B241" s="4" t="s">
@@ -10317,25 +10484,25 @@
       <c r="B259" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C259" s="31" t="s">
+      <c r="C259" s="29" t="s">
         <v>878</v>
       </c>
-      <c r="D259" s="32"/>
-      <c r="E259" s="32"/>
-      <c r="F259" s="32"/>
-      <c r="G259" s="33"/>
+      <c r="D259" s="30"/>
+      <c r="E259" s="30"/>
+      <c r="F259" s="30"/>
+      <c r="G259" s="31"/>
     </row>
     <row r="260" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B260" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C260" s="28" t="s">
+      <c r="C260" s="32" t="s">
         <v>879</v>
       </c>
-      <c r="D260" s="29"/>
-      <c r="E260" s="29"/>
-      <c r="F260" s="29"/>
-      <c r="G260" s="30"/>
+      <c r="D260" s="33"/>
+      <c r="E260" s="33"/>
+      <c r="F260" s="33"/>
+      <c r="G260" s="34"/>
     </row>
     <row r="261" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B261" s="4" t="s">
@@ -10611,18 +10778,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C151:G151"/>
-    <mergeCell ref="C152:G152"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C54:G54"/>
     <mergeCell ref="C260:G260"/>
     <mergeCell ref="C173:G173"/>
     <mergeCell ref="C193:G193"/>
@@ -10633,6 +10788,18 @@
     <mergeCell ref="C219:G219"/>
     <mergeCell ref="C218:G218"/>
     <mergeCell ref="C174:G174"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C151:G151"/>
+    <mergeCell ref="C152:G152"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10661,25 +10828,25 @@
       <c r="B3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -10891,7 +11058,7 @@
         <v>152</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="38" t="s">
         <v>357</v>
       </c>
     </row>
@@ -10909,7 +11076,7 @@
         <v>267</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="35"/>
+      <c r="G17" s="39"/>
     </row>
     <row r="18" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="6">
@@ -10925,7 +11092,7 @@
         <v>153</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="36"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="6">
@@ -11148,25 +11315,25 @@
       <c r="B35" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="29" t="s">
         <v>755</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="33"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="31"/>
     </row>
     <row r="36" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B36" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="32" t="s">
         <v>770</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="34"/>
     </row>
     <row r="37" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B37" s="4" t="s">
@@ -11493,25 +11660,25 @@
       <c r="B59" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="29" t="s">
         <v>760</v>
       </c>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="33"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="31"/>
     </row>
     <row r="60" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B60" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C60" s="28" t="s">
+      <c r="C60" s="32" t="s">
         <v>762</v>
       </c>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="30"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="34"/>
     </row>
     <row r="61" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B61" s="4" t="s">
@@ -11838,25 +12005,25 @@
       <c r="B85" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C85" s="31" t="s">
+      <c r="C85" s="29" t="s">
         <v>990</v>
       </c>
-      <c r="D85" s="32"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="33"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="31"/>
     </row>
     <row r="86" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B86" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C86" s="28" t="s">
+      <c r="C86" s="32" t="s">
         <v>973</v>
       </c>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="30"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="34"/>
     </row>
     <row r="87" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B87" s="4" t="s">
@@ -12198,7 +12365,7 @@
       <c r="F105" s="2" t="s">
         <v>994</v>
       </c>
-      <c r="G105" s="37" t="s">
+      <c r="G105" s="35" t="s">
         <v>376</v>
       </c>
     </row>
@@ -12216,7 +12383,7 @@
         <v>351</v>
       </c>
       <c r="F106" s="2"/>
-      <c r="G106" s="38"/>
+      <c r="G106" s="36"/>
     </row>
     <row r="107" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B107" s="6">
@@ -12232,7 +12399,7 @@
         <v>351</v>
       </c>
       <c r="F107" s="2"/>
-      <c r="G107" s="39"/>
+      <c r="G107" s="37"/>
     </row>
     <row r="108" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B108" s="6">
@@ -12523,25 +12690,25 @@
       <c r="B127" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C127" s="31" t="s">
+      <c r="C127" s="29" t="s">
         <v>989</v>
       </c>
-      <c r="D127" s="32"/>
-      <c r="E127" s="32"/>
-      <c r="F127" s="32"/>
-      <c r="G127" s="33"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="30"/>
+      <c r="F127" s="30"/>
+      <c r="G127" s="31"/>
     </row>
     <row r="128" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B128" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C128" s="28" t="s">
+      <c r="C128" s="32" t="s">
         <v>393</v>
       </c>
-      <c r="D128" s="29"/>
-      <c r="E128" s="29"/>
-      <c r="F128" s="29"/>
-      <c r="G128" s="30"/>
+      <c r="D128" s="33"/>
+      <c r="E128" s="33"/>
+      <c r="F128" s="33"/>
+      <c r="G128" s="34"/>
     </row>
     <row r="129" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B129" s="4" t="s">
@@ -12814,25 +12981,25 @@
       <c r="B148" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C148" s="31" t="s">
+      <c r="C148" s="29" t="s">
         <v>404</v>
       </c>
-      <c r="D148" s="32"/>
-      <c r="E148" s="32"/>
-      <c r="F148" s="32"/>
-      <c r="G148" s="33"/>
+      <c r="D148" s="30"/>
+      <c r="E148" s="30"/>
+      <c r="F148" s="30"/>
+      <c r="G148" s="31"/>
     </row>
     <row r="149" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B149" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C149" s="28" t="s">
+      <c r="C149" s="32" t="s">
         <v>403</v>
       </c>
-      <c r="D149" s="29"/>
-      <c r="E149" s="29"/>
-      <c r="F149" s="29"/>
-      <c r="G149" s="30"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="33"/>
+      <c r="F149" s="33"/>
+      <c r="G149" s="34"/>
     </row>
     <row r="150" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B150" s="4" t="s">
@@ -12870,7 +13037,7 @@
       <c r="F151" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G151" s="34" t="s">
+      <c r="G151" s="38" t="s">
         <v>424</v>
       </c>
     </row>
@@ -12890,7 +13057,7 @@
       <c r="F152" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G152" s="35"/>
+      <c r="G152" s="39"/>
     </row>
     <row r="153" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B153" s="6">
@@ -12908,7 +13075,7 @@
       <c r="F153" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G153" s="35"/>
+      <c r="G153" s="39"/>
     </row>
     <row r="154" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B154" s="6">
@@ -12926,7 +13093,7 @@
       <c r="F154" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="G154" s="36"/>
+      <c r="G154" s="40"/>
     </row>
     <row r="155" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B155" s="6">
@@ -13093,25 +13260,25 @@
       <c r="B167" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C167" s="31" t="s">
+      <c r="C167" s="29" t="s">
         <v>865</v>
       </c>
-      <c r="D167" s="32"/>
-      <c r="E167" s="32"/>
-      <c r="F167" s="32"/>
-      <c r="G167" s="33"/>
+      <c r="D167" s="30"/>
+      <c r="E167" s="30"/>
+      <c r="F167" s="30"/>
+      <c r="G167" s="31"/>
     </row>
     <row r="168" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B168" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C168" s="28" t="s">
+      <c r="C168" s="32" t="s">
         <v>902</v>
       </c>
-      <c r="D168" s="29"/>
-      <c r="E168" s="29"/>
-      <c r="F168" s="29"/>
-      <c r="G168" s="30"/>
+      <c r="D168" s="33"/>
+      <c r="E168" s="33"/>
+      <c r="F168" s="33"/>
+      <c r="G168" s="34"/>
     </row>
     <row r="169" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B169" s="4" t="s">
@@ -13402,25 +13569,25 @@
       <c r="B189" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C189" s="31" t="s">
+      <c r="C189" s="29" t="s">
         <v>908</v>
       </c>
-      <c r="D189" s="32"/>
-      <c r="E189" s="32"/>
-      <c r="F189" s="32"/>
-      <c r="G189" s="33"/>
+      <c r="D189" s="30"/>
+      <c r="E189" s="30"/>
+      <c r="F189" s="30"/>
+      <c r="G189" s="31"/>
     </row>
     <row r="190" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B190" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C190" s="28" t="s">
+      <c r="C190" s="32" t="s">
         <v>907</v>
       </c>
-      <c r="D190" s="29"/>
-      <c r="E190" s="29"/>
-      <c r="F190" s="29"/>
-      <c r="G190" s="30"/>
+      <c r="D190" s="33"/>
+      <c r="E190" s="33"/>
+      <c r="F190" s="33"/>
+      <c r="G190" s="34"/>
     </row>
     <row r="191" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B191" s="4" t="s">
@@ -13679,25 +13846,25 @@
       <c r="B208" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C208" s="31" t="s">
+      <c r="C208" s="29" t="s">
         <v>918</v>
       </c>
-      <c r="D208" s="32"/>
-      <c r="E208" s="32"/>
-      <c r="F208" s="32"/>
-      <c r="G208" s="33"/>
+      <c r="D208" s="30"/>
+      <c r="E208" s="30"/>
+      <c r="F208" s="30"/>
+      <c r="G208" s="31"/>
     </row>
     <row r="209" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B209" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C209" s="28" t="s">
+      <c r="C209" s="32" t="s">
         <v>951</v>
       </c>
-      <c r="D209" s="29"/>
-      <c r="E209" s="29"/>
-      <c r="F209" s="29"/>
-      <c r="G209" s="30"/>
+      <c r="D209" s="33"/>
+      <c r="E209" s="33"/>
+      <c r="F209" s="33"/>
+      <c r="G209" s="34"/>
     </row>
     <row r="210" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B210" s="4" t="s">
@@ -14110,25 +14277,25 @@
       <c r="B236" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C236" s="31" t="s">
+      <c r="C236" s="29" t="s">
         <v>970</v>
       </c>
-      <c r="D236" s="32"/>
-      <c r="E236" s="32"/>
-      <c r="F236" s="32"/>
-      <c r="G236" s="33"/>
+      <c r="D236" s="30"/>
+      <c r="E236" s="30"/>
+      <c r="F236" s="30"/>
+      <c r="G236" s="31"/>
     </row>
     <row r="237" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B237" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C237" s="28" t="s">
+      <c r="C237" s="32" t="s">
         <v>998</v>
       </c>
-      <c r="D237" s="29"/>
-      <c r="E237" s="29"/>
-      <c r="F237" s="29"/>
-      <c r="G237" s="30"/>
+      <c r="D237" s="33"/>
+      <c r="E237" s="33"/>
+      <c r="F237" s="33"/>
+      <c r="G237" s="34"/>
     </row>
     <row r="238" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B238" s="4" t="s">
@@ -14479,25 +14646,25 @@
       <c r="B261" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C261" s="31" t="s">
+      <c r="C261" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D261" s="32"/>
-      <c r="E261" s="32"/>
-      <c r="F261" s="32"/>
-      <c r="G261" s="33"/>
+      <c r="D261" s="30"/>
+      <c r="E261" s="30"/>
+      <c r="F261" s="30"/>
+      <c r="G261" s="31"/>
     </row>
     <row r="262" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B262" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C262" s="28" t="s">
+      <c r="C262" s="32" t="s">
         <v>972</v>
       </c>
-      <c r="D262" s="29"/>
-      <c r="E262" s="29"/>
-      <c r="F262" s="29"/>
-      <c r="G262" s="30"/>
+      <c r="D262" s="33"/>
+      <c r="E262" s="33"/>
+      <c r="F262" s="33"/>
+      <c r="G262" s="34"/>
     </row>
     <row r="263" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B263" s="4" t="s">
@@ -14776,25 +14943,25 @@
       <c r="B282" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C282" s="31" t="s">
+      <c r="C282" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="D282" s="32"/>
-      <c r="E282" s="32"/>
-      <c r="F282" s="32"/>
-      <c r="G282" s="33"/>
+      <c r="D282" s="30"/>
+      <c r="E282" s="30"/>
+      <c r="F282" s="30"/>
+      <c r="G282" s="31"/>
     </row>
     <row r="283" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B283" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C283" s="28" t="s">
+      <c r="C283" s="32" t="s">
         <v>464</v>
       </c>
-      <c r="D283" s="29"/>
-      <c r="E283" s="29"/>
-      <c r="F283" s="29"/>
-      <c r="G283" s="30"/>
+      <c r="D283" s="33"/>
+      <c r="E283" s="33"/>
+      <c r="F283" s="33"/>
+      <c r="G283" s="34"/>
     </row>
     <row r="284" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B284" s="4" t="s">
@@ -15107,25 +15274,25 @@
       <c r="B305" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C305" s="31" t="s">
+      <c r="C305" s="29" t="s">
         <v>443</v>
       </c>
-      <c r="D305" s="32"/>
-      <c r="E305" s="32"/>
-      <c r="F305" s="32"/>
-      <c r="G305" s="33"/>
+      <c r="D305" s="30"/>
+      <c r="E305" s="30"/>
+      <c r="F305" s="30"/>
+      <c r="G305" s="31"/>
     </row>
     <row r="306" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B306" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C306" s="28" t="s">
+      <c r="C306" s="32" t="s">
         <v>444</v>
       </c>
-      <c r="D306" s="29"/>
-      <c r="E306" s="29"/>
-      <c r="F306" s="29"/>
-      <c r="G306" s="30"/>
+      <c r="D306" s="33"/>
+      <c r="E306" s="33"/>
+      <c r="F306" s="33"/>
+      <c r="G306" s="34"/>
     </row>
     <row r="307" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B307" s="4" t="s">
@@ -15418,25 +15585,25 @@
       <c r="B327" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C327" s="31" t="s">
+      <c r="C327" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="D327" s="32"/>
-      <c r="E327" s="32"/>
-      <c r="F327" s="32"/>
-      <c r="G327" s="33"/>
+      <c r="D327" s="30"/>
+      <c r="E327" s="30"/>
+      <c r="F327" s="30"/>
+      <c r="G327" s="31"/>
     </row>
     <row r="328" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B328" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C328" s="28" t="s">
+      <c r="C328" s="32" t="s">
         <v>493</v>
       </c>
-      <c r="D328" s="29"/>
-      <c r="E328" s="29"/>
-      <c r="F328" s="29"/>
-      <c r="G328" s="30"/>
+      <c r="D328" s="33"/>
+      <c r="E328" s="33"/>
+      <c r="F328" s="33"/>
+      <c r="G328" s="34"/>
     </row>
     <row r="329" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B329" s="4" t="s">
@@ -15722,24 +15889,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C327:G327"/>
-    <mergeCell ref="C328:G328"/>
-    <mergeCell ref="C261:G261"/>
-    <mergeCell ref="C262:G262"/>
-    <mergeCell ref="C305:G305"/>
-    <mergeCell ref="C306:G306"/>
-    <mergeCell ref="C282:G282"/>
-    <mergeCell ref="C283:G283"/>
-    <mergeCell ref="G105:G107"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
     <mergeCell ref="C237:G237"/>
     <mergeCell ref="C127:G127"/>
     <mergeCell ref="C128:G128"/>
@@ -15753,6 +15902,24 @@
     <mergeCell ref="C236:G236"/>
     <mergeCell ref="C208:G208"/>
     <mergeCell ref="C209:G209"/>
+    <mergeCell ref="G105:G107"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C327:G327"/>
+    <mergeCell ref="C328:G328"/>
+    <mergeCell ref="C261:G261"/>
+    <mergeCell ref="C262:G262"/>
+    <mergeCell ref="C305:G305"/>
+    <mergeCell ref="C306:G306"/>
+    <mergeCell ref="C282:G282"/>
+    <mergeCell ref="C283:G283"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15761,10 +15928,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G103"/>
+  <dimension ref="B1:G173"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109:G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15781,25 +15948,25 @@
       <c r="B2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="29" t="s">
         <v>676</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -16074,25 +16241,25 @@
       <c r="B23" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="29" t="s">
         <v>677</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31"/>
     </row>
     <row r="24" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
@@ -16373,25 +16540,25 @@
       <c r="B44" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="29" t="s">
         <v>678</v>
       </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="33"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="31"/>
     </row>
     <row r="45" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="30"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="34"/>
     </row>
     <row r="46" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
@@ -16734,25 +16901,25 @@
       <c r="B69" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="29" t="s">
         <v>679</v>
       </c>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="33"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="31"/>
     </row>
     <row r="70" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B70" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="32" t="s">
         <v>532</v>
       </c>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="30"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="34"/>
     </row>
     <row r="71" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B71" s="4" t="s">
@@ -17310,8 +17477,1075 @@
       <c r="F103" s="9"/>
       <c r="G103" s="10"/>
     </row>
+    <row r="107" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B108" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C108" s="29" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="31"/>
+    </row>
+    <row r="109" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B109" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C109" s="32" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D109" s="33"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="33"/>
+      <c r="G109" s="34"/>
+    </row>
+    <row r="110" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B110" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B111" s="6">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G111" s="7"/>
+    </row>
+    <row r="112" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B112" s="6">
+        <v>2</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G112" s="7"/>
+    </row>
+    <row r="113" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B113" s="6">
+        <v>3</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G113" s="7"/>
+    </row>
+    <row r="114" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B114" s="6">
+        <v>4</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F114" s="2"/>
+      <c r="G114" s="7" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B115" s="6">
+        <v>5</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" s="7"/>
+    </row>
+    <row r="116" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B116" s="6">
+        <v>6</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F116" s="2"/>
+      <c r="G116" s="26" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B117" s="6">
+        <v>7</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G117" s="41" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B118" s="6">
+        <v>8</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F118" s="2"/>
+      <c r="G118" s="42"/>
+    </row>
+    <row r="119" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B119" s="6">
+        <v>9</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" s="42"/>
+    </row>
+    <row r="120" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B120" s="6">
+        <v>10</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F120" s="2"/>
+      <c r="G120" s="43"/>
+    </row>
+    <row r="121" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B121" s="6">
+        <v>11</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F121" s="2"/>
+      <c r="G121" s="41" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B122" s="6">
+        <v>12</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F122" s="2"/>
+      <c r="G122" s="42"/>
+    </row>
+    <row r="123" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B123" s="6">
+        <v>13</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F123" s="2"/>
+      <c r="G123" s="43"/>
+    </row>
+    <row r="124" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B124" s="6">
+        <v>14</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F124" s="2"/>
+      <c r="G124" s="41" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B125" s="6">
+        <v>15</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F125" s="2"/>
+      <c r="G125" s="42"/>
+    </row>
+    <row r="126" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B126" s="6">
+        <v>16</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F126" s="2"/>
+      <c r="G126" s="43"/>
+    </row>
+    <row r="127" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B127" s="6">
+        <v>17</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F127" s="2"/>
+      <c r="G127" s="41" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B128" s="6">
+        <v>18</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F128" s="2"/>
+      <c r="G128" s="42"/>
+    </row>
+    <row r="129" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B129" s="6">
+        <v>19</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F129" s="2"/>
+      <c r="G129" s="43"/>
+    </row>
+    <row r="130" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B130" s="6">
+        <v>20</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F130" s="2"/>
+      <c r="G130" s="7"/>
+    </row>
+    <row r="131" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B131" s="6">
+        <v>21</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G131" s="7"/>
+    </row>
+    <row r="132" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B132" s="6">
+        <v>22</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F132" s="2"/>
+      <c r="G132" s="27"/>
+    </row>
+    <row r="133" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B133" s="6">
+        <v>23</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F133" s="2"/>
+      <c r="G133" s="7"/>
+    </row>
+    <row r="134" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B134" s="6">
+        <v>24</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F134" s="2"/>
+      <c r="G134" s="7"/>
+    </row>
+    <row r="135" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B135" s="6">
+        <v>25</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F135" s="2"/>
+      <c r="G135" s="7"/>
+    </row>
+    <row r="136" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B136" s="6">
+        <v>26</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F136" s="2"/>
+      <c r="G136" s="7"/>
+    </row>
+    <row r="137" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B137" s="6">
+        <v>27</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F137" s="2"/>
+      <c r="G137" s="7"/>
+    </row>
+    <row r="138" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B138" s="6">
+        <v>28</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F138" s="2"/>
+      <c r="G138" s="7"/>
+    </row>
+    <row r="139" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B139" s="6">
+        <v>29</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F139" s="2"/>
+      <c r="G139" s="7"/>
+    </row>
+    <row r="140" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="8">
+        <v>30</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F140" s="9"/>
+      <c r="G140" s="10"/>
+    </row>
+    <row r="142" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="143" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B143" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C143" s="29" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D143" s="30"/>
+      <c r="E143" s="30"/>
+      <c r="F143" s="30"/>
+      <c r="G143" s="31"/>
+    </row>
+    <row r="144" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B144" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C144" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D144" s="33"/>
+      <c r="E144" s="33"/>
+      <c r="F144" s="33"/>
+      <c r="G144" s="34"/>
+    </row>
+    <row r="145" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B145" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B146" s="6">
+        <v>1</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G146" s="7"/>
+    </row>
+    <row r="147" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B147" s="6">
+        <v>2</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G147" s="7"/>
+    </row>
+    <row r="148" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B148" s="6">
+        <v>3</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G148" s="7"/>
+    </row>
+    <row r="149" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B149" s="6">
+        <v>4</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F149" s="2"/>
+      <c r="G149" s="7"/>
+    </row>
+    <row r="150" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B150" s="6">
+        <v>5</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F150" s="2"/>
+      <c r="G150" s="7"/>
+    </row>
+    <row r="151" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B151" s="6">
+        <v>6</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F151" s="2"/>
+      <c r="G151" s="7"/>
+    </row>
+    <row r="152" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B152" s="6">
+        <v>7</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F152" s="2"/>
+      <c r="G152" s="7"/>
+    </row>
+    <row r="153" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B153" s="6">
+        <v>8</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G153" s="7"/>
+    </row>
+    <row r="154" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B154" s="6">
+        <v>9</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F154" s="2"/>
+      <c r="G154" s="26" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B155" s="6">
+        <v>10</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F155" s="2"/>
+      <c r="G155" s="41" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B156" s="6">
+        <v>11</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F156" s="2"/>
+      <c r="G156" s="42"/>
+    </row>
+    <row r="157" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B157" s="6">
+        <v>12</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F157" s="2"/>
+      <c r="G157" s="43"/>
+    </row>
+    <row r="158" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B158" s="6">
+        <v>13</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F158" s="2"/>
+      <c r="G158" s="41" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B159" s="6">
+        <v>14</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F159" s="2"/>
+      <c r="G159" s="42"/>
+    </row>
+    <row r="160" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B160" s="6">
+        <v>15</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F160" s="2"/>
+      <c r="G160" s="43"/>
+    </row>
+    <row r="161" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B161" s="6">
+        <v>16</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F161" s="2"/>
+      <c r="G161" s="41" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B162" s="6">
+        <v>17</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F162" s="2"/>
+      <c r="G162" s="42"/>
+    </row>
+    <row r="163" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B163" s="6">
+        <v>18</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F163" s="2"/>
+      <c r="G163" s="43"/>
+    </row>
+    <row r="164" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B164" s="6">
+        <v>19</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F164" s="2"/>
+      <c r="G164" s="28"/>
+    </row>
+    <row r="165" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B165" s="6">
+        <v>20</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F165" s="2"/>
+      <c r="G165" s="27"/>
+    </row>
+    <row r="166" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B166" s="6">
+        <v>21</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F166" s="2"/>
+      <c r="G166" s="7"/>
+    </row>
+    <row r="167" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B167" s="6">
+        <v>22</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F167" s="2"/>
+      <c r="G167" s="7"/>
+    </row>
+    <row r="168" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B168" s="6">
+        <v>23</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F168" s="2"/>
+      <c r="G168" s="7"/>
+    </row>
+    <row r="169" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B169" s="6">
+        <v>24</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F169" s="2"/>
+      <c r="G169" s="7"/>
+    </row>
+    <row r="170" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B170" s="6">
+        <v>25</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F170" s="2"/>
+      <c r="G170" s="7"/>
+    </row>
+    <row r="171" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B171" s="6">
+        <v>26</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F171" s="2"/>
+      <c r="G171" s="7"/>
+    </row>
+    <row r="172" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B172" s="6">
+        <v>27</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F172" s="2"/>
+      <c r="G172" s="7"/>
+    </row>
+    <row r="173" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B173" s="8">
+        <v>28</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E173" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F173" s="9"/>
+      <c r="G173" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="19">
+    <mergeCell ref="G155:G157"/>
+    <mergeCell ref="G158:G160"/>
+    <mergeCell ref="G161:G163"/>
+    <mergeCell ref="G117:G120"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="G121:G123"/>
+    <mergeCell ref="G124:G126"/>
+    <mergeCell ref="G127:G129"/>
     <mergeCell ref="C45:G45"/>
     <mergeCell ref="C69:G69"/>
     <mergeCell ref="C70:G70"/>
@@ -17349,25 +18583,25 @@
       <c r="B3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>719</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -17405,7 +18639,7 @@
       <c r="F6" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="41" t="s">
         <v>377</v>
       </c>
     </row>
@@ -17425,7 +18659,7 @@
       <c r="F7" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G7" s="41"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="6">
@@ -17443,7 +18677,7 @@
       <c r="F8" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G8" s="42"/>
+      <c r="G8" s="43"/>
     </row>
     <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="6">
@@ -17744,25 +18978,25 @@
       <c r="B30" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="29" t="s">
         <v>720</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="33"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="31"/>
     </row>
     <row r="31" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B31" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="34"/>
     </row>
     <row r="32" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
@@ -18056,8 +19290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="G203" sqref="G203"/>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18074,25 +19308,25 @@
       <c r="B4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="29" t="s">
         <v>1084</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="32" t="s">
         <v>1083</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -18357,25 +19591,25 @@
       <c r="B25" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="29" t="s">
         <v>1000</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
     </row>
     <row r="26" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="32" t="s">
         <v>1007</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
@@ -18634,25 +19868,25 @@
       <c r="B45" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="29" t="s">
         <v>1012</v>
       </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="33"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="31"/>
     </row>
     <row r="46" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="32" t="s">
         <v>1013</v>
       </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="30"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="34"/>
     </row>
     <row r="47" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
@@ -18915,25 +20149,25 @@
       <c r="B64" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="29" t="s">
         <v>1028</v>
       </c>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="33"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="31"/>
     </row>
     <row r="65" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B65" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C65" s="32" t="s">
         <v>1029</v>
       </c>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="30"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="34"/>
     </row>
     <row r="66" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B66" s="4" t="s">
@@ -19316,25 +20550,25 @@
       <c r="B91" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C91" s="31" t="s">
+      <c r="C91" s="29" t="s">
         <v>1045</v>
       </c>
-      <c r="D91" s="32"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="32"/>
-      <c r="G91" s="33"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="31"/>
     </row>
     <row r="92" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B92" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C92" s="28" t="s">
+      <c r="C92" s="32" t="s">
         <v>1046</v>
       </c>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="30"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="34"/>
     </row>
     <row r="93" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B93" s="4" t="s">
@@ -19725,25 +20959,25 @@
       <c r="B117" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C117" s="31" t="s">
+      <c r="C117" s="29" t="s">
         <v>1077</v>
       </c>
-      <c r="D117" s="32"/>
-      <c r="E117" s="32"/>
-      <c r="F117" s="32"/>
-      <c r="G117" s="33"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="30"/>
+      <c r="G117" s="31"/>
     </row>
     <row r="118" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B118" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C118" s="28" t="s">
+      <c r="C118" s="32" t="s">
         <v>1088</v>
       </c>
-      <c r="D118" s="29"/>
-      <c r="E118" s="29"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="30"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="33"/>
+      <c r="G118" s="34"/>
     </row>
     <row r="119" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B119" s="4" t="s">
@@ -19939,7 +21173,7 @@
       <c r="F129" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G129" s="40" t="s">
+      <c r="G129" s="41" t="s">
         <v>1082</v>
       </c>
     </row>
@@ -19959,7 +21193,7 @@
       <c r="F130" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G130" s="41"/>
+      <c r="G130" s="42"/>
     </row>
     <row r="131" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B131" s="6">
@@ -19977,7 +21211,7 @@
       <c r="F131" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G131" s="41"/>
+      <c r="G131" s="42"/>
     </row>
     <row r="132" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B132" s="6">
@@ -19993,7 +21227,7 @@
         <v>147</v>
       </c>
       <c r="F132" s="2"/>
-      <c r="G132" s="41"/>
+      <c r="G132" s="42"/>
     </row>
     <row r="133" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B133" s="6">
@@ -20011,10 +21245,12 @@
       <c r="F133" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G133" s="42"/>
+      <c r="G133" s="43"/>
     </row>
     <row r="134" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B134" s="6"/>
+      <c r="B134" s="6">
+        <v>15</v>
+      </c>
       <c r="C134" s="2" t="s">
         <v>1138</v>
       </c>
@@ -20027,10 +21263,12 @@
       <c r="F134" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="G134" s="27"/>
+      <c r="G134" s="28"/>
     </row>
     <row r="135" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B135" s="6"/>
+      <c r="B135" s="6">
+        <v>16</v>
+      </c>
       <c r="C135" s="2" t="s">
         <v>1139</v>
       </c>
@@ -20043,11 +21281,11 @@
       <c r="F135" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="G135" s="27"/>
+      <c r="G135" s="28"/>
     </row>
     <row r="136" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B136" s="6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>1127</v>
@@ -20056,14 +21294,14 @@
         <v>1128</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>324</v>
+        <v>1162</v>
       </c>
       <c r="F136" s="2"/>
-      <c r="G136" s="27"/>
+      <c r="G136" s="28"/>
     </row>
     <row r="137" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B137" s="6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>1047</v>
@@ -20083,7 +21321,7 @@
     </row>
     <row r="138" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B138" s="6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>1050</v>
@@ -20101,7 +21339,7 @@
     </row>
     <row r="139" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B139" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>1054</v>
@@ -20119,7 +21357,7 @@
     </row>
     <row r="140" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B140" s="6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>1055</v>
@@ -20137,7 +21375,7 @@
     </row>
     <row r="141" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B141" s="6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>1056</v>
@@ -20155,7 +21393,7 @@
     </row>
     <row r="142" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B142" s="6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>1106</v>
@@ -20173,7 +21411,7 @@
     </row>
     <row r="143" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B143" s="6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>1107</v>
@@ -20191,7 +21429,7 @@
     </row>
     <row r="144" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B144" s="6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>1108</v>
@@ -20209,7 +21447,7 @@
     </row>
     <row r="145" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B145" s="6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>1115</v>
@@ -20227,7 +21465,7 @@
     </row>
     <row r="146" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B146" s="6">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>1122</v>
@@ -20243,7 +21481,7 @@
     </row>
     <row r="147" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B147" s="6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>1141</v>
@@ -20259,7 +21497,7 @@
     </row>
     <row r="148" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B148" s="6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>1125</v>
@@ -20275,7 +21513,7 @@
     </row>
     <row r="149" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B149" s="6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>1118</v>
@@ -20293,7 +21531,7 @@
     </row>
     <row r="150" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B150" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>131</v>
@@ -20309,7 +21547,7 @@
     </row>
     <row r="151" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B151" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>133</v>
@@ -20325,7 +21563,7 @@
     </row>
     <row r="152" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B152" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>134</v>
@@ -20341,7 +21579,7 @@
     </row>
     <row r="153" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B153" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>135</v>
@@ -20357,7 +21595,7 @@
     </row>
     <row r="154" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B154" s="6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>136</v>
@@ -20373,7 +21611,7 @@
     </row>
     <row r="155" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B155" s="6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>127</v>
@@ -20389,7 +21627,7 @@
     </row>
     <row r="156" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B156" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>128</v>
@@ -20405,7 +21643,7 @@
     </row>
     <row r="157" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B157" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>129</v>
@@ -20421,7 +21659,7 @@
     </row>
     <row r="158" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B158" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C158" s="9" t="s">
         <v>130</v>
@@ -20440,25 +21678,25 @@
       <c r="B162" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C162" s="31" t="s">
+      <c r="C162" s="29" t="s">
         <v>1129</v>
       </c>
-      <c r="D162" s="32"/>
-      <c r="E162" s="32"/>
-      <c r="F162" s="32"/>
-      <c r="G162" s="33"/>
+      <c r="D162" s="30"/>
+      <c r="E162" s="30"/>
+      <c r="F162" s="30"/>
+      <c r="G162" s="31"/>
     </row>
     <row r="163" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B163" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C163" s="28" t="s">
+      <c r="C163" s="32" t="s">
         <v>1130</v>
       </c>
-      <c r="D163" s="29"/>
-      <c r="E163" s="29"/>
-      <c r="F163" s="29"/>
-      <c r="G163" s="30"/>
+      <c r="D163" s="33"/>
+      <c r="E163" s="33"/>
+      <c r="F163" s="33"/>
+      <c r="G163" s="34"/>
     </row>
     <row r="164" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B164" s="4" t="s">
@@ -20879,25 +22117,25 @@
       <c r="B191" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C191" s="31" t="s">
+      <c r="C191" s="29" t="s">
         <v>1142</v>
       </c>
-      <c r="D191" s="32"/>
-      <c r="E191" s="32"/>
-      <c r="F191" s="32"/>
-      <c r="G191" s="33"/>
+      <c r="D191" s="30"/>
+      <c r="E191" s="30"/>
+      <c r="F191" s="30"/>
+      <c r="G191" s="31"/>
     </row>
     <row r="192" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B192" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C192" s="28" t="s">
+      <c r="C192" s="32" t="s">
         <v>1143</v>
       </c>
-      <c r="D192" s="29"/>
-      <c r="E192" s="29"/>
-      <c r="F192" s="29"/>
-      <c r="G192" s="30"/>
+      <c r="D192" s="33"/>
+      <c r="E192" s="33"/>
+      <c r="F192" s="33"/>
+      <c r="G192" s="34"/>
     </row>
     <row r="193" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B193" s="4" t="s">
@@ -21177,13 +22415,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C162:G162"/>
-    <mergeCell ref="C163:G163"/>
-    <mergeCell ref="C191:G191"/>
-    <mergeCell ref="C192:G192"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="G129:G133"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C65:G65"/>
@@ -21194,6 +22425,13 @@
     <mergeCell ref="C45:G45"/>
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="C64:G64"/>
+    <mergeCell ref="C162:G162"/>
+    <mergeCell ref="C163:G163"/>
+    <mergeCell ref="C191:G191"/>
+    <mergeCell ref="C192:G192"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="G129:G133"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21222,25 +22460,25 @@
       <c r="B2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="29" t="s">
         <v>803</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="32" t="s">
         <v>826</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -21521,25 +22759,25 @@
       <c r="B23" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="29" t="s">
         <v>825</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31"/>
     </row>
     <row r="24" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="32" t="s">
         <v>827</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
@@ -22008,25 +23246,25 @@
       <c r="B2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="29" t="s">
         <v>579</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="32" t="s">
         <v>586</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -22345,25 +23583,25 @@
       <c r="B26" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31"/>
     </row>
     <row r="27" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="32" t="s">
         <v>630</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="34"/>
     </row>
     <row r="28" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
@@ -22786,25 +24024,25 @@
       <c r="B56" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="29" t="s">
         <v>577</v>
       </c>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="33"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="31"/>
     </row>
     <row r="57" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B57" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="C57" s="32" t="s">
         <v>637</v>
       </c>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="30"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="34"/>
     </row>
     <row r="58" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B58" s="4" t="s">

--- a/doc/设计文档/数据库设计/数据库设计.xlsx
+++ b/doc/设计文档/数据库设计/数据库设计.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4172" uniqueCount="1280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="1307">
   <si>
     <t>序号</t>
   </si>
@@ -5134,6 +5134,114 @@
   </si>
   <si>
     <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班组类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排班类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据数据字典MES_CAL_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALENDAR_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALENDAR_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAL_TEAMSHIFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班组排班表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIFT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIFT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THE_DAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班次ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班次名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAN_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排班计划ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIFT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在当天的展示序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据哪个计划生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 'PREPARE'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5409,7 +5517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5501,11 +5609,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7194,25 +7305,25 @@
       <c r="B2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>577</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>584</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -7531,25 +7642,25 @@
       <c r="B26" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="37" t="s">
         <v>573</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
     </row>
     <row r="27" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="34" t="s">
         <v>628</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
     </row>
     <row r="28" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
@@ -7972,25 +8083,25 @@
       <c r="B56" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="37" t="s">
         <v>575</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="39"/>
     </row>
     <row r="57" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B57" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="33" t="s">
+      <c r="C57" s="34" t="s">
         <v>635</v>
       </c>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="36"/>
     </row>
     <row r="58" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B58" s="4" t="s">
@@ -8304,25 +8415,25 @@
       <c r="B3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -8721,25 +8832,25 @@
       <c r="B31" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="39"/>
     </row>
     <row r="32" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
     </row>
     <row r="33" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
@@ -9058,25 +9169,25 @@
       <c r="B54" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="39"/>
     </row>
     <row r="55" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B55" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="36"/>
     </row>
     <row r="56" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
@@ -9443,25 +9554,25 @@
       <c r="B80" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="39"/>
     </row>
     <row r="81" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B81" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C81" s="33" t="s">
+      <c r="C81" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="36"/>
     </row>
     <row r="82" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B82" s="4" t="s">
@@ -9964,25 +10075,25 @@
       <c r="B115" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C115" s="36" t="s">
+      <c r="C115" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="D115" s="37"/>
-      <c r="E115" s="37"/>
-      <c r="F115" s="37"/>
-      <c r="G115" s="38"/>
+      <c r="D115" s="38"/>
+      <c r="E115" s="38"/>
+      <c r="F115" s="38"/>
+      <c r="G115" s="39"/>
     </row>
     <row r="116" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B116" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C116" s="33" t="s">
+      <c r="C116" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="D116" s="34"/>
-      <c r="E116" s="34"/>
-      <c r="F116" s="34"/>
-      <c r="G116" s="35"/>
+      <c r="D116" s="35"/>
+      <c r="E116" s="35"/>
+      <c r="F116" s="35"/>
+      <c r="G116" s="36"/>
     </row>
     <row r="117" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B117" s="4" t="s">
@@ -10467,25 +10578,25 @@
       <c r="B151" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C151" s="36" t="s">
+      <c r="C151" s="37" t="s">
         <v>653</v>
       </c>
-      <c r="D151" s="37"/>
-      <c r="E151" s="37"/>
-      <c r="F151" s="37"/>
-      <c r="G151" s="38"/>
+      <c r="D151" s="38"/>
+      <c r="E151" s="38"/>
+      <c r="F151" s="38"/>
+      <c r="G151" s="39"/>
     </row>
     <row r="152" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B152" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C152" s="33" t="s">
+      <c r="C152" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="D152" s="34"/>
-      <c r="E152" s="34"/>
-      <c r="F152" s="34"/>
-      <c r="G152" s="35"/>
+      <c r="D152" s="35"/>
+      <c r="E152" s="35"/>
+      <c r="F152" s="35"/>
+      <c r="G152" s="36"/>
     </row>
     <row r="153" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B153" s="4" t="s">
@@ -10782,25 +10893,25 @@
       <c r="B173" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C173" s="36" t="s">
+      <c r="C173" s="37" t="s">
         <v>664</v>
       </c>
-      <c r="D173" s="37"/>
-      <c r="E173" s="37"/>
-      <c r="F173" s="37"/>
-      <c r="G173" s="38"/>
+      <c r="D173" s="38"/>
+      <c r="E173" s="38"/>
+      <c r="F173" s="38"/>
+      <c r="G173" s="39"/>
     </row>
     <row r="174" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B174" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C174" s="33" t="s">
+      <c r="C174" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="D174" s="34"/>
-      <c r="E174" s="34"/>
-      <c r="F174" s="34"/>
-      <c r="G174" s="35"/>
+      <c r="D174" s="35"/>
+      <c r="E174" s="35"/>
+      <c r="F174" s="35"/>
+      <c r="G174" s="36"/>
     </row>
     <row r="175" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B175" s="4" t="s">
@@ -11075,25 +11186,25 @@
       <c r="B193" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C193" s="36" t="s">
+      <c r="C193" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="D193" s="37"/>
-      <c r="E193" s="37"/>
-      <c r="F193" s="37"/>
-      <c r="G193" s="38"/>
+      <c r="D193" s="38"/>
+      <c r="E193" s="38"/>
+      <c r="F193" s="38"/>
+      <c r="G193" s="39"/>
     </row>
     <row r="194" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B194" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C194" s="33" t="s">
+      <c r="C194" s="34" t="s">
         <v>773</v>
       </c>
-      <c r="D194" s="34"/>
-      <c r="E194" s="34"/>
-      <c r="F194" s="34"/>
-      <c r="G194" s="35"/>
+      <c r="D194" s="35"/>
+      <c r="E194" s="35"/>
+      <c r="F194" s="35"/>
+      <c r="G194" s="36"/>
     </row>
     <row r="195" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B195" s="4" t="s">
@@ -11450,25 +11561,25 @@
       <c r="B218" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C218" s="36" t="s">
+      <c r="C218" s="37" t="s">
         <v>389</v>
       </c>
-      <c r="D218" s="37"/>
-      <c r="E218" s="37"/>
-      <c r="F218" s="37"/>
-      <c r="G218" s="38"/>
+      <c r="D218" s="38"/>
+      <c r="E218" s="38"/>
+      <c r="F218" s="38"/>
+      <c r="G218" s="39"/>
     </row>
     <row r="219" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B219" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C219" s="33" t="s">
+      <c r="C219" s="34" t="s">
         <v>873</v>
       </c>
-      <c r="D219" s="34"/>
-      <c r="E219" s="34"/>
-      <c r="F219" s="34"/>
-      <c r="G219" s="35"/>
+      <c r="D219" s="35"/>
+      <c r="E219" s="35"/>
+      <c r="F219" s="35"/>
+      <c r="G219" s="36"/>
     </row>
     <row r="220" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B220" s="4" t="s">
@@ -11747,25 +11858,25 @@
       <c r="B239" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C239" s="36" t="s">
+      <c r="C239" s="37" t="s">
         <v>1191</v>
       </c>
-      <c r="D239" s="37"/>
-      <c r="E239" s="37"/>
-      <c r="F239" s="37"/>
-      <c r="G239" s="38"/>
+      <c r="D239" s="38"/>
+      <c r="E239" s="38"/>
+      <c r="F239" s="38"/>
+      <c r="G239" s="39"/>
     </row>
     <row r="240" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B240" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C240" s="33" t="s">
+      <c r="C240" s="34" t="s">
         <v>874</v>
       </c>
-      <c r="D240" s="34"/>
-      <c r="E240" s="34"/>
-      <c r="F240" s="34"/>
-      <c r="G240" s="35"/>
+      <c r="D240" s="35"/>
+      <c r="E240" s="35"/>
+      <c r="F240" s="35"/>
+      <c r="G240" s="36"/>
     </row>
     <row r="241" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B241" s="4" t="s">
@@ -12044,25 +12155,25 @@
       <c r="B259" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C259" s="36" t="s">
+      <c r="C259" s="37" t="s">
         <v>1195</v>
       </c>
-      <c r="D259" s="37"/>
-      <c r="E259" s="37"/>
-      <c r="F259" s="37"/>
-      <c r="G259" s="38"/>
+      <c r="D259" s="38"/>
+      <c r="E259" s="38"/>
+      <c r="F259" s="38"/>
+      <c r="G259" s="39"/>
     </row>
     <row r="260" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B260" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C260" s="33" t="s">
+      <c r="C260" s="34" t="s">
         <v>875</v>
       </c>
-      <c r="D260" s="34"/>
-      <c r="E260" s="34"/>
-      <c r="F260" s="34"/>
-      <c r="G260" s="35"/>
+      <c r="D260" s="35"/>
+      <c r="E260" s="35"/>
+      <c r="F260" s="35"/>
+      <c r="G260" s="36"/>
     </row>
     <row r="261" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B261" s="4" t="s">
@@ -12388,25 +12499,25 @@
       <c r="B3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="37" t="s">
         <v>379</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -12618,7 +12729,7 @@
         <v>152</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="40" t="s">
         <v>357</v>
       </c>
     </row>
@@ -12636,7 +12747,7 @@
         <v>267</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="40"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="6">
@@ -12652,7 +12763,7 @@
         <v>153</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="41"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="19" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="6">
@@ -12875,25 +12986,25 @@
       <c r="B35" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="37" t="s">
         <v>753</v>
       </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="39"/>
     </row>
     <row r="36" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B36" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="34" t="s">
         <v>768</v>
       </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="36"/>
     </row>
     <row r="37" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B37" s="4" t="s">
@@ -13220,25 +13331,25 @@
       <c r="B59" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C59" s="37" t="s">
         <v>758</v>
       </c>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="39"/>
     </row>
     <row r="60" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B60" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C60" s="33" t="s">
+      <c r="C60" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="36"/>
     </row>
     <row r="61" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B61" s="4" t="s">
@@ -13565,25 +13676,25 @@
       <c r="B85" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="37" t="s">
         <v>986</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="38"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="39"/>
     </row>
     <row r="86" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B86" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C86" s="33" t="s">
+      <c r="C86" s="34" t="s">
         <v>969</v>
       </c>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="36"/>
     </row>
     <row r="87" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B87" s="4" t="s">
@@ -13925,7 +14036,7 @@
       <c r="F105" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="G105" s="42" t="s">
+      <c r="G105" s="43" t="s">
         <v>376</v>
       </c>
     </row>
@@ -13943,7 +14054,7 @@
         <v>351</v>
       </c>
       <c r="F106" s="2"/>
-      <c r="G106" s="43"/>
+      <c r="G106" s="44"/>
     </row>
     <row r="107" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B107" s="6">
@@ -13959,7 +14070,7 @@
         <v>351</v>
       </c>
       <c r="F107" s="2"/>
-      <c r="G107" s="44"/>
+      <c r="G107" s="45"/>
     </row>
     <row r="108" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B108" s="6">
@@ -14250,25 +14361,25 @@
       <c r="B127" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C127" s="36" t="s">
+      <c r="C127" s="37" t="s">
         <v>985</v>
       </c>
-      <c r="D127" s="37"/>
-      <c r="E127" s="37"/>
-      <c r="F127" s="37"/>
-      <c r="G127" s="38"/>
+      <c r="D127" s="38"/>
+      <c r="E127" s="38"/>
+      <c r="F127" s="38"/>
+      <c r="G127" s="39"/>
     </row>
     <row r="128" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B128" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C128" s="33" t="s">
+      <c r="C128" s="34" t="s">
         <v>391</v>
       </c>
-      <c r="D128" s="34"/>
-      <c r="E128" s="34"/>
-      <c r="F128" s="34"/>
-      <c r="G128" s="35"/>
+      <c r="D128" s="35"/>
+      <c r="E128" s="35"/>
+      <c r="F128" s="35"/>
+      <c r="G128" s="36"/>
     </row>
     <row r="129" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B129" s="4" t="s">
@@ -14541,25 +14652,25 @@
       <c r="B148" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C148" s="36" t="s">
+      <c r="C148" s="37" t="s">
         <v>402</v>
       </c>
-      <c r="D148" s="37"/>
-      <c r="E148" s="37"/>
-      <c r="F148" s="37"/>
-      <c r="G148" s="38"/>
+      <c r="D148" s="38"/>
+      <c r="E148" s="38"/>
+      <c r="F148" s="38"/>
+      <c r="G148" s="39"/>
     </row>
     <row r="149" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B149" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C149" s="33" t="s">
+      <c r="C149" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="D149" s="34"/>
-      <c r="E149" s="34"/>
-      <c r="F149" s="34"/>
-      <c r="G149" s="35"/>
+      <c r="D149" s="35"/>
+      <c r="E149" s="35"/>
+      <c r="F149" s="35"/>
+      <c r="G149" s="36"/>
     </row>
     <row r="150" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B150" s="4" t="s">
@@ -14597,7 +14708,7 @@
       <c r="F151" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G151" s="39" t="s">
+      <c r="G151" s="40" t="s">
         <v>422</v>
       </c>
     </row>
@@ -14617,7 +14728,7 @@
       <c r="F152" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G152" s="40"/>
+      <c r="G152" s="41"/>
     </row>
     <row r="153" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B153" s="6">
@@ -14635,7 +14746,7 @@
       <c r="F153" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G153" s="40"/>
+      <c r="G153" s="41"/>
     </row>
     <row r="154" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B154" s="6">
@@ -14653,7 +14764,7 @@
       <c r="F154" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="G154" s="41"/>
+      <c r="G154" s="42"/>
     </row>
     <row r="155" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B155" s="6">
@@ -14820,25 +14931,25 @@
       <c r="B167" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C167" s="36" t="s">
+      <c r="C167" s="37" t="s">
         <v>862</v>
       </c>
-      <c r="D167" s="37"/>
-      <c r="E167" s="37"/>
-      <c r="F167" s="37"/>
-      <c r="G167" s="38"/>
+      <c r="D167" s="38"/>
+      <c r="E167" s="38"/>
+      <c r="F167" s="38"/>
+      <c r="G167" s="39"/>
     </row>
     <row r="168" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B168" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C168" s="33" t="s">
+      <c r="C168" s="34" t="s">
         <v>898</v>
       </c>
-      <c r="D168" s="34"/>
-      <c r="E168" s="34"/>
-      <c r="F168" s="34"/>
-      <c r="G168" s="35"/>
+      <c r="D168" s="35"/>
+      <c r="E168" s="35"/>
+      <c r="F168" s="35"/>
+      <c r="G168" s="36"/>
     </row>
     <row r="169" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B169" s="4" t="s">
@@ -15129,25 +15240,25 @@
       <c r="B189" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C189" s="36" t="s">
+      <c r="C189" s="37" t="s">
         <v>904</v>
       </c>
-      <c r="D189" s="37"/>
-      <c r="E189" s="37"/>
-      <c r="F189" s="37"/>
-      <c r="G189" s="38"/>
+      <c r="D189" s="38"/>
+      <c r="E189" s="38"/>
+      <c r="F189" s="38"/>
+      <c r="G189" s="39"/>
     </row>
     <row r="190" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B190" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C190" s="33" t="s">
+      <c r="C190" s="34" t="s">
         <v>903</v>
       </c>
-      <c r="D190" s="34"/>
-      <c r="E190" s="34"/>
-      <c r="F190" s="34"/>
-      <c r="G190" s="35"/>
+      <c r="D190" s="35"/>
+      <c r="E190" s="35"/>
+      <c r="F190" s="35"/>
+      <c r="G190" s="36"/>
     </row>
     <row r="191" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B191" s="4" t="s">
@@ -15406,25 +15517,25 @@
       <c r="B208" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C208" s="36" t="s">
+      <c r="C208" s="37" t="s">
         <v>914</v>
       </c>
-      <c r="D208" s="37"/>
-      <c r="E208" s="37"/>
-      <c r="F208" s="37"/>
-      <c r="G208" s="38"/>
+      <c r="D208" s="38"/>
+      <c r="E208" s="38"/>
+      <c r="F208" s="38"/>
+      <c r="G208" s="39"/>
     </row>
     <row r="209" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B209" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C209" s="33" t="s">
+      <c r="C209" s="34" t="s">
         <v>947</v>
       </c>
-      <c r="D209" s="34"/>
-      <c r="E209" s="34"/>
-      <c r="F209" s="34"/>
-      <c r="G209" s="35"/>
+      <c r="D209" s="35"/>
+      <c r="E209" s="35"/>
+      <c r="F209" s="35"/>
+      <c r="G209" s="36"/>
     </row>
     <row r="210" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B210" s="4" t="s">
@@ -15837,25 +15948,25 @@
       <c r="B236" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C236" s="36" t="s">
+      <c r="C236" s="37" t="s">
         <v>966</v>
       </c>
-      <c r="D236" s="37"/>
-      <c r="E236" s="37"/>
-      <c r="F236" s="37"/>
-      <c r="G236" s="38"/>
+      <c r="D236" s="38"/>
+      <c r="E236" s="38"/>
+      <c r="F236" s="38"/>
+      <c r="G236" s="39"/>
     </row>
     <row r="237" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B237" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C237" s="33" t="s">
+      <c r="C237" s="34" t="s">
         <v>994</v>
       </c>
-      <c r="D237" s="34"/>
-      <c r="E237" s="34"/>
-      <c r="F237" s="34"/>
-      <c r="G237" s="35"/>
+      <c r="D237" s="35"/>
+      <c r="E237" s="35"/>
+      <c r="F237" s="35"/>
+      <c r="G237" s="36"/>
     </row>
     <row r="238" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B238" s="4" t="s">
@@ -16206,25 +16317,25 @@
       <c r="B261" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C261" s="36" t="s">
+      <c r="C261" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D261" s="37"/>
-      <c r="E261" s="37"/>
-      <c r="F261" s="37"/>
-      <c r="G261" s="38"/>
+      <c r="D261" s="38"/>
+      <c r="E261" s="38"/>
+      <c r="F261" s="38"/>
+      <c r="G261" s="39"/>
     </row>
     <row r="262" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B262" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C262" s="33" t="s">
+      <c r="C262" s="34" t="s">
         <v>968</v>
       </c>
-      <c r="D262" s="34"/>
-      <c r="E262" s="34"/>
-      <c r="F262" s="34"/>
-      <c r="G262" s="35"/>
+      <c r="D262" s="35"/>
+      <c r="E262" s="35"/>
+      <c r="F262" s="35"/>
+      <c r="G262" s="36"/>
     </row>
     <row r="263" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B263" s="4" t="s">
@@ -16503,25 +16614,25 @@
       <c r="B282" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C282" s="36" t="s">
+      <c r="C282" s="37" t="s">
         <v>460</v>
       </c>
-      <c r="D282" s="37"/>
-      <c r="E282" s="37"/>
-      <c r="F282" s="37"/>
-      <c r="G282" s="38"/>
+      <c r="D282" s="38"/>
+      <c r="E282" s="38"/>
+      <c r="F282" s="38"/>
+      <c r="G282" s="39"/>
     </row>
     <row r="283" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B283" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C283" s="33" t="s">
+      <c r="C283" s="34" t="s">
         <v>462</v>
       </c>
-      <c r="D283" s="34"/>
-      <c r="E283" s="34"/>
-      <c r="F283" s="34"/>
-      <c r="G283" s="35"/>
+      <c r="D283" s="35"/>
+      <c r="E283" s="35"/>
+      <c r="F283" s="35"/>
+      <c r="G283" s="36"/>
     </row>
     <row r="284" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B284" s="4" t="s">
@@ -16834,25 +16945,25 @@
       <c r="B305" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C305" s="36" t="s">
+      <c r="C305" s="37" t="s">
         <v>441</v>
       </c>
-      <c r="D305" s="37"/>
-      <c r="E305" s="37"/>
-      <c r="F305" s="37"/>
-      <c r="G305" s="38"/>
+      <c r="D305" s="38"/>
+      <c r="E305" s="38"/>
+      <c r="F305" s="38"/>
+      <c r="G305" s="39"/>
     </row>
     <row r="306" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B306" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C306" s="33" t="s">
+      <c r="C306" s="34" t="s">
         <v>442</v>
       </c>
-      <c r="D306" s="34"/>
-      <c r="E306" s="34"/>
-      <c r="F306" s="34"/>
-      <c r="G306" s="35"/>
+      <c r="D306" s="35"/>
+      <c r="E306" s="35"/>
+      <c r="F306" s="35"/>
+      <c r="G306" s="36"/>
     </row>
     <row r="307" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B307" s="4" t="s">
@@ -17145,25 +17256,25 @@
       <c r="B327" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C327" s="36" t="s">
+      <c r="C327" s="37" t="s">
         <v>489</v>
       </c>
-      <c r="D327" s="37"/>
-      <c r="E327" s="37"/>
-      <c r="F327" s="37"/>
-      <c r="G327" s="38"/>
+      <c r="D327" s="38"/>
+      <c r="E327" s="38"/>
+      <c r="F327" s="38"/>
+      <c r="G327" s="39"/>
     </row>
     <row r="328" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B328" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C328" s="33" t="s">
+      <c r="C328" s="34" t="s">
         <v>491</v>
       </c>
-      <c r="D328" s="34"/>
-      <c r="E328" s="34"/>
-      <c r="F328" s="34"/>
-      <c r="G328" s="35"/>
+      <c r="D328" s="35"/>
+      <c r="E328" s="35"/>
+      <c r="F328" s="35"/>
+      <c r="G328" s="36"/>
     </row>
     <row r="329" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B329" s="4" t="s">
@@ -17488,10 +17599,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G115"/>
+  <dimension ref="B1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17508,25 +17619,25 @@
       <c r="B2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>1207</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>1206</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -17604,77 +17715,79 @@
     </row>
     <row r="8" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="6">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>131</v>
+        <v>1284</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>132</v>
+        <v>1280</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>147</v>
+        <v>1281</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="29"/>
+      <c r="G8" s="14" t="s">
+        <v>1283</v>
+      </c>
     </row>
     <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="6">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B10" s="6">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="6">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B12" s="6">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>156</v>
@@ -17684,158 +17797,156 @@
     </row>
     <row r="13" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B13" s="6">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B14" s="6">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B15" s="6">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="8">
-        <v>19</v>
-      </c>
-      <c r="C16" s="9" t="s">
+    <row r="16" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="6">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="8">
+        <v>13</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="18" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B19" s="3" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="19" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B20" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C20" s="37" t="s">
         <v>1216</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-    </row>
-    <row r="20" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B20" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
     </row>
     <row r="21" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B22" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B22" s="6">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B23" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>144</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B24" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1223</v>
+        <v>1211</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>144</v>
@@ -17847,125 +17958,127 @@
     </row>
     <row r="25" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F25" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="14"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B28" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>131</v>
+        <v>1224</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>132</v>
+        <v>1225</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="29"/>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B29" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="7"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B30" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="7"/>
     </row>
     <row r="31" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B31" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B32" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>156</v>
@@ -17975,161 +18088,159 @@
     </row>
     <row r="33" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B33" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B34" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B35" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="8">
+    <row r="36" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B36" s="6">
+        <v>14</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="8">
         <v>15</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C37" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D37" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E37" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="38" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B39" s="3" t="s">
+      <c r="F37" s="9"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="39" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B40" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C40" s="37" t="s">
         <v>1271</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="38"/>
-    </row>
-    <row r="40" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B40" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="35"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="39"/>
     </row>
     <row r="41" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="36"/>
+    </row>
+    <row r="42" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B42" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G42" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B42" s="6">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G42" s="7"/>
     </row>
     <row r="43" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B43" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>1243</v>
+        <v>362</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G43" s="7"/>
     </row>
     <row r="44" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B44" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>364</v>
+        <v>1243</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>160</v>
@@ -18138,1079 +18249,1480 @@
     </row>
     <row r="45" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B45" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>1234</v>
+        <v>1246</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>1236</v>
+        <v>364</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G45" s="14"/>
+      <c r="G45" s="7"/>
     </row>
     <row r="46" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B46" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>1235</v>
+        <v>1285</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>1233</v>
+        <v>1282</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G46" s="14"/>
+        <v>1281</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="14" t="s">
+        <v>1283</v>
+      </c>
     </row>
     <row r="47" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B47" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F47" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="G47" s="14"/>
     </row>
     <row r="48" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B48" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="14" t="s">
-        <v>1241</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G48" s="14"/>
     </row>
     <row r="49" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B49" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>1277</v>
+        <v>1237</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>1278</v>
+        <v>1238</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>1279</v>
+        <v>157</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B50" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>131</v>
+        <v>1239</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>132</v>
+        <v>1240</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="F50" s="2"/>
-      <c r="G50" s="31"/>
+      <c r="G50" s="14" t="s">
+        <v>1241</v>
+      </c>
     </row>
     <row r="51" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B51" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>133</v>
+        <v>1277</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>137</v>
+        <v>1278</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>145</v>
+        <v>1279</v>
       </c>
       <c r="F51" s="2"/>
-      <c r="G51" s="7"/>
+      <c r="G51" s="14"/>
     </row>
     <row r="52" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B52" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>134</v>
+        <v>1303</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>138</v>
+        <v>1304</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="7"/>
+        <v>1305</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G52" s="14"/>
     </row>
     <row r="53" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B53" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F53" s="2"/>
-      <c r="G53" s="7"/>
+      <c r="G53" s="33"/>
     </row>
     <row r="54" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B54" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="7"/>
     </row>
     <row r="55" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B55" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="7"/>
     </row>
     <row r="56" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B56" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="7"/>
     </row>
     <row r="57" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B57" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="8">
+    <row r="58" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B58" s="6">
+        <v>16</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B59" s="6">
         <v>17</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C59" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B60" s="6">
+        <v>18</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="8">
+        <v>19</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D61" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E61" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="10"/>
-    </row>
-    <row r="60" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B61" s="3" t="s">
+      <c r="F61" s="9"/>
+      <c r="G61" s="10"/>
+    </row>
+    <row r="63" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B64" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C61" s="36" t="s">
+      <c r="C64" s="37" t="s">
         <v>1226</v>
       </c>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="38"/>
-    </row>
-    <row r="62" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B62" s="4" t="s">
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="39"/>
+    </row>
+    <row r="65" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B65" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C65" s="34" t="s">
         <v>1256</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="35"/>
-    </row>
-    <row r="63" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B63" s="4" t="s">
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="36"/>
+    </row>
+    <row r="66" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B66" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G66" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B64" s="6">
-        <v>1</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>1227</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>1229</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G64" s="7"/>
-    </row>
-    <row r="65" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B65" s="6">
-        <v>2</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>1249</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G65" s="7"/>
-    </row>
-    <row r="66" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B66" s="6">
-        <v>3</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>1252</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="G66" s="7"/>
     </row>
     <row r="67" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B67" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G67" s="7"/>
     </row>
     <row r="68" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B68" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>979</v>
+        <v>1248</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>1232</v>
+        <v>1249</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G68" s="14"/>
+      <c r="G68" s="7"/>
     </row>
     <row r="69" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B69" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>1231</v>
+        <v>1250</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>1233</v>
+        <v>1251</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>174</v>
+        <v>1252</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G69" s="14"/>
+        <v>857</v>
+      </c>
+      <c r="G69" s="7"/>
     </row>
     <row r="70" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B70" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>131</v>
+        <v>1228</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>132</v>
+        <v>1230</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="29"/>
+        <v>146</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G70" s="7"/>
     </row>
     <row r="71" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B71" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>133</v>
+        <v>979</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>137</v>
+        <v>1232</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F71" s="2"/>
-      <c r="G71" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G71" s="14"/>
     </row>
     <row r="72" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B72" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>134</v>
+        <v>1231</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>138</v>
+        <v>1233</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F72" s="2"/>
-      <c r="G72" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G72" s="14"/>
     </row>
     <row r="73" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B73" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F73" s="2"/>
-      <c r="G73" s="7"/>
+      <c r="G73" s="29"/>
     </row>
     <row r="74" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B74" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="7"/>
     </row>
     <row r="75" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B75" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="7"/>
     </row>
     <row r="76" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B76" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="7"/>
     </row>
     <row r="77" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B77" s="6">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="7"/>
     </row>
-    <row r="78" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B78" s="6">
+        <v>12</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F78" s="2"/>
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B79" s="6">
+        <v>13</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" s="7"/>
+    </row>
+    <row r="80" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B80" s="6">
+        <v>14</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" s="7"/>
+    </row>
+    <row r="81" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="6">
         <v>15</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C81" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D81" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E81" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="10"/>
-    </row>
-    <row r="80" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="81" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B81" s="3" t="s">
+      <c r="F81" s="9"/>
+      <c r="G81" s="10"/>
+    </row>
+    <row r="83" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B84" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C81" s="36" t="s">
+      <c r="C84" s="37" t="s">
         <v>1253</v>
       </c>
-      <c r="D81" s="37"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="38"/>
-    </row>
-    <row r="82" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B82" s="4" t="s">
+      <c r="D84" s="38"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="39"/>
+    </row>
+    <row r="85" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B85" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C82" s="33" t="s">
+      <c r="C85" s="34" t="s">
         <v>1254</v>
       </c>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="35"/>
-    </row>
-    <row r="83" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B83" s="4" t="s">
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="36"/>
+    </row>
+    <row r="86" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B86" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="G86" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B84" s="4"/>
-      <c r="C84" s="2" t="s">
+    <row r="87" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B87" s="4"/>
+      <c r="C87" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>1274</v>
       </c>
-      <c r="G84" s="5"/>
-    </row>
-    <row r="85" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B85" s="6">
-        <v>1</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F85" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="G85" s="7"/>
-    </row>
-    <row r="86" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B86" s="6">
-        <v>2</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>1211</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G86" s="7"/>
-    </row>
-    <row r="87" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B87" s="6">
-        <v>3</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G87" s="7"/>
+      <c r="G87" s="5"/>
     </row>
     <row r="88" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B88" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>131</v>
+        <v>1244</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>132</v>
+        <v>362</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F88" s="2"/>
-      <c r="G88" s="29"/>
+        <v>144</v>
+      </c>
+      <c r="F88" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G88" s="7"/>
     </row>
     <row r="89" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B89" s="6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>133</v>
+        <v>1255</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>137</v>
+        <v>1211</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F89" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="G89" s="7"/>
     </row>
     <row r="90" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B90" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>134</v>
+        <v>1276</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>138</v>
+        <v>364</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F90" s="2"/>
+      <c r="F90" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="G90" s="7"/>
     </row>
     <row r="91" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B91" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F91" s="2"/>
-      <c r="G91" s="7"/>
+      <c r="G91" s="29"/>
     </row>
     <row r="92" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B92" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="7"/>
     </row>
     <row r="93" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B93" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="7"/>
     </row>
     <row r="94" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B94" s="6">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="7"/>
     </row>
     <row r="95" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B95" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="8">
+    <row r="96" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B96" s="6">
+        <v>13</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F96" s="2"/>
+      <c r="G96" s="7"/>
+    </row>
+    <row r="97" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B97" s="6">
+        <v>14</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F97" s="2"/>
+      <c r="G97" s="7"/>
+    </row>
+    <row r="98" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B98" s="6">
+        <v>15</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" s="7"/>
+    </row>
+    <row r="99" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="8">
         <v>16</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C99" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D99" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E99" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="F96" s="9"/>
-      <c r="G96" s="10"/>
-    </row>
-    <row r="98" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="99" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B99" s="3" t="s">
+      <c r="F99" s="9"/>
+      <c r="G99" s="10"/>
+    </row>
+    <row r="101" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B102" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C99" s="36" t="s">
+      <c r="C102" s="37" t="s">
         <v>1257</v>
       </c>
-      <c r="D99" s="37"/>
-      <c r="E99" s="37"/>
-      <c r="F99" s="37"/>
-      <c r="G99" s="38"/>
-    </row>
-    <row r="100" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B100" s="4" t="s">
+      <c r="D102" s="38"/>
+      <c r="E102" s="38"/>
+      <c r="F102" s="38"/>
+      <c r="G102" s="39"/>
+    </row>
+    <row r="103" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B103" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C100" s="33" t="s">
+      <c r="C103" s="34" t="s">
         <v>1258</v>
       </c>
-      <c r="D100" s="34"/>
-      <c r="E100" s="34"/>
-      <c r="F100" s="34"/>
-      <c r="G100" s="35"/>
-    </row>
-    <row r="101" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B101" s="4" t="s">
+      <c r="D103" s="35"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="36"/>
+    </row>
+    <row r="104" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B104" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F104" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G101" s="5" t="s">
+      <c r="G104" s="5" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B102" s="6">
-        <v>1</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>1261</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G102" s="7"/>
-    </row>
-    <row r="103" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B103" s="6">
-        <v>2</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>1259</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>1262</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G103" s="7"/>
-    </row>
-    <row r="104" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B104" s="6">
-        <v>3</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>1264</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F104" s="2"/>
-      <c r="G104" s="7" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="105" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B105" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F105" s="2"/>
-      <c r="G105" s="14"/>
+        <v>144</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G105" s="7"/>
     </row>
     <row r="106" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B106" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F106" s="2"/>
-      <c r="G106" s="14"/>
+      <c r="F106" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G106" s="7"/>
     </row>
     <row r="107" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B107" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>131</v>
+        <v>1263</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>132</v>
+        <v>1264</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>147</v>
+        <v>1265</v>
       </c>
       <c r="F107" s="2"/>
-      <c r="G107" s="30"/>
+      <c r="G107" s="7" t="s">
+        <v>1270</v>
+      </c>
     </row>
     <row r="108" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B108" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>133</v>
+        <v>1266</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>137</v>
+        <v>1268</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="F108" s="2"/>
-      <c r="G108" s="7"/>
+      <c r="G108" s="14"/>
     </row>
     <row r="109" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B109" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>134</v>
+        <v>1267</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>138</v>
+        <v>1269</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="F109" s="2"/>
-      <c r="G109" s="7"/>
+      <c r="G109" s="14"/>
     </row>
     <row r="110" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B110" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F110" s="2"/>
-      <c r="G110" s="7"/>
+      <c r="G110" s="30"/>
     </row>
     <row r="111" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B111" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="7"/>
     </row>
     <row r="112" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B112" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="7"/>
     </row>
     <row r="113" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B113" s="6">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="7"/>
     </row>
     <row r="114" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B114" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="7"/>
     </row>
-    <row r="115" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="8">
+    <row r="115" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B115" s="6">
+        <v>13</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" s="7"/>
+    </row>
+    <row r="116" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B116" s="6">
+        <v>14</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F116" s="2"/>
+      <c r="G116" s="7"/>
+    </row>
+    <row r="117" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B117" s="6">
+        <v>15</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F117" s="2"/>
+      <c r="G117" s="7"/>
+    </row>
+    <row r="118" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="8">
         <v>16</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C118" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="D118" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E115" s="9" t="s">
+      <c r="E118" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="F115" s="9"/>
-      <c r="G115" s="10"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="10"/>
+    </row>
+    <row r="121" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="122" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B122" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C122" s="37" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D122" s="38"/>
+      <c r="E122" s="38"/>
+      <c r="F122" s="38"/>
+      <c r="G122" s="39"/>
+    </row>
+    <row r="123" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B123" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C123" s="34" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D123" s="35"/>
+      <c r="E123" s="35"/>
+      <c r="F123" s="35"/>
+      <c r="G123" s="36"/>
+    </row>
+    <row r="124" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B124" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B125" s="6">
+        <v>1</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G125" s="5"/>
+    </row>
+    <row r="126" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B126" s="6">
+        <v>2</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F126" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="G126" s="7"/>
+    </row>
+    <row r="127" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B127" s="6">
+        <v>3</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G127" s="7"/>
+    </row>
+    <row r="128" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B128" s="6">
+        <v>4</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F128" s="2"/>
+      <c r="G128" s="7"/>
+    </row>
+    <row r="129" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B129" s="6">
+        <v>5</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G129" s="14"/>
+    </row>
+    <row r="130" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B130" s="6">
+        <v>6</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F130" s="2"/>
+      <c r="G130" s="14"/>
+    </row>
+    <row r="131" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B131" s="6">
+        <v>7</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F131" s="2"/>
+      <c r="G131" s="14" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B132" s="6">
+        <v>8</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F132" s="2"/>
+      <c r="G132" s="14" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B133" s="6">
+        <v>9</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F133" s="2"/>
+      <c r="G133" s="14"/>
+    </row>
+    <row r="134" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B134" s="6">
+        <v>10</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F134" s="2"/>
+      <c r="G134" s="33"/>
+    </row>
+    <row r="135" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B135" s="6">
+        <v>11</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F135" s="2"/>
+      <c r="G135" s="7"/>
+    </row>
+    <row r="136" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B136" s="6">
+        <v>12</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F136" s="2"/>
+      <c r="G136" s="7"/>
+    </row>
+    <row r="137" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B137" s="6">
+        <v>13</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F137" s="2"/>
+      <c r="G137" s="7"/>
+    </row>
+    <row r="138" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B138" s="6">
+        <v>14</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F138" s="2"/>
+      <c r="G138" s="7"/>
+    </row>
+    <row r="139" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B139" s="6">
+        <v>15</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F139" s="2"/>
+      <c r="G139" s="7"/>
+    </row>
+    <row r="140" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B140" s="6">
+        <v>16</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F140" s="2"/>
+      <c r="G140" s="7"/>
+    </row>
+    <row r="141" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B141" s="6">
+        <v>17</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F141" s="2"/>
+      <c r="G141" s="7"/>
+    </row>
+    <row r="142" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="8">
+        <v>18</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F142" s="9"/>
+      <c r="G142" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C39:G39"/>
+  <mergeCells count="14">
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="C103:G103"/>
     <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C65:G65"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C64:G64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19239,25 +19751,25 @@
       <c r="B2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>674</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -19532,25 +20044,25 @@
       <c r="B23" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="37" t="s">
         <v>675</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
     </row>
     <row r="24" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
     </row>
     <row r="25" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
@@ -19831,25 +20343,25 @@
       <c r="B44" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="37" t="s">
         <v>676</v>
       </c>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="39"/>
     </row>
     <row r="45" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="36"/>
     </row>
     <row r="46" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
@@ -20192,25 +20704,25 @@
       <c r="B69" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="37" t="s">
         <v>677</v>
       </c>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="39"/>
     </row>
     <row r="70" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B70" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="34" t="s">
         <v>530</v>
       </c>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="36"/>
     </row>
     <row r="71" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B71" s="4" t="s">
@@ -20773,25 +21285,25 @@
       <c r="B108" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C108" s="36" t="s">
+      <c r="C108" s="37" t="s">
         <v>1181</v>
       </c>
-      <c r="D108" s="37"/>
-      <c r="E108" s="37"/>
-      <c r="F108" s="37"/>
-      <c r="G108" s="38"/>
+      <c r="D108" s="38"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="38"/>
+      <c r="G108" s="39"/>
     </row>
     <row r="109" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B109" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C109" s="33" t="s">
+      <c r="C109" s="34" t="s">
         <v>1165</v>
       </c>
-      <c r="D109" s="34"/>
-      <c r="E109" s="34"/>
-      <c r="F109" s="34"/>
-      <c r="G109" s="35"/>
+      <c r="D109" s="35"/>
+      <c r="E109" s="35"/>
+      <c r="F109" s="35"/>
+      <c r="G109" s="36"/>
     </row>
     <row r="110" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B110" s="4" t="s">
@@ -20935,7 +21447,7 @@
       <c r="F117" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G117" s="45" t="s">
+      <c r="G117" s="46" t="s">
         <v>1185</v>
       </c>
     </row>
@@ -20953,7 +21465,7 @@
         <v>267</v>
       </c>
       <c r="F118" s="2"/>
-      <c r="G118" s="46"/>
+      <c r="G118" s="47"/>
     </row>
     <row r="119" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B119" s="6">
@@ -20969,7 +21481,7 @@
         <v>146</v>
       </c>
       <c r="F119" s="2"/>
-      <c r="G119" s="46"/>
+      <c r="G119" s="47"/>
     </row>
     <row r="120" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B120" s="6">
@@ -20985,7 +21497,7 @@
         <v>153</v>
       </c>
       <c r="F120" s="2"/>
-      <c r="G120" s="47"/>
+      <c r="G120" s="48"/>
     </row>
     <row r="121" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B121" s="6">
@@ -21001,7 +21513,7 @@
         <v>514</v>
       </c>
       <c r="F121" s="2"/>
-      <c r="G121" s="45" t="s">
+      <c r="G121" s="46" t="s">
         <v>1169</v>
       </c>
     </row>
@@ -21019,7 +21531,7 @@
         <v>216</v>
       </c>
       <c r="F122" s="2"/>
-      <c r="G122" s="46"/>
+      <c r="G122" s="47"/>
     </row>
     <row r="123" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B123" s="6">
@@ -21035,7 +21547,7 @@
         <v>146</v>
       </c>
       <c r="F123" s="2"/>
-      <c r="G123" s="47"/>
+      <c r="G123" s="48"/>
     </row>
     <row r="124" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B124" s="6">
@@ -21051,7 +21563,7 @@
         <v>144</v>
       </c>
       <c r="F124" s="2"/>
-      <c r="G124" s="45" t="s">
+      <c r="G124" s="46" t="s">
         <v>1170</v>
       </c>
     </row>
@@ -21069,7 +21581,7 @@
         <v>145</v>
       </c>
       <c r="F125" s="2"/>
-      <c r="G125" s="46"/>
+      <c r="G125" s="47"/>
     </row>
     <row r="126" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B126" s="6">
@@ -21085,7 +21597,7 @@
         <v>146</v>
       </c>
       <c r="F126" s="2"/>
-      <c r="G126" s="47"/>
+      <c r="G126" s="48"/>
     </row>
     <row r="127" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B127" s="6">
@@ -21101,7 +21613,7 @@
         <v>144</v>
       </c>
       <c r="F127" s="2"/>
-      <c r="G127" s="45" t="s">
+      <c r="G127" s="46" t="s">
         <v>1171</v>
       </c>
     </row>
@@ -21119,7 +21631,7 @@
         <v>145</v>
       </c>
       <c r="F128" s="2"/>
-      <c r="G128" s="46"/>
+      <c r="G128" s="47"/>
     </row>
     <row r="129" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B129" s="6">
@@ -21135,7 +21647,7 @@
         <v>146</v>
       </c>
       <c r="F129" s="2"/>
-      <c r="G129" s="47"/>
+      <c r="G129" s="48"/>
     </row>
     <row r="130" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B130" s="6">
@@ -21320,25 +21832,25 @@
       <c r="B143" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C143" s="36" t="s">
+      <c r="C143" s="37" t="s">
         <v>1182</v>
       </c>
-      <c r="D143" s="37"/>
-      <c r="E143" s="37"/>
-      <c r="F143" s="37"/>
-      <c r="G143" s="38"/>
+      <c r="D143" s="38"/>
+      <c r="E143" s="38"/>
+      <c r="F143" s="38"/>
+      <c r="G143" s="39"/>
     </row>
     <row r="144" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B144" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C144" s="33" t="s">
+      <c r="C144" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D144" s="34"/>
-      <c r="E144" s="34"/>
-      <c r="F144" s="34"/>
-      <c r="G144" s="35"/>
+      <c r="D144" s="35"/>
+      <c r="E144" s="35"/>
+      <c r="F144" s="35"/>
+      <c r="G144" s="36"/>
     </row>
     <row r="145" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B145" s="4" t="s">
@@ -21528,7 +22040,7 @@
         <v>514</v>
       </c>
       <c r="F155" s="2"/>
-      <c r="G155" s="45" t="s">
+      <c r="G155" s="46" t="s">
         <v>1173</v>
       </c>
     </row>
@@ -21546,7 +22058,7 @@
         <v>216</v>
       </c>
       <c r="F156" s="2"/>
-      <c r="G156" s="46"/>
+      <c r="G156" s="47"/>
     </row>
     <row r="157" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B157" s="6">
@@ -21562,7 +22074,7 @@
         <v>146</v>
       </c>
       <c r="F157" s="2"/>
-      <c r="G157" s="47"/>
+      <c r="G157" s="48"/>
     </row>
     <row r="158" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B158" s="6">
@@ -21578,7 +22090,7 @@
         <v>144</v>
       </c>
       <c r="F158" s="2"/>
-      <c r="G158" s="45" t="s">
+      <c r="G158" s="46" t="s">
         <v>1174</v>
       </c>
     </row>
@@ -21596,7 +22108,7 @@
         <v>145</v>
       </c>
       <c r="F159" s="2"/>
-      <c r="G159" s="46"/>
+      <c r="G159" s="47"/>
     </row>
     <row r="160" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B160" s="6">
@@ -21612,7 +22124,7 @@
         <v>146</v>
       </c>
       <c r="F160" s="2"/>
-      <c r="G160" s="47"/>
+      <c r="G160" s="48"/>
     </row>
     <row r="161" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B161" s="6">
@@ -21628,7 +22140,7 @@
         <v>144</v>
       </c>
       <c r="F161" s="2"/>
-      <c r="G161" s="45" t="s">
+      <c r="G161" s="46" t="s">
         <v>1175</v>
       </c>
     </row>
@@ -21646,7 +22158,7 @@
         <v>145</v>
       </c>
       <c r="F162" s="2"/>
-      <c r="G162" s="46"/>
+      <c r="G162" s="47"/>
     </row>
     <row r="163" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B163" s="6">
@@ -21662,7 +22174,7 @@
         <v>146</v>
       </c>
       <c r="F163" s="2"/>
-      <c r="G163" s="47"/>
+      <c r="G163" s="48"/>
     </row>
     <row r="164" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B164" s="6">
@@ -21874,25 +22386,25 @@
       <c r="B3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="37" t="s">
         <v>717</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -21930,7 +22442,7 @@
       <c r="F6" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="46" t="s">
         <v>377</v>
       </c>
     </row>
@@ -21950,7 +22462,7 @@
       <c r="F7" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G7" s="46"/>
+      <c r="G7" s="47"/>
     </row>
     <row r="8" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="6">
@@ -21968,7 +22480,7 @@
       <c r="F8" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G8" s="47"/>
+      <c r="G8" s="48"/>
     </row>
     <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="6">
@@ -22269,25 +22781,25 @@
       <c r="B30" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="37" t="s">
         <v>718</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
     </row>
     <row r="31" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B31" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
     </row>
     <row r="32" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
@@ -22599,25 +23111,25 @@
       <c r="B4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="37" t="s">
         <v>1080</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="34" t="s">
         <v>1079</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -22882,25 +23394,25 @@
       <c r="B25" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="37" t="s">
         <v>996</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
     </row>
     <row r="26" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="34" t="s">
         <v>1003</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
     </row>
     <row r="27" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
@@ -23159,25 +23671,25 @@
       <c r="B45" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="C45" s="37" t="s">
         <v>1008</v>
       </c>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="39"/>
     </row>
     <row r="46" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="34" t="s">
         <v>1009</v>
       </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="36"/>
     </row>
     <row r="47" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
@@ -23440,25 +23952,25 @@
       <c r="B64" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C64" s="36" t="s">
+      <c r="C64" s="37" t="s">
         <v>1024</v>
       </c>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="39"/>
     </row>
     <row r="65" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B65" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="33" t="s">
+      <c r="C65" s="34" t="s">
         <v>1025</v>
       </c>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="36"/>
     </row>
     <row r="66" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B66" s="4" t="s">
@@ -23841,25 +24353,25 @@
       <c r="B91" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C91" s="36" t="s">
+      <c r="C91" s="37" t="s">
         <v>1041</v>
       </c>
-      <c r="D91" s="37"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="38"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="39"/>
     </row>
     <row r="92" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B92" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C92" s="33" t="s">
+      <c r="C92" s="34" t="s">
         <v>1042</v>
       </c>
-      <c r="D92" s="34"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="34"/>
-      <c r="G92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="36"/>
     </row>
     <row r="93" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B93" s="4" t="s">
@@ -24250,25 +24762,25 @@
       <c r="B117" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C117" s="36" t="s">
+      <c r="C117" s="37" t="s">
         <v>1073</v>
       </c>
-      <c r="D117" s="37"/>
-      <c r="E117" s="37"/>
-      <c r="F117" s="37"/>
-      <c r="G117" s="38"/>
+      <c r="D117" s="38"/>
+      <c r="E117" s="38"/>
+      <c r="F117" s="38"/>
+      <c r="G117" s="39"/>
     </row>
     <row r="118" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B118" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C118" s="33" t="s">
+      <c r="C118" s="34" t="s">
         <v>1084</v>
       </c>
-      <c r="D118" s="34"/>
-      <c r="E118" s="34"/>
-      <c r="F118" s="34"/>
-      <c r="G118" s="35"/>
+      <c r="D118" s="35"/>
+      <c r="E118" s="35"/>
+      <c r="F118" s="35"/>
+      <c r="G118" s="36"/>
     </row>
     <row r="119" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B119" s="4" t="s">
@@ -24464,7 +24976,7 @@
       <c r="F129" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G129" s="45" t="s">
+      <c r="G129" s="46" t="s">
         <v>1078</v>
       </c>
     </row>
@@ -24484,7 +24996,7 @@
       <c r="F130" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G130" s="46"/>
+      <c r="G130" s="47"/>
     </row>
     <row r="131" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B131" s="6">
@@ -24502,7 +25014,7 @@
       <c r="F131" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G131" s="46"/>
+      <c r="G131" s="47"/>
     </row>
     <row r="132" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B132" s="6">
@@ -24518,7 +25030,7 @@
         <v>147</v>
       </c>
       <c r="F132" s="2"/>
-      <c r="G132" s="46"/>
+      <c r="G132" s="47"/>
     </row>
     <row r="133" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B133" s="6">
@@ -24536,7 +25048,7 @@
       <c r="F133" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G133" s="47"/>
+      <c r="G133" s="48"/>
     </row>
     <row r="134" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B134" s="6">
@@ -24969,25 +25481,25 @@
       <c r="B162" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C162" s="36" t="s">
+      <c r="C162" s="37" t="s">
         <v>1125</v>
       </c>
-      <c r="D162" s="37"/>
-      <c r="E162" s="37"/>
-      <c r="F162" s="37"/>
-      <c r="G162" s="38"/>
+      <c r="D162" s="38"/>
+      <c r="E162" s="38"/>
+      <c r="F162" s="38"/>
+      <c r="G162" s="39"/>
     </row>
     <row r="163" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B163" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C163" s="33" t="s">
+      <c r="C163" s="34" t="s">
         <v>1126</v>
       </c>
-      <c r="D163" s="34"/>
-      <c r="E163" s="34"/>
-      <c r="F163" s="34"/>
-      <c r="G163" s="35"/>
+      <c r="D163" s="35"/>
+      <c r="E163" s="35"/>
+      <c r="F163" s="35"/>
+      <c r="G163" s="36"/>
     </row>
     <row r="164" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B164" s="4" t="s">
@@ -25408,25 +25920,25 @@
       <c r="B191" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C191" s="36" t="s">
+      <c r="C191" s="37" t="s">
         <v>1138</v>
       </c>
-      <c r="D191" s="37"/>
-      <c r="E191" s="37"/>
-      <c r="F191" s="37"/>
-      <c r="G191" s="38"/>
+      <c r="D191" s="38"/>
+      <c r="E191" s="38"/>
+      <c r="F191" s="38"/>
+      <c r="G191" s="39"/>
     </row>
     <row r="192" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B192" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C192" s="33" t="s">
+      <c r="C192" s="34" t="s">
         <v>1139</v>
       </c>
-      <c r="D192" s="34"/>
-      <c r="E192" s="34"/>
-      <c r="F192" s="34"/>
-      <c r="G192" s="35"/>
+      <c r="D192" s="35"/>
+      <c r="E192" s="35"/>
+      <c r="F192" s="35"/>
+      <c r="G192" s="36"/>
     </row>
     <row r="193" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B193" s="4" t="s">
@@ -25751,25 +26263,25 @@
       <c r="B2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>800</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>823</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -26050,25 +26562,25 @@
       <c r="B23" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="37" t="s">
         <v>822</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
     </row>
     <row r="24" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="34" t="s">
         <v>824</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
     </row>
     <row r="25" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
